--- a/GanttChart.xlsx
+++ b/GanttChart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\z00503ku\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D87D97D-C490-438D-B3F2-32EBE3E00BEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C915523-9E97-49F0-9CCD-D7A37910D761}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{43E547F6-0216-4364-89E9-4ABBD2898905}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="53">
   <si>
     <t>Define Role &amp; Skills</t>
   </si>
@@ -182,6 +182,21 @@
   <si>
     <t>27-31</t>
   </si>
+  <si>
+    <t>Design Finalised</t>
+  </si>
+  <si>
+    <t>Internal Presentation</t>
+  </si>
+  <si>
+    <t>Demo Software</t>
+  </si>
+  <si>
+    <t>Final Software</t>
+  </si>
+  <si>
+    <t>Demo Ends</t>
+  </si>
 </sst>
 </file>
 
@@ -196,7 +211,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -221,8 +236,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="44">
+  <borders count="51">
     <border>
       <left/>
       <right/>
@@ -737,16 +776,100 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
@@ -754,7 +877,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -765,7 +887,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
@@ -797,24 +919,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -835,6 +939,98 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="43" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="42" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="40" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="44" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="43" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="42" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="50" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -918,13 +1114,13 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>7499</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>82</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>171138</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -940,8 +1136,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15303500" y="4096899"/>
-          <a:ext cx="4267282" cy="163639"/>
+          <a:off x="14791765" y="4923146"/>
+          <a:ext cx="4288199" cy="163639"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -978,13 +1174,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>12644</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>23813</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>176283</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1000,8 +1196,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11036300" y="2616144"/>
-          <a:ext cx="3071813" cy="163639"/>
+          <a:off x="10503647" y="2858938"/>
+          <a:ext cx="3086754" cy="163639"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1060,8 +1256,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7985291" y="1497932"/>
-          <a:ext cx="1226177" cy="163639"/>
+          <a:off x="7434709" y="1536032"/>
+          <a:ext cx="1235141" cy="163639"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1180,8 +1376,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9205118" y="2056732"/>
-          <a:ext cx="1839120" cy="163639"/>
+          <a:off x="8660512" y="2103797"/>
+          <a:ext cx="1851073" cy="163639"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1278,13 +1474,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>535083</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>179242</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>87232</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>174998</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1338,13 +1534,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>6296</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>7938</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>169935</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1360,8 +1556,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14084300" y="3536896"/>
-          <a:ext cx="1227138" cy="163639"/>
+          <a:off x="13566588" y="3980649"/>
+          <a:ext cx="1233115" cy="163639"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1398,13 +1594,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>604274</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>93432</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>7837</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>90155</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1456,14 +1652,14 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>534398</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>192147</xdr:rowOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>185798</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>86547</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>4008</xdr:rowOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>179181</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1478,8 +1674,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15836084" y="4114633"/>
-          <a:ext cx="161749" cy="189232"/>
+          <a:off x="15822570" y="4661453"/>
+          <a:ext cx="160874" cy="186073"/>
         </a:xfrm>
         <a:prstGeom prst="diamond">
           <a:avLst/>
@@ -1516,13 +1712,13 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>531556</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>186766</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>83705</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>181689</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1598,8 +1794,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="19723002" y="39715"/>
-          <a:ext cx="1337730" cy="1471432"/>
+          <a:off x="19162708" y="39715"/>
+          <a:ext cx="1337730" cy="1486373"/>
           <a:chOff x="19685000" y="2401990"/>
           <a:chExt cx="1330892" cy="1453476"/>
         </a:xfrm>
@@ -2309,7 +2505,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4947157" y="788643"/>
+          <a:off x="4383645" y="815652"/>
           <a:ext cx="595905" cy="86591"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2425,8 +2621,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5557738" y="1159949"/>
-          <a:ext cx="1823420" cy="86591"/>
+          <a:off x="4996962" y="1190675"/>
+          <a:ext cx="1827757" cy="86591"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2483,8 +2679,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6777348" y="1347171"/>
-          <a:ext cx="1213410" cy="86591"/>
+          <a:off x="6220909" y="1380307"/>
+          <a:ext cx="1215580" cy="86591"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2541,7 +2737,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7999006" y="1716700"/>
+          <a:off x="7446906" y="1755981"/>
           <a:ext cx="602171" cy="86591"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2599,8 +2795,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7996958" y="1909249"/>
-          <a:ext cx="1213410" cy="86591"/>
+          <a:off x="7444858" y="1950939"/>
+          <a:ext cx="1215578" cy="86591"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2657,8 +2853,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9220664" y="2280826"/>
-          <a:ext cx="1213410" cy="86591"/>
+          <a:off x="8672901" y="2328661"/>
+          <a:ext cx="1215579" cy="86591"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2692,15 +2888,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>3741</xdr:colOff>
+      <xdr:colOff>6839</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>50953</xdr:rowOff>
+      <xdr:rowOff>57148</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>606732</xdr:colOff>
+      <xdr:colOff>609830</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>137544</xdr:rowOff>
+      <xdr:rowOff>143739</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2715,8 +2911,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9827806" y="2466001"/>
-          <a:ext cx="1213410" cy="86591"/>
+          <a:off x="9285310" y="2522442"/>
+          <a:ext cx="1215579" cy="86591"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2751,13 +2947,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>8658</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>49724</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>1229</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>136315</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2773,8 +2969,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11053561" y="2839627"/>
-          <a:ext cx="1213410" cy="86591"/>
+          <a:off x="10512305" y="3082783"/>
+          <a:ext cx="1217748" cy="86591"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2809,13 +3005,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>5379</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>44398</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>604274</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>130989</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2831,8 +3027,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11050282" y="3018656"/>
-          <a:ext cx="2430153" cy="86591"/>
+          <a:off x="10509026" y="3450986"/>
+          <a:ext cx="2436660" cy="86591"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2867,13 +3063,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>4149</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>47266</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>603044</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>133857</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2889,8 +3085,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11659472" y="3205879"/>
-          <a:ext cx="2430153" cy="86591"/>
+          <a:off x="11120384" y="3640619"/>
+          <a:ext cx="2436660" cy="86591"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2925,13 +3121,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>7018</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>50136</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>604274</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>136727</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2947,8 +3143,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12272760" y="3393104"/>
-          <a:ext cx="1818095" cy="86591"/>
+          <a:off x="11735842" y="3830254"/>
+          <a:ext cx="1822432" cy="86591"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2983,13 +3179,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>7837</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>46859</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>604274</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>133450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3005,7 +3201,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14104837" y="3764682"/>
+          <a:off x="13574425" y="4207977"/>
           <a:ext cx="596437" cy="86591"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3041,13 +3237,13 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>4560</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>51776</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>600997</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>138367</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3063,7 +3259,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14711979" y="3953953"/>
+          <a:off x="14183736" y="4399658"/>
           <a:ext cx="596437" cy="86591"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3097,16 +3293,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>7470</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>46450</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>605297</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>42481</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>2049</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>133041</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>599877</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>129072</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3121,8 +3317,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15296029" y="4332700"/>
-          <a:ext cx="4256549" cy="86591"/>
+          <a:off x="14761828" y="5035169"/>
+          <a:ext cx="4272893" cy="86591"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3157,14 +3353,14 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>531513</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>178352</xdr:rowOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>191492</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>84360</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>178606</xdr:rowOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>182988</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3179,8 +3375,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15820072" y="4279705"/>
-          <a:ext cx="161700" cy="185151"/>
+          <a:off x="15819685" y="4474458"/>
+          <a:ext cx="161572" cy="184185"/>
         </a:xfrm>
         <a:prstGeom prst="diamond">
           <a:avLst/>
@@ -3215,81 +3411,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>547218</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>166219</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>197970</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>184867</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="43" name="TextBox 42">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC0725CD-74FF-9E3F-B810-4A805BC0004E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="15835777" y="4267572"/>
-          <a:ext cx="868458" cy="203545"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="900"/>
-            <a:t>Demo Ends</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>27</xdr:col>
       <xdr:colOff>516190</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>3473</xdr:rowOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>9228</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>88527</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>184718</xdr:rowOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>3708</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3304,8 +3435,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="19489083" y="4269312"/>
-          <a:ext cx="182390" cy="181245"/>
+          <a:off x="19497805" y="5250420"/>
+          <a:ext cx="182914" cy="180096"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -3333,76 +3464,6 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:endParaRPr lang="en-GB" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>276680</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>165553</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>43859</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>188080</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="46" name="TextBox 45">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB807ABD-3AD3-BA33-1087-676D30EB5370}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="18639519" y="4247696"/>
-          <a:ext cx="987286" cy="206223"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="900"/>
-            <a:t>Final</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-GB" sz="900" baseline="0"/>
-            <a:t> Software</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-GB" sz="900"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3444,65 +3505,6 @@
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
             <a:gd name="adj1" fmla="val -201"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>3742</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>89477</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>5881</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>96297</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="13" name="Connector: Elbow 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{499167AA-F35C-40A1-804C-C32EC4B7F34B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks/>
-          <a:stCxn id="71" idx="1"/>
-          <a:endCxn id="72" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="10800000" flipV="1">
-          <a:off x="4944452" y="833042"/>
-          <a:ext cx="2139" cy="191174"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 157457"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -3585,134 +3587,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>608371</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>93838</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>6200</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>88512</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="102" name="Connector: Elbow 101">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A867B95-7EDF-441C-89ED-D9F183387033}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks/>
-          <a:stCxn id="74" idx="3"/>
-          <a:endCxn id="75" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7990758" y="1390467"/>
-          <a:ext cx="8248" cy="369529"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 74830"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>4152</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>88511</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>6200</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>96705</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="106" name="Connector: Elbow 105">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E31FAD8-3A75-480A-BF2A-174E59421B19}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks/>
-          <a:stCxn id="75" idx="1"/>
-          <a:endCxn id="76" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="10800000" flipV="1">
-          <a:off x="7996958" y="1759995"/>
-          <a:ext cx="2048" cy="192549"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 59961"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>7019</xdr:colOff>
+      <xdr:colOff>7018</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>93427</xdr:rowOff>
+      <xdr:rowOff>93428</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>3741</xdr:colOff>
+      <xdr:colOff>6838</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>94248</xdr:rowOff>
+      <xdr:rowOff>100444</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3730,197 +3614,12 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000" flipH="1" flipV="1">
-          <a:off x="9220664" y="2324121"/>
-          <a:ext cx="607142" cy="185175"/>
+          <a:off x="9222262" y="2314379"/>
+          <a:ext cx="610039" cy="189772"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -540"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>607142</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>96706</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>7019</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>93428</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="18" name="Connector: Elbow 17">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A21DC19B-F75D-4F38-AD77-677DDCFF0B97}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="76" idx="3"/>
-          <a:endCxn id="78" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9210368" y="1952545"/>
-          <a:ext cx="10296" cy="371577"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 109683"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>154609</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>76500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>583092</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>105804</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="30" name="TextBox 29">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC5C0EF9-0BF0-FB61-AA3A-013CD7840278}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9955696" y="2296239"/>
-          <a:ext cx="1035874" cy="404782"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="900"/>
-            <a:t>Design</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-GB" sz="900" baseline="0"/>
-            <a:t> Finalised</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>606732</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>94249</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>8658</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>93020</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="3" name="Connector: Elbow 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FD9CA11-B4A7-4E44-9E78-A908A2716FF7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="79" idx="3"/>
-          <a:endCxn id="80" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11041216" y="2509297"/>
-          <a:ext cx="12345" cy="373626"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 66594"/>
+            <a:gd name="adj1" fmla="val -406"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -3949,13 +3648,13 @@
       <xdr:col>13</xdr:col>
       <xdr:colOff>534180</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>793</xdr:rowOff>
+      <xdr:rowOff>165502</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>85889</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>186761</xdr:rowOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>166743</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3970,8 +3669,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10968664" y="2415841"/>
-          <a:ext cx="162128" cy="185968"/>
+          <a:off x="10972499" y="2578502"/>
+          <a:ext cx="162390" cy="193092"/>
         </a:xfrm>
         <a:prstGeom prst="diamond">
           <a:avLst/>
@@ -4007,72 +3706,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>5380</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>93019</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>8659</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>87693</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="123" name="Connector: Elbow 122">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFCE6460-1660-4181-AFDD-5152894A2E66}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="80" idx="1"/>
-          <a:endCxn id="81" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="10800000" flipV="1">
-          <a:off x="11050283" y="2882922"/>
-          <a:ext cx="3279" cy="179029"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 74992"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
       <xdr:colOff>5379</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>87693</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>4149</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>90561</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4124,13 +3765,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>5379</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>87694</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>7018</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>93432</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4182,13 +3823,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>604274</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>90155</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>4560</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>95072</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4239,139 +3880,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>600997</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>95072</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>7470</xdr:colOff>
+      <xdr:colOff>514144</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>89746</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="24" name="Connector: Elbow 23">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{742E844D-406B-4118-9A79-9DEC14852F5A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks/>
-          <a:stCxn id="87" idx="3"/>
-          <a:endCxn id="88" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="15280703" y="4005925"/>
-          <a:ext cx="15326" cy="370071"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>101971</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>175784</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>25413</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>185971</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="40" name="TextBox 39">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07BB3EBB-CBBD-7E53-24E0-AF9343CD5F99}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="14798411" y="3909584"/>
-          <a:ext cx="533042" cy="195607"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="900"/>
-            <a:t>Demo</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>514144</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>1196</xdr:rowOff>
+      <xdr:rowOff>179795</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>87445</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>182859</xdr:rowOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>170958</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4386,8 +3903,68 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15193850" y="3912049"/>
-          <a:ext cx="182154" cy="181663"/>
+          <a:off x="15208044" y="4453345"/>
+          <a:ext cx="182901" cy="181663"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>517786</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>11542</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>90487</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>8904</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="Oval 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1E9CFBD-B043-FBD7-FD53-9BCBBDAFA6AD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12148312" y="3169831"/>
+          <a:ext cx="180964" cy="181178"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -4425,124 +4002,675 @@
       <xdr:col>14</xdr:col>
       <xdr:colOff>4036</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>176231</xdr:rowOff>
+      <xdr:rowOff>166743</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>76199</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>182881</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>4694</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>87684</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="37" name="TextBox 36">
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23AB564D-C8CD-13E6-13F2-23F0EEF5DE31}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{183A3E12-9C60-CFE3-1296-C07B27BA60CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="29" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11042876" y="2792431"/>
-          <a:ext cx="1291363" cy="192070"/>
+        <a:xfrm flipH="1">
+          <a:off x="11053036" y="2771594"/>
+          <a:ext cx="658" cy="296537"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
         </a:lnRef>
         <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
+          <a:schemeClr val="accent1"/>
         </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
+          <a:schemeClr val="tx1"/>
         </a:fontRef>
       </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="900"/>
-            <a:t>Internal Presentation</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>539541</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>2997</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>4036</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>88275</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>5379</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>87694</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="28" name="Straight Arrow Connector 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{055C5C3B-8C84-403D-A4FB-7D54191405BB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:endCxn id="81" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11060974" y="3048963"/>
+          <a:ext cx="1343" cy="364544"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>609830</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>100444</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>4694</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>165502</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="34" name="Straight Arrow Connector 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA9EFE1B-C08F-47FA-B508-B4494FED6ABD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="79" idx="3"/>
+          <a:endCxn id="29" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11048149" y="2513444"/>
+          <a:ext cx="5545" cy="65058"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>607142</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>96706</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>7019</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>93428</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="41" name="Straight Arrow Connector 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E07E2FBB-513D-4D58-AC3A-DD1E53A1FAB3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="76" idx="3"/>
+          <a:endCxn id="78" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9199847" y="1955524"/>
+          <a:ext cx="8899" cy="371949"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>4152</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>88512</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>6200</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>96706</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="64" name="Straight Arrow Connector 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F542B33B-6CA8-464C-B959-4F81798787A2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="75" idx="1"/>
+          <a:endCxn id="76" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7987834" y="1762603"/>
+          <a:ext cx="2048" cy="192921"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>608371</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>93838</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>6200</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>88512</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="67" name="Straight Arrow Connector 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CBD6434-3309-4341-BDA6-84EAC822E12D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="74" idx="3"/>
+          <a:endCxn id="75" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7983030" y="1392702"/>
+          <a:ext cx="6852" cy="369901"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3741</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>89477</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>5880</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>96297</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="77" name="Straight Arrow Connector 76">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD1B0365-BB29-491E-B198-683229F22FA9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="71" idx="1"/>
+          <a:endCxn id="72" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4942309" y="834159"/>
+          <a:ext cx="2139" cy="191547"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>5</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>93020</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>112242</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>358</xdr:rowOff>
+      <xdr:colOff>1229</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>11542</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="36" name="Oval 35">
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="100" name="Straight Arrow Connector 99">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1E9CFBD-B043-FBD7-FD53-9BCBBDAFA6AD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3142997-A1C3-4CD3-8BF3-B614B7FED7E7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="80" idx="3"/>
+          <a:endCxn id="36" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12187981" y="2804617"/>
-          <a:ext cx="182301" cy="182781"/>
+        <a:xfrm flipH="1">
+          <a:off x="12238794" y="3067494"/>
+          <a:ext cx="1224" cy="102337"/>
         </a:xfrm>
-        <a:prstGeom prst="ellipse">
+        <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
-          <a:schemeClr val="accent6">
-            <a:shade val="15000"/>
-          </a:schemeClr>
+          <a:schemeClr val="accent1"/>
         </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent6"/>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
         </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="tx1"/>
         </a:fontRef>
       </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-GB" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>600997</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>95072</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>605157</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>179795</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="111" name="Straight Arrow Connector 110">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E696FC42-3A83-448B-A7E4-75A68D9EFE81}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="87" idx="3"/>
+          <a:endCxn id="39" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15280445" y="4378038"/>
+          <a:ext cx="4160" cy="84723"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>605158</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>170957</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>531514</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>92099</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="117" name="Connector: Elbow 116">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7502E30-6BE4-41A5-8953-0F52BB98D21C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="39" idx="4"/>
+          <a:endCxn id="42" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="15499609" y="4431609"/>
+          <a:ext cx="105073" cy="535080"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>605297</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>170958</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>606389</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>85777</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="132" name="Straight Arrow Connector 131">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{793C4575-9631-4B01-BE8D-30200C836076}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="39" idx="4"/>
+          <a:endCxn id="88" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="14761828" y="4608021"/>
+          <a:ext cx="1092" cy="470444"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>599877</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>85777</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>607952</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>9228</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="136" name="Straight Arrow Connector 135">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57E11F14-44FE-423E-AFCE-1722792148EF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="88" idx="3"/>
+          <a:endCxn id="45" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19034721" y="5078465"/>
+          <a:ext cx="8075" cy="106013"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -7848,867 +7976,1181 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B84DCD8-6D76-4FB6-B23A-530AFABD7029}">
-  <dimension ref="A1:AB24"/>
+  <dimension ref="A1:AB34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N26" sqref="N26"/>
+      <selection activeCell="Q25" sqref="Q25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" customWidth="1"/>
-    <col min="2" max="3" width="28.26953125" customWidth="1"/>
+    <col min="1" max="1" width="3.81640625" customWidth="1"/>
+    <col min="2" max="2" width="21.81640625" customWidth="1"/>
+    <col min="3" max="3" width="28.26953125" customWidth="1"/>
     <col min="7" max="8" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A1" s="15"/>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="60" t="s">
+    <row r="1" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="72"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="74"/>
+      <c r="S1" s="74"/>
+      <c r="T1" s="74"/>
+      <c r="U1" s="74"/>
+      <c r="V1" s="74"/>
+      <c r="W1" s="74"/>
+      <c r="X1" s="74"/>
+      <c r="Y1" s="74"/>
+      <c r="Z1" s="74"/>
+      <c r="AA1" s="74"/>
+      <c r="AB1" s="74"/>
+    </row>
+    <row r="2" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="85"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="51" t="s">
+      <c r="E2" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="52" t="s">
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="51" t="s">
+      <c r="J2" s="79"/>
+      <c r="K2" s="79"/>
+      <c r="L2" s="80"/>
+      <c r="M2" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="N1" s="51"/>
-      <c r="O1" s="51"/>
-      <c r="P1" s="51"/>
-      <c r="Q1" s="51" t="s">
+      <c r="N2" s="77"/>
+      <c r="O2" s="77"/>
+      <c r="P2" s="77"/>
+      <c r="Q2" s="77" t="s">
         <v>17</v>
       </c>
-      <c r="R1" s="51"/>
-      <c r="S1" s="51"/>
-      <c r="T1" s="51"/>
-      <c r="U1" s="51" t="s">
+      <c r="R2" s="77"/>
+      <c r="S2" s="77"/>
+      <c r="T2" s="77"/>
+      <c r="U2" s="77" t="s">
         <v>18</v>
       </c>
-      <c r="V1" s="51"/>
-      <c r="W1" s="51"/>
-      <c r="X1" s="51"/>
-      <c r="Y1" s="51" t="s">
+      <c r="V2" s="77"/>
+      <c r="W2" s="77"/>
+      <c r="X2" s="77"/>
+      <c r="Y2" s="77" t="s">
         <v>19</v>
       </c>
-      <c r="Z1" s="51"/>
-      <c r="AA1" s="51"/>
-      <c r="AB1" s="55"/>
-    </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="D2" s="61" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" s="37" t="s">
-        <v>32</v>
-      </c>
-      <c r="G2" s="37" t="s">
-        <v>33</v>
-      </c>
-      <c r="H2" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="I2" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="J2" s="37" t="s">
-        <v>32</v>
-      </c>
-      <c r="K2" s="37" t="s">
-        <v>33</v>
-      </c>
-      <c r="L2" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="M2" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="N2" s="37" t="s">
-        <v>36</v>
-      </c>
-      <c r="O2" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="P2" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q2" s="37" t="s">
-        <v>39</v>
-      </c>
-      <c r="R2" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="S2" s="37" t="s">
-        <v>41</v>
-      </c>
-      <c r="T2" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="U2" s="37" t="s">
-        <v>43</v>
-      </c>
-      <c r="V2" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="W2" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="X2" s="37" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y2" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z2" s="37" t="s">
-        <v>36</v>
-      </c>
-      <c r="AA2" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB2" s="57" t="s">
-        <v>47</v>
-      </c>
+      <c r="Z2" s="77"/>
+      <c r="AA2" s="77"/>
+      <c r="AB2" s="81"/>
     </row>
     <row r="3" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="90" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="59" t="s">
+      <c r="B3" s="91"/>
+      <c r="C3" s="92" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="20"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
-      <c r="S3" s="10"/>
-      <c r="T3" s="10"/>
-      <c r="U3" s="10"/>
-      <c r="V3" s="10"/>
-      <c r="W3" s="10"/>
-      <c r="X3" s="10"/>
-      <c r="Y3" s="10"/>
-      <c r="Z3" s="10"/>
-      <c r="AA3" s="10"/>
-      <c r="AB3" s="23"/>
+      <c r="D3" s="82" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="83" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="83" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="83" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" s="83" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" s="83" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" s="83" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" s="83" t="s">
+        <v>33</v>
+      </c>
+      <c r="L3" s="83" t="s">
+        <v>34</v>
+      </c>
+      <c r="M3" s="83" t="s">
+        <v>35</v>
+      </c>
+      <c r="N3" s="83" t="s">
+        <v>36</v>
+      </c>
+      <c r="O3" s="83" t="s">
+        <v>37</v>
+      </c>
+      <c r="P3" s="83" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q3" s="83" t="s">
+        <v>39</v>
+      </c>
+      <c r="R3" s="83" t="s">
+        <v>40</v>
+      </c>
+      <c r="S3" s="83" t="s">
+        <v>41</v>
+      </c>
+      <c r="T3" s="83" t="s">
+        <v>42</v>
+      </c>
+      <c r="U3" s="83" t="s">
+        <v>43</v>
+      </c>
+      <c r="V3" s="83" t="s">
+        <v>44</v>
+      </c>
+      <c r="W3" s="83" t="s">
+        <v>45</v>
+      </c>
+      <c r="X3" s="83" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y3" s="83" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z3" s="83" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA3" s="83" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB3" s="84" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A4" s="15">
+      <c r="A4" s="106">
         <v>1</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="89" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="49"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="42"/>
-      <c r="K4" s="42"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="42"/>
-      <c r="O4" s="42"/>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="11"/>
-      <c r="R4" s="42"/>
-      <c r="S4" s="42"/>
-      <c r="T4" s="12"/>
-      <c r="U4" s="11"/>
-      <c r="V4" s="42"/>
-      <c r="W4" s="42"/>
-      <c r="X4" s="12"/>
-      <c r="Y4" s="11"/>
-      <c r="Z4" s="42"/>
-      <c r="AA4" s="42"/>
-      <c r="AB4" s="58"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="99"/>
+      <c r="E4" s="100"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="101"/>
+      <c r="I4" s="100"/>
+      <c r="J4" s="73"/>
+      <c r="K4" s="73"/>
+      <c r="L4" s="101"/>
+      <c r="M4" s="100"/>
+      <c r="N4" s="73"/>
+      <c r="O4" s="73"/>
+      <c r="P4" s="101"/>
+      <c r="Q4" s="100"/>
+      <c r="R4" s="73"/>
+      <c r="S4" s="73"/>
+      <c r="T4" s="101"/>
+      <c r="U4" s="100"/>
+      <c r="V4" s="73"/>
+      <c r="W4" s="73"/>
+      <c r="X4" s="101"/>
+      <c r="Y4" s="73"/>
+      <c r="Z4" s="73"/>
+      <c r="AA4" s="73"/>
+      <c r="AB4" s="89"/>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A5" s="20"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="13" t="s">
+      <c r="A5" s="107"/>
+      <c r="B5" s="86"/>
+      <c r="C5" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="63"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="43"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="44"/>
-      <c r="M5" s="43"/>
-      <c r="N5" s="21"/>
-      <c r="O5" s="21"/>
-      <c r="P5" s="44"/>
-      <c r="Q5" s="43"/>
-      <c r="R5" s="21"/>
-      <c r="S5" s="21"/>
-      <c r="T5" s="44"/>
-      <c r="U5" s="43"/>
-      <c r="V5" s="21"/>
-      <c r="W5" s="21"/>
-      <c r="X5" s="44"/>
-      <c r="Y5" s="43"/>
-      <c r="Z5" s="21"/>
-      <c r="AA5" s="21"/>
-      <c r="AB5" s="22"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="70"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="70"/>
+      <c r="K5" s="70"/>
+      <c r="L5" s="42"/>
+      <c r="M5" s="41"/>
+      <c r="N5" s="70"/>
+      <c r="O5" s="70"/>
+      <c r="P5" s="42"/>
+      <c r="Q5" s="41"/>
+      <c r="R5" s="70"/>
+      <c r="S5" s="70"/>
+      <c r="T5" s="42"/>
+      <c r="U5" s="41"/>
+      <c r="V5" s="70"/>
+      <c r="W5" s="70"/>
+      <c r="X5" s="42"/>
+      <c r="Y5" s="70"/>
+      <c r="Z5" s="70"/>
+      <c r="AA5" s="70"/>
+      <c r="AB5" s="20"/>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A6" s="20"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="13" t="s">
+      <c r="A6" s="107"/>
+      <c r="B6" s="86"/>
+      <c r="C6" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="64"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="13"/>
-      <c r="R6" s="10"/>
-      <c r="S6" s="10"/>
-      <c r="T6" s="1"/>
-      <c r="U6" s="13"/>
-      <c r="V6" s="10"/>
-      <c r="W6" s="10"/>
-      <c r="X6" s="1"/>
-      <c r="Y6" s="13"/>
-      <c r="Z6" s="10"/>
-      <c r="AA6" s="10"/>
-      <c r="AB6" s="23"/>
+      <c r="D6" s="98"/>
+      <c r="E6" s="96"/>
+      <c r="F6" s="75"/>
+      <c r="G6" s="75"/>
+      <c r="H6" s="97"/>
+      <c r="I6" s="96"/>
+      <c r="J6" s="75"/>
+      <c r="K6" s="75"/>
+      <c r="L6" s="97"/>
+      <c r="M6" s="96"/>
+      <c r="N6" s="75"/>
+      <c r="O6" s="75"/>
+      <c r="P6" s="97"/>
+      <c r="Q6" s="96"/>
+      <c r="R6" s="75"/>
+      <c r="S6" s="75"/>
+      <c r="T6" s="97"/>
+      <c r="U6" s="96"/>
+      <c r="V6" s="75"/>
+      <c r="W6" s="75"/>
+      <c r="X6" s="97"/>
+      <c r="Y6" s="75"/>
+      <c r="Z6" s="75"/>
+      <c r="AA6" s="75"/>
+      <c r="AB6" s="86"/>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A7" s="20"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="13" t="s">
+      <c r="A7" s="107"/>
+      <c r="B7" s="86"/>
+      <c r="C7" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="63"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="44"/>
-      <c r="I7" s="43"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="44"/>
-      <c r="M7" s="43"/>
-      <c r="N7" s="21"/>
-      <c r="O7" s="21"/>
-      <c r="P7" s="44"/>
-      <c r="Q7" s="43"/>
-      <c r="R7" s="21"/>
-      <c r="S7" s="21"/>
-      <c r="T7" s="44"/>
-      <c r="U7" s="43"/>
-      <c r="V7" s="21"/>
-      <c r="W7" s="21"/>
-      <c r="X7" s="44"/>
-      <c r="Y7" s="43"/>
-      <c r="Z7" s="21"/>
-      <c r="AA7" s="21"/>
-      <c r="AB7" s="22"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="70"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="70"/>
+      <c r="K7" s="70"/>
+      <c r="L7" s="42"/>
+      <c r="M7" s="41"/>
+      <c r="N7" s="70"/>
+      <c r="O7" s="70"/>
+      <c r="P7" s="42"/>
+      <c r="Q7" s="41"/>
+      <c r="R7" s="70"/>
+      <c r="S7" s="70"/>
+      <c r="T7" s="42"/>
+      <c r="U7" s="41"/>
+      <c r="V7" s="70"/>
+      <c r="W7" s="70"/>
+      <c r="X7" s="42"/>
+      <c r="Y7" s="70"/>
+      <c r="Z7" s="70"/>
+      <c r="AA7" s="70"/>
+      <c r="AB7" s="20"/>
     </row>
     <row r="8" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="24"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="50" t="s">
+      <c r="A8" s="108"/>
+      <c r="B8" s="93"/>
+      <c r="C8" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="65"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="50"/>
-      <c r="N8" s="26"/>
-      <c r="O8" s="26"/>
-      <c r="P8" s="25"/>
-      <c r="Q8" s="50"/>
-      <c r="R8" s="26"/>
-      <c r="S8" s="26"/>
-      <c r="T8" s="25"/>
-      <c r="U8" s="50"/>
-      <c r="V8" s="26"/>
-      <c r="W8" s="26"/>
-      <c r="X8" s="25"/>
-      <c r="Y8" s="50"/>
-      <c r="Z8" s="26"/>
-      <c r="AA8" s="26"/>
-      <c r="AB8" s="30"/>
+      <c r="D8" s="102"/>
+      <c r="E8" s="103"/>
+      <c r="F8" s="87"/>
+      <c r="G8" s="87"/>
+      <c r="H8" s="104"/>
+      <c r="I8" s="103"/>
+      <c r="J8" s="87"/>
+      <c r="K8" s="87"/>
+      <c r="L8" s="104"/>
+      <c r="M8" s="103"/>
+      <c r="N8" s="87"/>
+      <c r="O8" s="87"/>
+      <c r="P8" s="104"/>
+      <c r="Q8" s="103"/>
+      <c r="R8" s="87"/>
+      <c r="S8" s="87"/>
+      <c r="T8" s="104"/>
+      <c r="U8" s="103"/>
+      <c r="V8" s="87"/>
+      <c r="W8" s="87"/>
+      <c r="X8" s="104"/>
+      <c r="Y8" s="87"/>
+      <c r="Z8" s="87"/>
+      <c r="AA8" s="87"/>
+      <c r="AB8" s="93"/>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A9" s="15">
+      <c r="A9" s="106">
         <v>2</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="89" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="49"/>
-      <c r="D9" s="66"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="31"/>
-      <c r="L9" s="31"/>
-      <c r="M9" s="45"/>
-      <c r="N9" s="31"/>
-      <c r="O9" s="31"/>
-      <c r="P9" s="46"/>
-      <c r="Q9" s="45"/>
-      <c r="R9" s="31"/>
-      <c r="S9" s="31"/>
-      <c r="T9" s="46"/>
-      <c r="U9" s="45"/>
-      <c r="V9" s="31"/>
-      <c r="W9" s="31"/>
-      <c r="X9" s="46"/>
-      <c r="Y9" s="45"/>
-      <c r="Z9" s="31"/>
-      <c r="AA9" s="31"/>
-      <c r="AB9" s="33"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="43"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="44"/>
+      <c r="M9" s="43"/>
+      <c r="N9" s="29"/>
+      <c r="O9" s="29"/>
+      <c r="P9" s="44"/>
+      <c r="Q9" s="43"/>
+      <c r="R9" s="29"/>
+      <c r="S9" s="29"/>
+      <c r="T9" s="44"/>
+      <c r="U9" s="43"/>
+      <c r="V9" s="29"/>
+      <c r="W9" s="29"/>
+      <c r="X9" s="44"/>
+      <c r="Y9" s="29"/>
+      <c r="Z9" s="29"/>
+      <c r="AA9" s="29"/>
+      <c r="AB9" s="31"/>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A10" s="20"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="13" t="s">
+      <c r="A10" s="107"/>
+      <c r="B10" s="86"/>
+      <c r="C10" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="64"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="13"/>
-      <c r="R10" s="10"/>
-      <c r="S10" s="10"/>
-      <c r="T10" s="1"/>
-      <c r="U10" s="13"/>
-      <c r="V10" s="10"/>
-      <c r="W10" s="10"/>
-      <c r="X10" s="1"/>
-      <c r="Y10" s="13"/>
-      <c r="Z10" s="10"/>
-      <c r="AA10" s="10"/>
-      <c r="AB10" s="23"/>
+      <c r="D10" s="98"/>
+      <c r="E10" s="96"/>
+      <c r="F10" s="75"/>
+      <c r="G10" s="75"/>
+      <c r="H10" s="97"/>
+      <c r="I10" s="96"/>
+      <c r="J10" s="75"/>
+      <c r="K10" s="75"/>
+      <c r="L10" s="97"/>
+      <c r="M10" s="96"/>
+      <c r="N10" s="75"/>
+      <c r="O10" s="75"/>
+      <c r="P10" s="97"/>
+      <c r="Q10" s="96"/>
+      <c r="R10" s="75"/>
+      <c r="S10" s="75"/>
+      <c r="T10" s="97"/>
+      <c r="U10" s="96"/>
+      <c r="V10" s="75"/>
+      <c r="W10" s="75"/>
+      <c r="X10" s="97"/>
+      <c r="Y10" s="75"/>
+      <c r="Z10" s="75"/>
+      <c r="AA10" s="75"/>
+      <c r="AB10" s="86"/>
     </row>
     <row r="11" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="24"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="50" t="s">
+      <c r="A11" s="108"/>
+      <c r="B11" s="93"/>
+      <c r="C11" s="94" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="67"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="43"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="44"/>
-      <c r="M11" s="47"/>
-      <c r="N11" s="34"/>
-      <c r="O11" s="34"/>
-      <c r="P11" s="48"/>
-      <c r="Q11" s="47"/>
-      <c r="R11" s="34"/>
-      <c r="S11" s="34"/>
-      <c r="T11" s="48"/>
-      <c r="U11" s="47"/>
-      <c r="V11" s="34"/>
-      <c r="W11" s="34"/>
-      <c r="X11" s="48"/>
-      <c r="Y11" s="47"/>
-      <c r="Z11" s="34"/>
-      <c r="AA11" s="34"/>
-      <c r="AB11" s="36"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="45"/>
+      <c r="J11" s="32"/>
+      <c r="K11" s="32"/>
+      <c r="L11" s="46"/>
+      <c r="M11" s="45"/>
+      <c r="N11" s="32"/>
+      <c r="O11" s="32"/>
+      <c r="P11" s="46"/>
+      <c r="Q11" s="45"/>
+      <c r="R11" s="32"/>
+      <c r="S11" s="32"/>
+      <c r="T11" s="46"/>
+      <c r="U11" s="45"/>
+      <c r="V11" s="32"/>
+      <c r="W11" s="32"/>
+      <c r="X11" s="46"/>
+      <c r="Y11" s="32"/>
+      <c r="Z11" s="32"/>
+      <c r="AA11" s="32"/>
+      <c r="AB11" s="34"/>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A12" s="15">
+      <c r="A12" s="106">
         <v>3</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="89" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="49"/>
-      <c r="D12" s="68"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="49"/>
-      <c r="R12" s="17"/>
-      <c r="S12" s="17"/>
-      <c r="T12" s="16"/>
-      <c r="U12" s="49"/>
-      <c r="V12" s="17"/>
-      <c r="W12" s="17"/>
-      <c r="X12" s="16"/>
-      <c r="Y12" s="49"/>
-      <c r="Z12" s="17"/>
-      <c r="AA12" s="17"/>
-      <c r="AB12" s="19"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="99"/>
+      <c r="E12" s="100"/>
+      <c r="F12" s="73"/>
+      <c r="G12" s="73"/>
+      <c r="H12" s="101"/>
+      <c r="I12" s="100"/>
+      <c r="J12" s="73"/>
+      <c r="K12" s="73"/>
+      <c r="L12" s="101"/>
+      <c r="M12" s="100"/>
+      <c r="N12" s="73"/>
+      <c r="O12" s="73"/>
+      <c r="P12" s="101"/>
+      <c r="Q12" s="100"/>
+      <c r="R12" s="73"/>
+      <c r="S12" s="73"/>
+      <c r="T12" s="101"/>
+      <c r="U12" s="100"/>
+      <c r="V12" s="73"/>
+      <c r="W12" s="73"/>
+      <c r="X12" s="101"/>
+      <c r="Y12" s="73"/>
+      <c r="Z12" s="73"/>
+      <c r="AA12" s="73"/>
+      <c r="AB12" s="89"/>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A13" s="20"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="13" t="s">
+      <c r="A13" s="107"/>
+      <c r="B13" s="86"/>
+      <c r="C13" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="63"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="43"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="44"/>
-      <c r="M13" s="43"/>
-      <c r="N13" s="21"/>
-      <c r="O13" s="21"/>
-      <c r="P13" s="44"/>
-      <c r="Q13" s="43"/>
-      <c r="R13" s="21"/>
-      <c r="S13" s="21"/>
-      <c r="T13" s="44"/>
-      <c r="U13" s="43"/>
-      <c r="V13" s="21"/>
-      <c r="W13" s="21"/>
-      <c r="X13" s="44"/>
-      <c r="Y13" s="43"/>
-      <c r="Z13" s="21"/>
-      <c r="AA13" s="21"/>
-      <c r="AB13" s="22"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="70"/>
+      <c r="G13" s="70"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="41"/>
+      <c r="J13" s="70"/>
+      <c r="K13" s="70"/>
+      <c r="L13" s="42"/>
+      <c r="M13" s="41"/>
+      <c r="N13" s="70"/>
+      <c r="O13" s="70"/>
+      <c r="P13" s="42"/>
+      <c r="Q13" s="41"/>
+      <c r="R13" s="70"/>
+      <c r="S13" s="70"/>
+      <c r="T13" s="42"/>
+      <c r="U13" s="41"/>
+      <c r="V13" s="70"/>
+      <c r="W13" s="70"/>
+      <c r="X13" s="42"/>
+      <c r="Y13" s="70"/>
+      <c r="Z13" s="70"/>
+      <c r="AA13" s="70"/>
+      <c r="AB13" s="20"/>
     </row>
-    <row r="14" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="24"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="50" t="s">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A14" s="107"/>
+      <c r="B14" s="86"/>
+      <c r="C14" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="65"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="50"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="26"/>
-      <c r="L14" s="25"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="10"/>
-      <c r="O14" s="10"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="50"/>
-      <c r="R14" s="26"/>
-      <c r="S14" s="26"/>
-      <c r="T14" s="25"/>
-      <c r="U14" s="50"/>
-      <c r="V14" s="26"/>
-      <c r="W14" s="26"/>
-      <c r="X14" s="25"/>
-      <c r="Y14" s="50"/>
-      <c r="Z14" s="26"/>
-      <c r="AA14" s="26"/>
-      <c r="AB14" s="30"/>
+      <c r="D14" s="98"/>
+      <c r="E14" s="96"/>
+      <c r="F14" s="75"/>
+      <c r="G14" s="75"/>
+      <c r="H14" s="97"/>
+      <c r="I14" s="96"/>
+      <c r="J14" s="75"/>
+      <c r="K14" s="75"/>
+      <c r="L14" s="97"/>
+      <c r="M14" s="96"/>
+      <c r="N14" s="75"/>
+      <c r="O14" s="75"/>
+      <c r="P14" s="97"/>
+      <c r="Q14" s="96"/>
+      <c r="R14" s="75"/>
+      <c r="S14" s="75"/>
+      <c r="T14" s="97"/>
+      <c r="U14" s="96"/>
+      <c r="V14" s="75"/>
+      <c r="W14" s="75"/>
+      <c r="X14" s="97"/>
+      <c r="Y14" s="75"/>
+      <c r="Z14" s="75"/>
+      <c r="AA14" s="75"/>
+      <c r="AB14" s="86"/>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A15" s="15">
-        <v>4</v>
-      </c>
-      <c r="B15" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" s="49"/>
-      <c r="D15" s="66"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="31"/>
+    <row r="15" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="108"/>
+      <c r="B15" s="93"/>
+      <c r="C15" s="95" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="59"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="46"/>
       <c r="I15" s="45"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="31"/>
+      <c r="J15" s="32"/>
+      <c r="K15" s="32"/>
       <c r="L15" s="46"/>
       <c r="M15" s="45"/>
-      <c r="N15" s="31"/>
-      <c r="O15" s="31"/>
+      <c r="N15" s="32"/>
+      <c r="O15" s="32"/>
       <c r="P15" s="46"/>
       <c r="Q15" s="45"/>
-      <c r="R15" s="31"/>
-      <c r="S15" s="31"/>
+      <c r="R15" s="32"/>
+      <c r="S15" s="32"/>
       <c r="T15" s="46"/>
       <c r="U15" s="45"/>
-      <c r="V15" s="31"/>
-      <c r="W15" s="31"/>
+      <c r="V15" s="32"/>
+      <c r="W15" s="32"/>
       <c r="X15" s="46"/>
-      <c r="Y15" s="45"/>
-      <c r="Z15" s="31"/>
-      <c r="AA15" s="31"/>
-      <c r="AB15" s="33"/>
+      <c r="Y15" s="32"/>
+      <c r="Z15" s="32"/>
+      <c r="AA15" s="32"/>
+      <c r="AB15" s="34"/>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A16" s="20"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="64"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="13"/>
-      <c r="N16" s="10"/>
-      <c r="O16" s="10"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="13"/>
-      <c r="R16" s="10"/>
-      <c r="S16" s="10"/>
-      <c r="T16" s="1"/>
-      <c r="U16" s="13"/>
-      <c r="V16" s="10"/>
-      <c r="W16" s="10"/>
-      <c r="X16" s="1"/>
-      <c r="Y16" s="13"/>
-      <c r="Z16" s="10"/>
-      <c r="AA16" s="10"/>
-      <c r="AB16" s="23"/>
+      <c r="A16" s="106">
+        <v>4</v>
+      </c>
+      <c r="B16" s="89" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="15"/>
+      <c r="D16" s="99"/>
+      <c r="E16" s="100"/>
+      <c r="F16" s="73"/>
+      <c r="G16" s="73"/>
+      <c r="H16" s="101"/>
+      <c r="I16" s="100"/>
+      <c r="J16" s="73"/>
+      <c r="K16" s="73"/>
+      <c r="L16" s="101"/>
+      <c r="M16" s="100"/>
+      <c r="N16" s="73"/>
+      <c r="O16" s="73"/>
+      <c r="P16" s="101"/>
+      <c r="Q16" s="100"/>
+      <c r="R16" s="73"/>
+      <c r="S16" s="73"/>
+      <c r="T16" s="101"/>
+      <c r="U16" s="100"/>
+      <c r="V16" s="73"/>
+      <c r="W16" s="73"/>
+      <c r="X16" s="101"/>
+      <c r="Y16" s="73"/>
+      <c r="Z16" s="73"/>
+      <c r="AA16" s="73"/>
+      <c r="AB16" s="89"/>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A17" s="20"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="63"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="43"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="44"/>
-      <c r="M17" s="43"/>
-      <c r="N17" s="21"/>
-      <c r="O17" s="21"/>
-      <c r="P17" s="44"/>
-      <c r="Q17" s="43"/>
-      <c r="R17" s="21"/>
-      <c r="S17" s="21"/>
-      <c r="T17" s="44"/>
-      <c r="U17" s="43"/>
-      <c r="V17" s="21"/>
-      <c r="W17" s="21"/>
-      <c r="X17" s="44"/>
-      <c r="Y17" s="43"/>
-      <c r="Z17" s="21"/>
-      <c r="AA17" s="21"/>
-      <c r="AB17" s="22"/>
+      <c r="A17" s="107"/>
+      <c r="B17" s="86"/>
+      <c r="C17" s="69" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="55"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="70"/>
+      <c r="G17" s="70"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="41"/>
+      <c r="J17" s="70"/>
+      <c r="K17" s="70"/>
+      <c r="L17" s="42"/>
+      <c r="M17" s="41"/>
+      <c r="N17" s="70"/>
+      <c r="O17" s="70"/>
+      <c r="P17" s="42"/>
+      <c r="Q17" s="41"/>
+      <c r="R17" s="70"/>
+      <c r="S17" s="70"/>
+      <c r="T17" s="42"/>
+      <c r="U17" s="41"/>
+      <c r="V17" s="70"/>
+      <c r="W17" s="70"/>
+      <c r="X17" s="42"/>
+      <c r="Y17" s="70"/>
+      <c r="Z17" s="70"/>
+      <c r="AA17" s="70"/>
+      <c r="AB17" s="20"/>
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A18" s="20"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18" s="64"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="10"/>
-      <c r="O18" s="10"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="13"/>
-      <c r="R18" s="10"/>
-      <c r="S18" s="10"/>
-      <c r="T18" s="1"/>
-      <c r="U18" s="13"/>
-      <c r="V18" s="10"/>
-      <c r="W18" s="10"/>
-      <c r="X18" s="1"/>
-      <c r="Y18" s="13"/>
-      <c r="Z18" s="10"/>
-      <c r="AA18" s="10"/>
-      <c r="AB18" s="23"/>
+      <c r="A18" s="107"/>
+      <c r="B18" s="86"/>
+      <c r="C18" s="71" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="98"/>
+      <c r="E18" s="96"/>
+      <c r="F18" s="75"/>
+      <c r="G18" s="75"/>
+      <c r="H18" s="97"/>
+      <c r="I18" s="96"/>
+      <c r="J18" s="75"/>
+      <c r="K18" s="75"/>
+      <c r="L18" s="97"/>
+      <c r="M18" s="96"/>
+      <c r="N18" s="75"/>
+      <c r="O18" s="75"/>
+      <c r="P18" s="97"/>
+      <c r="Q18" s="96"/>
+      <c r="R18" s="75"/>
+      <c r="S18" s="75"/>
+      <c r="T18" s="97"/>
+      <c r="U18" s="96"/>
+      <c r="V18" s="75"/>
+      <c r="W18" s="75"/>
+      <c r="X18" s="97"/>
+      <c r="Y18" s="75"/>
+      <c r="Z18" s="75"/>
+      <c r="AA18" s="75"/>
+      <c r="AB18" s="86"/>
     </row>
-    <row r="19" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="24"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="50" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" s="67"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="34"/>
-      <c r="I19" s="47"/>
-      <c r="J19" s="34"/>
-      <c r="K19" s="34"/>
-      <c r="L19" s="48"/>
-      <c r="M19" s="43"/>
-      <c r="N19" s="21"/>
-      <c r="O19" s="21"/>
-      <c r="P19" s="44"/>
-      <c r="Q19" s="43"/>
-      <c r="R19" s="21"/>
-      <c r="S19" s="21"/>
-      <c r="T19" s="44"/>
-      <c r="U19" s="47"/>
-      <c r="V19" s="34"/>
-      <c r="W19" s="34"/>
-      <c r="X19" s="48"/>
-      <c r="Y19" s="47"/>
-      <c r="Z19" s="34"/>
-      <c r="AA19" s="34"/>
-      <c r="AB19" s="36"/>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A19" s="107"/>
+      <c r="B19" s="86"/>
+      <c r="C19" s="69" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="55"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="70"/>
+      <c r="G19" s="70"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="41"/>
+      <c r="J19" s="70"/>
+      <c r="K19" s="70"/>
+      <c r="L19" s="42"/>
+      <c r="M19" s="41"/>
+      <c r="N19" s="70"/>
+      <c r="O19" s="70"/>
+      <c r="P19" s="42"/>
+      <c r="Q19" s="41"/>
+      <c r="R19" s="70"/>
+      <c r="S19" s="70"/>
+      <c r="T19" s="42"/>
+      <c r="U19" s="41"/>
+      <c r="V19" s="70"/>
+      <c r="W19" s="70"/>
+      <c r="X19" s="42"/>
+      <c r="Y19" s="70"/>
+      <c r="Z19" s="70"/>
+      <c r="AA19" s="70"/>
+      <c r="AB19" s="20"/>
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A20" s="15">
+      <c r="A20" s="107"/>
+      <c r="B20" s="86"/>
+      <c r="C20" s="69" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="98"/>
+      <c r="E20" s="96"/>
+      <c r="F20" s="75"/>
+      <c r="G20" s="75"/>
+      <c r="H20" s="97"/>
+      <c r="I20" s="96"/>
+      <c r="J20" s="75"/>
+      <c r="K20" s="75"/>
+      <c r="L20" s="97"/>
+      <c r="M20" s="96"/>
+      <c r="N20" s="75"/>
+      <c r="O20" s="75"/>
+      <c r="P20" s="97"/>
+      <c r="Q20" s="96"/>
+      <c r="R20" s="75"/>
+      <c r="S20" s="75"/>
+      <c r="T20" s="97"/>
+      <c r="U20" s="96"/>
+      <c r="V20" s="75"/>
+      <c r="W20" s="75"/>
+      <c r="X20" s="97"/>
+      <c r="Y20" s="75"/>
+      <c r="Z20" s="75"/>
+      <c r="AA20" s="75"/>
+      <c r="AB20" s="86"/>
+    </row>
+    <row r="21" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="107"/>
+      <c r="B21" s="86"/>
+      <c r="C21" s="69" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="59"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="46"/>
+      <c r="I21" s="45"/>
+      <c r="J21" s="32"/>
+      <c r="K21" s="32"/>
+      <c r="L21" s="46"/>
+      <c r="M21" s="45"/>
+      <c r="N21" s="32"/>
+      <c r="O21" s="32"/>
+      <c r="P21" s="46"/>
+      <c r="Q21" s="45"/>
+      <c r="R21" s="32"/>
+      <c r="S21" s="32"/>
+      <c r="T21" s="46"/>
+      <c r="U21" s="45"/>
+      <c r="V21" s="32"/>
+      <c r="W21" s="32"/>
+      <c r="X21" s="46"/>
+      <c r="Y21" s="32"/>
+      <c r="Z21" s="32"/>
+      <c r="AA21" s="32"/>
+      <c r="AB21" s="34"/>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A22" s="106">
         <v>5</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="B22" s="89" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="49"/>
-      <c r="D20" s="68"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="49"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="16"/>
-      <c r="M20" s="49"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="17"/>
-      <c r="P20" s="16"/>
-      <c r="Q20" s="49"/>
-      <c r="R20" s="17"/>
-      <c r="S20" s="17"/>
-      <c r="T20" s="16"/>
-      <c r="U20" s="49"/>
-      <c r="V20" s="17"/>
-      <c r="W20" s="17"/>
-      <c r="X20" s="16"/>
-      <c r="Y20" s="49"/>
-      <c r="Z20" s="17"/>
-      <c r="AA20" s="17"/>
-      <c r="AB20" s="19"/>
-    </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A21" s="20"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D21" s="63"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="43"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="21"/>
-      <c r="L21" s="44"/>
-      <c r="M21" s="43"/>
-      <c r="N21" s="21"/>
-      <c r="O21" s="21"/>
-      <c r="P21" s="44"/>
-      <c r="Q21" s="43"/>
-      <c r="R21" s="21"/>
-      <c r="S21" s="21"/>
-      <c r="T21" s="44"/>
-      <c r="U21" s="21"/>
-      <c r="V21" s="21"/>
-      <c r="W21" s="21"/>
-      <c r="X21" s="44"/>
-      <c r="Y21" s="43"/>
-      <c r="Z21" s="21"/>
-      <c r="AA21" s="21"/>
-      <c r="AB21" s="22"/>
-    </row>
-    <row r="22" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="24"/>
-      <c r="B22" s="25"/>
-      <c r="C22" s="50" t="s">
-        <v>13</v>
-      </c>
-      <c r="D22" s="65"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="50"/>
-      <c r="J22" s="26"/>
-      <c r="K22" s="26"/>
-      <c r="L22" s="25"/>
-      <c r="M22" s="50"/>
-      <c r="N22" s="26"/>
-      <c r="O22" s="26"/>
-      <c r="P22" s="25"/>
-      <c r="Q22" s="50"/>
-      <c r="R22" s="26"/>
-      <c r="S22" s="26"/>
-      <c r="T22" s="25"/>
-      <c r="U22" s="13"/>
-      <c r="V22" s="10"/>
-      <c r="W22" s="10"/>
-      <c r="X22" s="1"/>
-      <c r="Y22" s="50"/>
-      <c r="Z22" s="26"/>
-      <c r="AA22" s="26"/>
-      <c r="AB22" s="30"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="99"/>
+      <c r="E22" s="100"/>
+      <c r="F22" s="73"/>
+      <c r="G22" s="73"/>
+      <c r="H22" s="101"/>
+      <c r="I22" s="100"/>
+      <c r="J22" s="73"/>
+      <c r="K22" s="73"/>
+      <c r="L22" s="101"/>
+      <c r="M22" s="100"/>
+      <c r="N22" s="73"/>
+      <c r="O22" s="73"/>
+      <c r="P22" s="101"/>
+      <c r="Q22" s="100"/>
+      <c r="R22" s="73"/>
+      <c r="S22" s="73"/>
+      <c r="T22" s="101"/>
+      <c r="U22" s="100"/>
+      <c r="V22" s="73"/>
+      <c r="W22" s="73"/>
+      <c r="X22" s="101"/>
+      <c r="Y22" s="73"/>
+      <c r="Z22" s="73"/>
+      <c r="AA22" s="73"/>
+      <c r="AB22" s="89"/>
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A23" s="15">
+      <c r="A23" s="107"/>
+      <c r="B23" s="86"/>
+      <c r="C23" s="69" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="55"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="70"/>
+      <c r="G23" s="70"/>
+      <c r="H23" s="42"/>
+      <c r="I23" s="41"/>
+      <c r="J23" s="70"/>
+      <c r="K23" s="70"/>
+      <c r="L23" s="42"/>
+      <c r="M23" s="41"/>
+      <c r="N23" s="70"/>
+      <c r="O23" s="70"/>
+      <c r="P23" s="42"/>
+      <c r="Q23" s="41"/>
+      <c r="R23" s="70"/>
+      <c r="S23" s="70"/>
+      <c r="T23" s="42"/>
+      <c r="U23" s="41"/>
+      <c r="V23" s="70"/>
+      <c r="W23" s="70"/>
+      <c r="X23" s="42"/>
+      <c r="Y23" s="70"/>
+      <c r="Z23" s="70"/>
+      <c r="AA23" s="70"/>
+      <c r="AB23" s="20"/>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A24" s="107"/>
+      <c r="B24" s="86"/>
+      <c r="C24" s="69" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="98"/>
+      <c r="E24" s="96"/>
+      <c r="F24" s="75"/>
+      <c r="G24" s="75"/>
+      <c r="H24" s="97"/>
+      <c r="I24" s="96"/>
+      <c r="J24" s="75"/>
+      <c r="K24" s="75"/>
+      <c r="L24" s="97"/>
+      <c r="M24" s="96"/>
+      <c r="N24" s="75"/>
+      <c r="O24" s="75"/>
+      <c r="P24" s="97"/>
+      <c r="Q24" s="96"/>
+      <c r="R24" s="75"/>
+      <c r="S24" s="75"/>
+      <c r="T24" s="97"/>
+      <c r="U24" s="96"/>
+      <c r="V24" s="75"/>
+      <c r="W24" s="75"/>
+      <c r="X24" s="97"/>
+      <c r="Y24" s="75"/>
+      <c r="Z24" s="75"/>
+      <c r="AA24" s="75"/>
+      <c r="AB24" s="86"/>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A25" s="107"/>
+      <c r="B25" s="86"/>
+      <c r="C25" s="71" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25" s="55"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="70"/>
+      <c r="G25" s="70"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="41"/>
+      <c r="J25" s="70"/>
+      <c r="K25" s="70"/>
+      <c r="L25" s="42"/>
+      <c r="M25" s="41"/>
+      <c r="N25" s="70"/>
+      <c r="O25" s="70"/>
+      <c r="P25" s="42"/>
+      <c r="Q25" s="41"/>
+      <c r="R25" s="70"/>
+      <c r="S25" s="70"/>
+      <c r="T25" s="42"/>
+      <c r="U25" s="41"/>
+      <c r="V25" s="70"/>
+      <c r="W25" s="70"/>
+      <c r="X25" s="42"/>
+      <c r="Y25" s="70"/>
+      <c r="Z25" s="70"/>
+      <c r="AA25" s="70"/>
+      <c r="AB25" s="20"/>
+    </row>
+    <row r="26" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="108"/>
+      <c r="B26" s="93"/>
+      <c r="C26" s="95" t="s">
+        <v>52</v>
+      </c>
+      <c r="D26" s="102"/>
+      <c r="E26" s="103"/>
+      <c r="F26" s="87"/>
+      <c r="G26" s="87"/>
+      <c r="H26" s="104"/>
+      <c r="I26" s="103"/>
+      <c r="J26" s="87"/>
+      <c r="K26" s="87"/>
+      <c r="L26" s="104"/>
+      <c r="M26" s="103"/>
+      <c r="N26" s="87"/>
+      <c r="O26" s="87"/>
+      <c r="P26" s="104"/>
+      <c r="Q26" s="103"/>
+      <c r="R26" s="87"/>
+      <c r="S26" s="87"/>
+      <c r="T26" s="104"/>
+      <c r="U26" s="103"/>
+      <c r="V26" s="87"/>
+      <c r="W26" s="87"/>
+      <c r="X26" s="104"/>
+      <c r="Y26" s="87"/>
+      <c r="Z26" s="87"/>
+      <c r="AA26" s="87"/>
+      <c r="AB26" s="93"/>
+    </row>
+    <row r="27" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A27" s="106">
         <v>8</v>
       </c>
-      <c r="B23" s="16" t="s">
+      <c r="B27" s="89" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="49"/>
-      <c r="D23" s="66"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="31"/>
-      <c r="I23" s="45"/>
-      <c r="J23" s="31"/>
-      <c r="K23" s="31"/>
-      <c r="L23" s="46"/>
-      <c r="M23" s="45"/>
-      <c r="N23" s="31"/>
-      <c r="O23" s="31"/>
-      <c r="P23" s="46"/>
-      <c r="Q23" s="45"/>
-      <c r="R23" s="31"/>
-      <c r="S23" s="31"/>
-      <c r="T23" s="46"/>
-      <c r="U23" s="45"/>
-      <c r="V23" s="31"/>
-      <c r="W23" s="31"/>
-      <c r="X23" s="46"/>
-      <c r="Y23" s="45"/>
-      <c r="Z23" s="31"/>
-      <c r="AA23" s="31"/>
-      <c r="AB23" s="46"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="58"/>
+      <c r="E27" s="43"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="44"/>
+      <c r="I27" s="43"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="29"/>
+      <c r="L27" s="44"/>
+      <c r="M27" s="43"/>
+      <c r="N27" s="29"/>
+      <c r="O27" s="29"/>
+      <c r="P27" s="44"/>
+      <c r="Q27" s="43"/>
+      <c r="R27" s="29"/>
+      <c r="S27" s="29"/>
+      <c r="T27" s="44"/>
+      <c r="U27" s="43"/>
+      <c r="V27" s="29"/>
+      <c r="W27" s="29"/>
+      <c r="X27" s="44"/>
+      <c r="Y27" s="29"/>
+      <c r="Z27" s="29"/>
+      <c r="AA27" s="29"/>
+      <c r="AB27" s="31"/>
     </row>
-    <row r="24" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="24"/>
-      <c r="B24" s="25"/>
-      <c r="C24" s="50" t="s">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A28" s="107"/>
+      <c r="B28" s="86"/>
+      <c r="C28" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="D24" s="65"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="26"/>
-      <c r="I24" s="50"/>
-      <c r="J24" s="26"/>
-      <c r="K24" s="26"/>
-      <c r="L24" s="25"/>
-      <c r="M24" s="50"/>
-      <c r="N24" s="26"/>
-      <c r="O24" s="26"/>
-      <c r="P24" s="25"/>
-      <c r="Q24" s="50"/>
-      <c r="R24" s="26"/>
-      <c r="S24" s="26"/>
-      <c r="T24" s="25"/>
-      <c r="U24" s="50"/>
-      <c r="V24" s="26"/>
-      <c r="W24" s="26"/>
-      <c r="X24" s="25"/>
-      <c r="Y24" s="50"/>
-      <c r="Z24" s="26"/>
-      <c r="AA24" s="26"/>
-      <c r="AB24" s="25"/>
+      <c r="D28" s="98"/>
+      <c r="E28" s="96"/>
+      <c r="F28" s="75"/>
+      <c r="G28" s="75"/>
+      <c r="H28" s="97"/>
+      <c r="I28" s="96"/>
+      <c r="J28" s="75"/>
+      <c r="K28" s="75"/>
+      <c r="L28" s="97"/>
+      <c r="M28" s="96"/>
+      <c r="N28" s="75"/>
+      <c r="O28" s="75"/>
+      <c r="P28" s="97"/>
+      <c r="Q28" s="96"/>
+      <c r="R28" s="75"/>
+      <c r="S28" s="75"/>
+      <c r="T28" s="97"/>
+      <c r="U28" s="96"/>
+      <c r="V28" s="75"/>
+      <c r="W28" s="75"/>
+      <c r="X28" s="97"/>
+      <c r="Y28" s="75"/>
+      <c r="Z28" s="75"/>
+      <c r="AA28" s="75"/>
+      <c r="AB28" s="86"/>
+    </row>
+    <row r="29" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="105"/>
+      <c r="B29" s="93"/>
+      <c r="C29" s="88" t="s">
+        <v>51</v>
+      </c>
+      <c r="D29" s="59"/>
+      <c r="E29" s="45"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="32"/>
+      <c r="H29" s="46"/>
+      <c r="I29" s="45"/>
+      <c r="J29" s="32"/>
+      <c r="K29" s="32"/>
+      <c r="L29" s="46"/>
+      <c r="M29" s="45"/>
+      <c r="N29" s="32"/>
+      <c r="O29" s="32"/>
+      <c r="P29" s="46"/>
+      <c r="Q29" s="45"/>
+      <c r="R29" s="32"/>
+      <c r="S29" s="32"/>
+      <c r="T29" s="46"/>
+      <c r="U29" s="45"/>
+      <c r="V29" s="32"/>
+      <c r="W29" s="32"/>
+      <c r="X29" s="46"/>
+      <c r="Y29" s="32"/>
+      <c r="Z29" s="32"/>
+      <c r="AA29" s="32"/>
+      <c r="AB29" s="34"/>
+    </row>
+    <row r="30" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A30" s="68"/>
+      <c r="B30" s="68"/>
+      <c r="C30" s="68"/>
+      <c r="D30" s="68"/>
+      <c r="E30" s="68"/>
+      <c r="F30" s="68"/>
+      <c r="G30" s="68"/>
+      <c r="H30" s="68"/>
+      <c r="I30" s="68"/>
+      <c r="J30" s="68"/>
+      <c r="K30" s="68"/>
+      <c r="L30" s="68"/>
+      <c r="M30" s="68"/>
+      <c r="N30" s="68"/>
+      <c r="O30" s="68"/>
+      <c r="P30" s="68"/>
+      <c r="Q30" s="68"/>
+      <c r="R30" s="68"/>
+      <c r="S30" s="68"/>
+      <c r="T30" s="68"/>
+      <c r="U30" s="68"/>
+      <c r="V30" s="68"/>
+      <c r="W30" s="68"/>
+      <c r="X30" s="68"/>
+      <c r="Y30" s="68"/>
+      <c r="Z30" s="68"/>
+      <c r="AA30" s="68"/>
+      <c r="AB30" s="68"/>
+    </row>
+    <row r="31" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A31" s="68"/>
+      <c r="B31" s="68"/>
+      <c r="C31" s="68"/>
+      <c r="D31" s="68"/>
+      <c r="E31" s="68"/>
+      <c r="F31" s="68"/>
+      <c r="G31" s="68"/>
+      <c r="H31" s="68"/>
+      <c r="I31" s="68"/>
+      <c r="J31" s="68"/>
+      <c r="K31" s="68"/>
+      <c r="L31" s="68"/>
+      <c r="M31" s="68"/>
+      <c r="N31" s="68"/>
+      <c r="O31" s="68"/>
+      <c r="P31" s="68"/>
+      <c r="Q31" s="68"/>
+      <c r="R31" s="68"/>
+      <c r="S31" s="68"/>
+      <c r="T31" s="68"/>
+      <c r="U31" s="68"/>
+      <c r="V31" s="68"/>
+      <c r="W31" s="68"/>
+      <c r="X31" s="68"/>
+      <c r="Y31" s="68"/>
+      <c r="Z31" s="68"/>
+      <c r="AA31" s="68"/>
+      <c r="AB31" s="68"/>
+    </row>
+    <row r="32" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A32" s="68"/>
+      <c r="B32" s="68"/>
+      <c r="C32" s="68"/>
+      <c r="D32" s="68"/>
+      <c r="E32" s="68"/>
+      <c r="F32" s="68"/>
+      <c r="G32" s="68"/>
+      <c r="H32" s="68"/>
+      <c r="I32" s="68"/>
+      <c r="J32" s="68"/>
+      <c r="K32" s="68"/>
+      <c r="L32" s="68"/>
+      <c r="M32" s="68"/>
+      <c r="N32" s="68"/>
+      <c r="O32" s="68"/>
+      <c r="P32" s="68"/>
+      <c r="Q32" s="68"/>
+      <c r="R32" s="68"/>
+      <c r="S32" s="68"/>
+      <c r="T32" s="68"/>
+      <c r="U32" s="68"/>
+      <c r="V32" s="68"/>
+      <c r="W32" s="68"/>
+      <c r="X32" s="68"/>
+      <c r="Y32" s="68"/>
+      <c r="Z32" s="68"/>
+      <c r="AA32" s="68"/>
+      <c r="AB32" s="68"/>
+    </row>
+    <row r="33" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A33" s="68"/>
+      <c r="B33" s="68"/>
+      <c r="C33" s="68"/>
+      <c r="D33" s="68"/>
+      <c r="E33" s="68"/>
+      <c r="F33" s="68"/>
+      <c r="G33" s="68"/>
+      <c r="H33" s="68"/>
+      <c r="I33" s="68"/>
+      <c r="J33" s="68"/>
+      <c r="K33" s="68"/>
+      <c r="L33" s="68"/>
+      <c r="M33" s="68"/>
+      <c r="N33" s="68"/>
+      <c r="O33" s="68"/>
+      <c r="P33" s="68"/>
+      <c r="Q33" s="68"/>
+      <c r="R33" s="68"/>
+      <c r="S33" s="68"/>
+      <c r="T33" s="68"/>
+      <c r="U33" s="68"/>
+      <c r="V33" s="68"/>
+      <c r="W33" s="68"/>
+      <c r="X33" s="68"/>
+      <c r="Y33" s="68"/>
+      <c r="Z33" s="68"/>
+      <c r="AA33" s="68"/>
+      <c r="AB33" s="68"/>
+    </row>
+    <row r="34" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A34" s="68"/>
+      <c r="B34" s="68"/>
+      <c r="C34" s="68"/>
+      <c r="D34" s="68"/>
+      <c r="E34" s="68"/>
+      <c r="F34" s="68"/>
+      <c r="G34" s="68"/>
+      <c r="H34" s="68"/>
+      <c r="I34" s="68"/>
+      <c r="J34" s="68"/>
+      <c r="K34" s="68"/>
+      <c r="L34" s="68"/>
+      <c r="M34" s="68"/>
+      <c r="N34" s="68"/>
+      <c r="O34" s="68"/>
+      <c r="P34" s="68"/>
+      <c r="Q34" s="68"/>
+      <c r="R34" s="68"/>
+      <c r="S34" s="68"/>
+      <c r="T34" s="68"/>
+      <c r="U34" s="68"/>
+      <c r="V34" s="68"/>
+      <c r="W34" s="68"/>
+      <c r="X34" s="68"/>
+      <c r="Y34" s="68"/>
+      <c r="Z34" s="68"/>
+      <c r="AA34" s="68"/>
+      <c r="AB34" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="U2:X2"/>
+    <mergeCell ref="Y2:AB2"/>
     <mergeCell ref="A3:B3"/>
-    <mergeCell ref="E1:H1"/>
-    <mergeCell ref="I1:L1"/>
-    <mergeCell ref="M1:P1"/>
-    <mergeCell ref="Q1:T1"/>
-    <mergeCell ref="U1:X1"/>
-    <mergeCell ref="Y1:AB1"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="Q2:T2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8732,853 +9174,781 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A1" s="15"/>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="60" t="s">
+      <c r="A1" s="13"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="51" t="s">
+      <c r="E1" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="52" t="s">
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="51" t="s">
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="N1" s="51"/>
-      <c r="O1" s="51"/>
-      <c r="P1" s="51"/>
-      <c r="Q1" s="51" t="s">
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="R1" s="51"/>
-      <c r="S1" s="51"/>
-      <c r="T1" s="51"/>
-      <c r="U1" s="51" t="s">
+      <c r="R1" s="63"/>
+      <c r="S1" s="63"/>
+      <c r="T1" s="63"/>
+      <c r="U1" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="V1" s="51"/>
-      <c r="W1" s="51"/>
-      <c r="X1" s="51"/>
-      <c r="Y1" s="51" t="s">
+      <c r="V1" s="63"/>
+      <c r="W1" s="63"/>
+      <c r="X1" s="63"/>
+      <c r="Y1" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="Z1" s="51"/>
-      <c r="AA1" s="51"/>
-      <c r="AB1" s="55"/>
+      <c r="Z1" s="63"/>
+      <c r="AA1" s="63"/>
+      <c r="AB1" s="67"/>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="D2" s="61" t="s">
+      <c r="D2" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="37" t="s">
+      <c r="E2" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="37" t="s">
+      <c r="F2" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="37" t="s">
+      <c r="G2" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="H2" s="37" t="s">
+      <c r="H2" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="I2" s="37" t="s">
+      <c r="I2" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="J2" s="37" t="s">
+      <c r="J2" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="K2" s="37" t="s">
+      <c r="K2" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="L2" s="37" t="s">
+      <c r="L2" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="M2" s="37" t="s">
+      <c r="M2" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="N2" s="37" t="s">
+      <c r="N2" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="O2" s="37" t="s">
+      <c r="O2" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="P2" s="37" t="s">
+      <c r="P2" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="Q2" s="37" t="s">
+      <c r="Q2" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="R2" s="37" t="s">
+      <c r="R2" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="S2" s="37" t="s">
+      <c r="S2" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="T2" s="37" t="s">
+      <c r="T2" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="U2" s="37" t="s">
+      <c r="U2" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="V2" s="37" t="s">
+      <c r="V2" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="W2" s="37" t="s">
+      <c r="W2" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="X2" s="37" t="s">
+      <c r="X2" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="Y2" s="37" t="s">
+      <c r="Y2" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="Z2" s="37" t="s">
+      <c r="Z2" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="AA2" s="37" t="s">
+      <c r="AA2" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="AB2" s="57" t="s">
+      <c r="AB2" s="49" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="59" t="s">
+      <c r="B3" s="62"/>
+      <c r="C3" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="20"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
-      <c r="S3" s="10"/>
-      <c r="T3" s="10"/>
-      <c r="U3" s="10"/>
-      <c r="V3" s="10"/>
-      <c r="W3" s="10"/>
-      <c r="X3" s="10"/>
-      <c r="Y3" s="10"/>
-      <c r="Z3" s="10"/>
-      <c r="AA3" s="10"/>
-      <c r="AB3" s="23"/>
+      <c r="D3" s="18"/>
+      <c r="AB3" s="21"/>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A4" s="15">
+      <c r="A4" s="13">
         <v>1</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="49"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="42"/>
-      <c r="K4" s="42"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="42"/>
-      <c r="O4" s="42"/>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="11"/>
-      <c r="R4" s="42"/>
-      <c r="S4" s="42"/>
-      <c r="T4" s="12"/>
-      <c r="U4" s="11"/>
-      <c r="V4" s="42"/>
-      <c r="W4" s="42"/>
-      <c r="X4" s="12"/>
-      <c r="Y4" s="11"/>
-      <c r="Z4" s="42"/>
-      <c r="AA4" s="42"/>
-      <c r="AB4" s="58"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="40"/>
+      <c r="O4" s="40"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="40"/>
+      <c r="S4" s="40"/>
+      <c r="T4" s="10"/>
+      <c r="U4" s="9"/>
+      <c r="V4" s="40"/>
+      <c r="W4" s="40"/>
+      <c r="X4" s="10"/>
+      <c r="Y4" s="9"/>
+      <c r="Z4" s="40"/>
+      <c r="AA4" s="40"/>
+      <c r="AB4" s="50"/>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A5" s="20"/>
+      <c r="A5" s="18"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="63"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="43"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="44"/>
-      <c r="M5" s="43"/>
-      <c r="N5" s="21"/>
-      <c r="O5" s="21"/>
-      <c r="P5" s="44"/>
-      <c r="Q5" s="43"/>
-      <c r="R5" s="21"/>
-      <c r="S5" s="21"/>
-      <c r="T5" s="44"/>
-      <c r="U5" s="43"/>
-      <c r="V5" s="21"/>
-      <c r="W5" s="21"/>
-      <c r="X5" s="44"/>
-      <c r="Y5" s="43"/>
-      <c r="Z5" s="21"/>
-      <c r="AA5" s="21"/>
-      <c r="AB5" s="22"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="42"/>
+      <c r="M5" s="41"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="42"/>
+      <c r="Q5" s="41"/>
+      <c r="R5" s="19"/>
+      <c r="S5" s="19"/>
+      <c r="T5" s="42"/>
+      <c r="U5" s="41"/>
+      <c r="V5" s="19"/>
+      <c r="W5" s="19"/>
+      <c r="X5" s="42"/>
+      <c r="Y5" s="41"/>
+      <c r="Z5" s="19"/>
+      <c r="AA5" s="19"/>
+      <c r="AB5" s="20"/>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A6" s="20"/>
+      <c r="A6" s="18"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="64"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="3"/>
+      <c r="I6" s="11"/>
       <c r="L6" s="1"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
+      <c r="M6" s="11"/>
       <c r="P6" s="1"/>
-      <c r="Q6" s="13"/>
-      <c r="R6" s="10"/>
-      <c r="S6" s="10"/>
+      <c r="Q6" s="11"/>
       <c r="T6" s="1"/>
-      <c r="U6" s="13"/>
-      <c r="V6" s="10"/>
-      <c r="W6" s="10"/>
+      <c r="U6" s="11"/>
       <c r="X6" s="1"/>
-      <c r="Y6" s="13"/>
-      <c r="Z6" s="10"/>
-      <c r="AA6" s="10"/>
-      <c r="AB6" s="23"/>
+      <c r="Y6" s="11"/>
+      <c r="AB6" s="21"/>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A7" s="20"/>
+      <c r="A7" s="18"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="63"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="43"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="44"/>
-      <c r="M7" s="43"/>
-      <c r="N7" s="21"/>
-      <c r="O7" s="21"/>
-      <c r="P7" s="44"/>
-      <c r="Q7" s="43"/>
-      <c r="R7" s="21"/>
-      <c r="S7" s="21"/>
-      <c r="T7" s="44"/>
-      <c r="U7" s="43"/>
-      <c r="V7" s="21"/>
-      <c r="W7" s="21"/>
-      <c r="X7" s="44"/>
-      <c r="Y7" s="43"/>
-      <c r="Z7" s="21"/>
-      <c r="AA7" s="21"/>
-      <c r="AB7" s="22"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="42"/>
+      <c r="M7" s="41"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="42"/>
+      <c r="Q7" s="41"/>
+      <c r="R7" s="19"/>
+      <c r="S7" s="19"/>
+      <c r="T7" s="42"/>
+      <c r="U7" s="41"/>
+      <c r="V7" s="19"/>
+      <c r="W7" s="19"/>
+      <c r="X7" s="42"/>
+      <c r="Y7" s="41"/>
+      <c r="Z7" s="19"/>
+      <c r="AA7" s="19"/>
+      <c r="AB7" s="20"/>
     </row>
     <row r="8" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="24"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="50" t="s">
+      <c r="A8" s="22"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="65"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="25"/>
-      <c r="M8" s="50"/>
-      <c r="N8" s="26"/>
-      <c r="O8" s="26"/>
-      <c r="P8" s="25"/>
-      <c r="Q8" s="50"/>
-      <c r="R8" s="26"/>
-      <c r="S8" s="26"/>
-      <c r="T8" s="25"/>
-      <c r="U8" s="50"/>
-      <c r="V8" s="26"/>
-      <c r="W8" s="26"/>
-      <c r="X8" s="25"/>
-      <c r="Y8" s="50"/>
-      <c r="Z8" s="26"/>
-      <c r="AA8" s="26"/>
-      <c r="AB8" s="30"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="48"/>
+      <c r="N8" s="24"/>
+      <c r="O8" s="24"/>
+      <c r="P8" s="23"/>
+      <c r="Q8" s="48"/>
+      <c r="R8" s="24"/>
+      <c r="S8" s="24"/>
+      <c r="T8" s="23"/>
+      <c r="U8" s="48"/>
+      <c r="V8" s="24"/>
+      <c r="W8" s="24"/>
+      <c r="X8" s="23"/>
+      <c r="Y8" s="48"/>
+      <c r="Z8" s="24"/>
+      <c r="AA8" s="24"/>
+      <c r="AB8" s="28"/>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A9" s="15">
+      <c r="A9" s="13">
         <v>2</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="49"/>
-      <c r="D9" s="66"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="45"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="32"/>
-      <c r="L9" s="46"/>
-      <c r="M9" s="45"/>
-      <c r="N9" s="31"/>
-      <c r="O9" s="31"/>
-      <c r="P9" s="46"/>
-      <c r="Q9" s="45"/>
-      <c r="R9" s="31"/>
-      <c r="S9" s="31"/>
-      <c r="T9" s="46"/>
-      <c r="U9" s="45"/>
-      <c r="V9" s="31"/>
-      <c r="W9" s="31"/>
-      <c r="X9" s="46"/>
-      <c r="Y9" s="45"/>
-      <c r="Z9" s="31"/>
-      <c r="AA9" s="31"/>
-      <c r="AB9" s="33"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="43"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="44"/>
+      <c r="M9" s="43"/>
+      <c r="N9" s="29"/>
+      <c r="O9" s="29"/>
+      <c r="P9" s="44"/>
+      <c r="Q9" s="43"/>
+      <c r="R9" s="29"/>
+      <c r="S9" s="29"/>
+      <c r="T9" s="44"/>
+      <c r="U9" s="43"/>
+      <c r="V9" s="29"/>
+      <c r="W9" s="29"/>
+      <c r="X9" s="44"/>
+      <c r="Y9" s="43"/>
+      <c r="Z9" s="29"/>
+      <c r="AA9" s="29"/>
+      <c r="AB9" s="31"/>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A10" s="20"/>
+      <c r="A10" s="18"/>
       <c r="B10" s="1"/>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="64"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="10"/>
+      <c r="D10" s="56"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="12"/>
       <c r="L10" s="1"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10"/>
+      <c r="M10" s="11"/>
       <c r="P10" s="1"/>
-      <c r="Q10" s="13"/>
-      <c r="R10" s="10"/>
-      <c r="S10" s="10"/>
+      <c r="Q10" s="11"/>
       <c r="T10" s="1"/>
-      <c r="U10" s="13"/>
-      <c r="V10" s="10"/>
-      <c r="W10" s="10"/>
+      <c r="U10" s="11"/>
       <c r="X10" s="1"/>
-      <c r="Y10" s="13"/>
-      <c r="Z10" s="10"/>
-      <c r="AA10" s="10"/>
-      <c r="AB10" s="23"/>
+      <c r="Y10" s="11"/>
+      <c r="AB10" s="21"/>
     </row>
     <row r="11" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="24"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="50" t="s">
+      <c r="A11" s="22"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="67"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="47"/>
-      <c r="J11" s="35"/>
-      <c r="K11" s="29"/>
-      <c r="L11" s="48"/>
-      <c r="M11" s="47"/>
-      <c r="N11" s="34"/>
-      <c r="O11" s="34"/>
-      <c r="P11" s="48"/>
-      <c r="Q11" s="47"/>
-      <c r="R11" s="34"/>
-      <c r="S11" s="34"/>
-      <c r="T11" s="48"/>
-      <c r="U11" s="47"/>
-      <c r="V11" s="34"/>
-      <c r="W11" s="34"/>
-      <c r="X11" s="48"/>
-      <c r="Y11" s="47"/>
-      <c r="Z11" s="34"/>
-      <c r="AA11" s="34"/>
-      <c r="AB11" s="36"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="45"/>
+      <c r="J11" s="33"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="46"/>
+      <c r="M11" s="45"/>
+      <c r="N11" s="32"/>
+      <c r="O11" s="32"/>
+      <c r="P11" s="46"/>
+      <c r="Q11" s="45"/>
+      <c r="R11" s="32"/>
+      <c r="S11" s="32"/>
+      <c r="T11" s="46"/>
+      <c r="U11" s="45"/>
+      <c r="V11" s="32"/>
+      <c r="W11" s="32"/>
+      <c r="X11" s="46"/>
+      <c r="Y11" s="45"/>
+      <c r="Z11" s="32"/>
+      <c r="AA11" s="32"/>
+      <c r="AB11" s="34"/>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A12" s="15">
+      <c r="A12" s="13">
         <v>3</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="49"/>
-      <c r="D12" s="68"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="49"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="49"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="16"/>
-      <c r="Q12" s="49"/>
-      <c r="R12" s="17"/>
-      <c r="S12" s="17"/>
-      <c r="T12" s="16"/>
-      <c r="U12" s="49"/>
-      <c r="V12" s="17"/>
-      <c r="W12" s="17"/>
-      <c r="X12" s="16"/>
-      <c r="Y12" s="49"/>
-      <c r="Z12" s="17"/>
-      <c r="AA12" s="17"/>
-      <c r="AB12" s="19"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="47"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="47"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="47"/>
+      <c r="R12" s="15"/>
+      <c r="S12" s="15"/>
+      <c r="T12" s="14"/>
+      <c r="U12" s="47"/>
+      <c r="V12" s="15"/>
+      <c r="W12" s="15"/>
+      <c r="X12" s="14"/>
+      <c r="Y12" s="47"/>
+      <c r="Z12" s="15"/>
+      <c r="AA12" s="15"/>
+      <c r="AB12" s="17"/>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A13" s="20"/>
+      <c r="A13" s="18"/>
       <c r="B13" s="1"/>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="63"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="43"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="21"/>
-      <c r="O13" s="21"/>
-      <c r="P13" s="44"/>
-      <c r="Q13" s="43"/>
-      <c r="R13" s="21"/>
-      <c r="S13" s="21"/>
-      <c r="T13" s="44"/>
-      <c r="U13" s="43"/>
-      <c r="V13" s="21"/>
-      <c r="W13" s="21"/>
-      <c r="X13" s="44"/>
-      <c r="Y13" s="43"/>
-      <c r="Z13" s="21"/>
-      <c r="AA13" s="21"/>
-      <c r="AB13" s="22"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="41"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="19"/>
+      <c r="P13" s="42"/>
+      <c r="Q13" s="41"/>
+      <c r="R13" s="19"/>
+      <c r="S13" s="19"/>
+      <c r="T13" s="42"/>
+      <c r="U13" s="41"/>
+      <c r="V13" s="19"/>
+      <c r="W13" s="19"/>
+      <c r="X13" s="42"/>
+      <c r="Y13" s="41"/>
+      <c r="Z13" s="19"/>
+      <c r="AA13" s="19"/>
+      <c r="AB13" s="20"/>
     </row>
     <row r="14" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="24"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="50" t="s">
+      <c r="A14" s="22"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="65"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="50"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="26"/>
-      <c r="L14" s="25"/>
-      <c r="M14" s="35"/>
-      <c r="N14" s="29"/>
-      <c r="O14" s="26"/>
-      <c r="P14" s="25"/>
-      <c r="Q14" s="50"/>
-      <c r="R14" s="26"/>
-      <c r="S14" s="26"/>
-      <c r="T14" s="25"/>
-      <c r="U14" s="50"/>
-      <c r="V14" s="26"/>
-      <c r="W14" s="26"/>
-      <c r="X14" s="25"/>
-      <c r="Y14" s="50"/>
-      <c r="Z14" s="26"/>
-      <c r="AA14" s="26"/>
-      <c r="AB14" s="30"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="48"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="33"/>
+      <c r="N14" s="27"/>
+      <c r="O14" s="24"/>
+      <c r="P14" s="23"/>
+      <c r="Q14" s="48"/>
+      <c r="R14" s="24"/>
+      <c r="S14" s="24"/>
+      <c r="T14" s="23"/>
+      <c r="U14" s="48"/>
+      <c r="V14" s="24"/>
+      <c r="W14" s="24"/>
+      <c r="X14" s="23"/>
+      <c r="Y14" s="48"/>
+      <c r="Z14" s="24"/>
+      <c r="AA14" s="24"/>
+      <c r="AB14" s="28"/>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A15" s="15">
+      <c r="A15" s="13">
         <v>4</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="49"/>
-      <c r="D15" s="66"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="45"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="31"/>
-      <c r="L15" s="46"/>
-      <c r="M15" s="45"/>
-      <c r="N15" s="31"/>
-      <c r="O15" s="31"/>
-      <c r="P15" s="46"/>
-      <c r="Q15" s="45"/>
-      <c r="R15" s="31"/>
-      <c r="S15" s="31"/>
-      <c r="T15" s="46"/>
-      <c r="U15" s="45"/>
-      <c r="V15" s="31"/>
-      <c r="W15" s="31"/>
-      <c r="X15" s="46"/>
-      <c r="Y15" s="45"/>
-      <c r="Z15" s="31"/>
-      <c r="AA15" s="31"/>
-      <c r="AB15" s="33"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="58"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="44"/>
+      <c r="M15" s="43"/>
+      <c r="N15" s="29"/>
+      <c r="O15" s="29"/>
+      <c r="P15" s="44"/>
+      <c r="Q15" s="43"/>
+      <c r="R15" s="29"/>
+      <c r="S15" s="29"/>
+      <c r="T15" s="44"/>
+      <c r="U15" s="43"/>
+      <c r="V15" s="29"/>
+      <c r="W15" s="29"/>
+      <c r="X15" s="44"/>
+      <c r="Y15" s="43"/>
+      <c r="Z15" s="29"/>
+      <c r="AA15" s="29"/>
+      <c r="AB15" s="31"/>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A16" s="20"/>
+      <c r="A16" s="18"/>
       <c r="B16" s="1"/>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="64"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
+      <c r="D16" s="56"/>
+      <c r="I16" s="11"/>
       <c r="L16" s="1"/>
-      <c r="M16" s="13"/>
-      <c r="N16" s="10"/>
-      <c r="O16" s="38"/>
-      <c r="P16" s="9"/>
-      <c r="Q16" s="13"/>
-      <c r="R16" s="10"/>
-      <c r="S16" s="10"/>
+      <c r="M16" s="11"/>
+      <c r="O16" s="36"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="11"/>
       <c r="T16" s="1"/>
-      <c r="U16" s="13"/>
-      <c r="V16" s="10"/>
-      <c r="W16" s="10"/>
+      <c r="U16" s="11"/>
       <c r="X16" s="1"/>
-      <c r="Y16" s="13"/>
-      <c r="Z16" s="10"/>
-      <c r="AA16" s="10"/>
-      <c r="AB16" s="23"/>
+      <c r="Y16" s="11"/>
+      <c r="AB16" s="21"/>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A17" s="20"/>
+      <c r="A17" s="18"/>
       <c r="B17" s="1"/>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="63"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="43"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="44"/>
-      <c r="M17" s="43"/>
-      <c r="N17" s="21"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="4"/>
-      <c r="S17" s="21"/>
-      <c r="T17" s="44"/>
-      <c r="U17" s="43"/>
-      <c r="V17" s="21"/>
-      <c r="W17" s="21"/>
-      <c r="X17" s="44"/>
-      <c r="Y17" s="43"/>
-      <c r="Z17" s="21"/>
-      <c r="AA17" s="21"/>
-      <c r="AB17" s="22"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="41"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="42"/>
+      <c r="M17" s="41"/>
+      <c r="N17" s="19"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="19"/>
+      <c r="T17" s="42"/>
+      <c r="U17" s="41"/>
+      <c r="V17" s="19"/>
+      <c r="W17" s="19"/>
+      <c r="X17" s="42"/>
+      <c r="Y17" s="41"/>
+      <c r="Z17" s="19"/>
+      <c r="AA17" s="19"/>
+      <c r="AB17" s="20"/>
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A18" s="20"/>
+      <c r="A18" s="18"/>
       <c r="B18" s="1"/>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="64"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
+      <c r="D18" s="56"/>
+      <c r="I18" s="11"/>
       <c r="L18" s="1"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="10"/>
-      <c r="O18" s="10"/>
-      <c r="P18" s="8"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="6"/>
-      <c r="S18" s="6"/>
+      <c r="M18" s="11"/>
+      <c r="P18" s="7"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="5"/>
       <c r="T18" s="1"/>
-      <c r="U18" s="13"/>
-      <c r="V18" s="10"/>
-      <c r="W18" s="10"/>
+      <c r="U18" s="11"/>
       <c r="X18" s="1"/>
-      <c r="Y18" s="13"/>
-      <c r="Z18" s="10"/>
-      <c r="AA18" s="10"/>
-      <c r="AB18" s="23"/>
+      <c r="Y18" s="11"/>
+      <c r="AB18" s="21"/>
     </row>
     <row r="19" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="24"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="50" t="s">
+      <c r="A19" s="22"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="D19" s="67"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="34"/>
-      <c r="I19" s="47"/>
-      <c r="J19" s="34"/>
-      <c r="K19" s="34"/>
-      <c r="L19" s="48"/>
-      <c r="M19" s="47"/>
-      <c r="N19" s="34"/>
-      <c r="O19" s="34"/>
-      <c r="P19" s="48"/>
-      <c r="Q19" s="35"/>
-      <c r="R19" s="39"/>
-      <c r="S19" s="29"/>
-      <c r="T19" s="48"/>
-      <c r="U19" s="47"/>
-      <c r="V19" s="34"/>
-      <c r="W19" s="34"/>
-      <c r="X19" s="48"/>
-      <c r="Y19" s="47"/>
-      <c r="Z19" s="34"/>
-      <c r="AA19" s="34"/>
-      <c r="AB19" s="36"/>
+      <c r="D19" s="59"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="45"/>
+      <c r="J19" s="32"/>
+      <c r="K19" s="32"/>
+      <c r="L19" s="46"/>
+      <c r="M19" s="45"/>
+      <c r="N19" s="32"/>
+      <c r="O19" s="32"/>
+      <c r="P19" s="46"/>
+      <c r="Q19" s="33"/>
+      <c r="R19" s="37"/>
+      <c r="S19" s="27"/>
+      <c r="T19" s="46"/>
+      <c r="U19" s="45"/>
+      <c r="V19" s="32"/>
+      <c r="W19" s="32"/>
+      <c r="X19" s="46"/>
+      <c r="Y19" s="45"/>
+      <c r="Z19" s="32"/>
+      <c r="AA19" s="32"/>
+      <c r="AB19" s="34"/>
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A20" s="15">
+      <c r="A20" s="13">
         <v>5</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="49"/>
-      <c r="D20" s="68"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="49"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="16"/>
-      <c r="M20" s="49"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="17"/>
-      <c r="P20" s="16"/>
-      <c r="Q20" s="49"/>
-      <c r="R20" s="17"/>
-      <c r="S20" s="17"/>
-      <c r="T20" s="16"/>
-      <c r="U20" s="49"/>
-      <c r="V20" s="17"/>
-      <c r="W20" s="17"/>
-      <c r="X20" s="16"/>
-      <c r="Y20" s="49"/>
-      <c r="Z20" s="17"/>
-      <c r="AA20" s="17"/>
-      <c r="AB20" s="19"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="60"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="47"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="47"/>
+      <c r="N20" s="15"/>
+      <c r="O20" s="15"/>
+      <c r="P20" s="14"/>
+      <c r="Q20" s="47"/>
+      <c r="R20" s="15"/>
+      <c r="S20" s="15"/>
+      <c r="T20" s="14"/>
+      <c r="U20" s="47"/>
+      <c r="V20" s="15"/>
+      <c r="W20" s="15"/>
+      <c r="X20" s="14"/>
+      <c r="Y20" s="47"/>
+      <c r="Z20" s="15"/>
+      <c r="AA20" s="15"/>
+      <c r="AB20" s="17"/>
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A21" s="20"/>
+      <c r="A21" s="18"/>
       <c r="B21" s="1"/>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D21" s="63"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="43"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="21"/>
-      <c r="L21" s="44"/>
-      <c r="M21" s="43"/>
-      <c r="N21" s="21"/>
-      <c r="O21" s="21"/>
-      <c r="P21" s="44"/>
-      <c r="Q21" s="43"/>
-      <c r="R21" s="21"/>
-      <c r="S21" s="21"/>
-      <c r="T21" s="8"/>
-      <c r="U21" s="43"/>
-      <c r="V21" s="21"/>
-      <c r="W21" s="21"/>
-      <c r="X21" s="44"/>
-      <c r="Y21" s="43"/>
-      <c r="Z21" s="21"/>
-      <c r="AA21" s="21"/>
-      <c r="AB21" s="22"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="41"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="42"/>
+      <c r="M21" s="41"/>
+      <c r="N21" s="19"/>
+      <c r="O21" s="19"/>
+      <c r="P21" s="42"/>
+      <c r="Q21" s="41"/>
+      <c r="R21" s="19"/>
+      <c r="S21" s="19"/>
+      <c r="T21" s="7"/>
+      <c r="U21" s="41"/>
+      <c r="V21" s="19"/>
+      <c r="W21" s="19"/>
+      <c r="X21" s="42"/>
+      <c r="Y21" s="41"/>
+      <c r="Z21" s="19"/>
+      <c r="AA21" s="19"/>
+      <c r="AB21" s="20"/>
     </row>
     <row r="22" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="24"/>
-      <c r="B22" s="25"/>
-      <c r="C22" s="50" t="s">
+      <c r="A22" s="22"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="D22" s="65"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="50"/>
-      <c r="J22" s="26"/>
-      <c r="K22" s="26"/>
-      <c r="L22" s="25"/>
-      <c r="M22" s="50"/>
-      <c r="N22" s="26"/>
-      <c r="O22" s="26"/>
-      <c r="P22" s="25"/>
-      <c r="Q22" s="50"/>
-      <c r="R22" s="26"/>
-      <c r="S22" s="26"/>
-      <c r="T22" s="25"/>
-      <c r="U22" s="40"/>
-      <c r="V22" s="26"/>
-      <c r="W22" s="26"/>
-      <c r="X22" s="25"/>
-      <c r="Y22" s="50"/>
-      <c r="Z22" s="26"/>
-      <c r="AA22" s="26"/>
-      <c r="AB22" s="30"/>
+      <c r="D22" s="57"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="48"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="24"/>
+      <c r="L22" s="23"/>
+      <c r="M22" s="48"/>
+      <c r="N22" s="24"/>
+      <c r="O22" s="24"/>
+      <c r="P22" s="23"/>
+      <c r="Q22" s="48"/>
+      <c r="R22" s="24"/>
+      <c r="S22" s="24"/>
+      <c r="T22" s="23"/>
+      <c r="U22" s="38"/>
+      <c r="V22" s="24"/>
+      <c r="W22" s="24"/>
+      <c r="X22" s="23"/>
+      <c r="Y22" s="48"/>
+      <c r="Z22" s="24"/>
+      <c r="AA22" s="24"/>
+      <c r="AB22" s="28"/>
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A23" s="15">
+      <c r="A23" s="13">
         <v>8</v>
       </c>
-      <c r="B23" s="16" t="s">
+      <c r="B23" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="49"/>
-      <c r="D23" s="66"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="31"/>
-      <c r="I23" s="45"/>
-      <c r="J23" s="31"/>
-      <c r="K23" s="31"/>
-      <c r="L23" s="46"/>
-      <c r="M23" s="45"/>
-      <c r="N23" s="31"/>
-      <c r="O23" s="31"/>
-      <c r="P23" s="46"/>
-      <c r="Q23" s="45"/>
-      <c r="R23" s="31"/>
-      <c r="S23" s="31"/>
-      <c r="T23" s="46"/>
-      <c r="U23" s="45"/>
-      <c r="V23" s="31"/>
-      <c r="W23" s="31"/>
-      <c r="X23" s="46"/>
-      <c r="Y23" s="45"/>
-      <c r="Z23" s="31"/>
-      <c r="AA23" s="31"/>
-      <c r="AB23" s="33"/>
+      <c r="C23" s="47"/>
+      <c r="D23" s="58"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="43"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="44"/>
+      <c r="M23" s="43"/>
+      <c r="N23" s="29"/>
+      <c r="O23" s="29"/>
+      <c r="P23" s="44"/>
+      <c r="Q23" s="43"/>
+      <c r="R23" s="29"/>
+      <c r="S23" s="29"/>
+      <c r="T23" s="44"/>
+      <c r="U23" s="43"/>
+      <c r="V23" s="29"/>
+      <c r="W23" s="29"/>
+      <c r="X23" s="44"/>
+      <c r="Y23" s="43"/>
+      <c r="Z23" s="29"/>
+      <c r="AA23" s="29"/>
+      <c r="AB23" s="31"/>
     </row>
     <row r="24" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="24"/>
-      <c r="B24" s="25"/>
-      <c r="C24" s="50" t="s">
+      <c r="A24" s="22"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="D24" s="65"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="26"/>
-      <c r="I24" s="50"/>
-      <c r="J24" s="26"/>
-      <c r="K24" s="26"/>
-      <c r="L24" s="25"/>
-      <c r="M24" s="50"/>
-      <c r="N24" s="26"/>
-      <c r="O24" s="26"/>
-      <c r="P24" s="25"/>
-      <c r="Q24" s="50"/>
-      <c r="R24" s="26"/>
-      <c r="S24" s="26"/>
-      <c r="T24" s="25"/>
-      <c r="U24" s="50"/>
-      <c r="V24" s="26"/>
-      <c r="W24" s="35"/>
-      <c r="X24" s="29"/>
-      <c r="Y24" s="35"/>
-      <c r="Z24" s="39"/>
-      <c r="AA24" s="39"/>
-      <c r="AB24" s="28"/>
+      <c r="D24" s="57"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="48"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="24"/>
+      <c r="L24" s="23"/>
+      <c r="M24" s="48"/>
+      <c r="N24" s="24"/>
+      <c r="O24" s="24"/>
+      <c r="P24" s="23"/>
+      <c r="Q24" s="48"/>
+      <c r="R24" s="24"/>
+      <c r="S24" s="24"/>
+      <c r="T24" s="23"/>
+      <c r="U24" s="48"/>
+      <c r="V24" s="24"/>
+      <c r="W24" s="33"/>
+      <c r="X24" s="27"/>
+      <c r="Y24" s="33"/>
+      <c r="Z24" s="37"/>
+      <c r="AA24" s="37"/>
+      <c r="AB24" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="U1:X1"/>
+    <mergeCell ref="Y1:AB1"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="E1:H1"/>
     <mergeCell ref="I1:L1"/>
     <mergeCell ref="M1:P1"/>
     <mergeCell ref="Q1:T1"/>
-    <mergeCell ref="U1:X1"/>
-    <mergeCell ref="Y1:AB1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/GanttChart.xlsx
+++ b/GanttChart.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\z00503ku\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Christian\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C915523-9E97-49F0-9CCD-D7A37910D761}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ED6236B-B8CF-4123-8AAD-D1B81570AA61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{43E547F6-0216-4364-89E9-4ABBD2898905}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{43E547F6-0216-4364-89E9-4ABBD2898905}"/>
   </bookViews>
   <sheets>
     <sheet name="No Dates" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="58">
   <si>
     <t>Define Role &amp; Skills</t>
   </si>
@@ -197,6 +197,21 @@
   <si>
     <t>Demo Ends</t>
   </si>
+  <si>
+    <t>Initial Feature Integration</t>
+  </si>
+  <si>
+    <t>Prepare Demo Version</t>
+  </si>
+  <si>
+    <t>Implement Client Demo Feedback</t>
+  </si>
+  <si>
+    <t>System Testing and Validation</t>
+  </si>
+  <si>
+    <t>System Testing and  Validation</t>
+  </si>
 </sst>
 </file>
 
@@ -867,7 +882,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
@@ -939,51 +954,12 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="43" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="42" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="8" borderId="40" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1000,12 +976,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1031,12 +1001,59 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFD56B29"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1050,6 +1067,512 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>604274</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>90155</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>4560</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>95072</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="138" name="Connector: Elbow 137">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{491B503A-C8C5-41C5-A7B6-573E4A213012}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="86" idx="3"/>
+          <a:endCxn id="87" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14701274" y="3807978"/>
+          <a:ext cx="10705" cy="189271"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 88277"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>33012</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>53830</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>1974</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>144996</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="137" name="Rectangle 136">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B604AB8F-B42F-4FD7-B746-2A8DF5A29AAE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15950648" y="5224544"/>
+          <a:ext cx="1797762" cy="91166"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>255069</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>37500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>608856</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>125185</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="135" name="Rectangle 134">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1934D5AF-87CB-4AF7-BB23-2C38933758CD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13734305" y="4288371"/>
+          <a:ext cx="963387" cy="87685"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>84365</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>42944</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>608856</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>134110</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="134" name="Rectangle 133">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{888CC0CA-9830-4308-AAEB-4420098567E2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13563601" y="4111480"/>
+          <a:ext cx="1134091" cy="91166"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>30293</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>42942</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>608855</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>134108</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="133" name="Rectangle 132">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB1D1864-4D47-4805-8131-EF98DAC876DF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11680729" y="3373971"/>
+          <a:ext cx="1797762" cy="91166"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>5255</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>47297</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>138463</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="130" name="Rectangle 129">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE091970-D6BF-4C7C-AB1C-B77F38752B76}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8608235" y="2279957"/>
+          <a:ext cx="1833070" cy="91166"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>11297</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>51507</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>600745</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>142673</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="129" name="Rectangle 128">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A12E8877-3014-469F-8011-E35359C08369}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4972403" y="988605"/>
+          <a:ext cx="1802163" cy="91166"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>21025</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>48264</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>7358</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>139430</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="126" name="Rectangle 125">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F5687E7-05B7-479D-AA0D-680394786861}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5591731" y="1166945"/>
+          <a:ext cx="1802163" cy="91166"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
@@ -1114,13 +1637,13 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>7499</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>82</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>171138</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1532,14 +2055,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>600918</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>6296</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>7938</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>608856</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>169935</xdr:rowOff>
     </xdr:to>
@@ -1556,8 +2079,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13566588" y="3980649"/>
-          <a:ext cx="1233115" cy="163639"/>
+          <a:off x="13470554" y="3892496"/>
+          <a:ext cx="1227138" cy="163639"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1652,13 +2175,13 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>534398</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>185798</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>86547</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>179181</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1712,13 +2235,13 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>531556</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>186766</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>83705</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>181689</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1777,646 +2300,123 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
-      <xdr:colOff>195379</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>2088</xdr:rowOff>
+      <xdr:colOff>163341</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>181583</xdr:rowOff>
     </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="47" name="Group 46">
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="Rectangle 47">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF2120A1-89C3-4AFC-8657-41A53C788112}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50D6A45F-76BE-A9B6-88C8-86D3F79E9AE1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="19162708" y="39715"/>
-          <a:ext cx="1337730" cy="1486373"/>
-          <a:chOff x="19685000" y="2401990"/>
-          <a:chExt cx="1330892" cy="1453476"/>
+          <a:off x="19051762" y="39715"/>
+          <a:ext cx="1299715" cy="1815025"/>
         </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="48" name="Rectangle 47">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50D6A45F-76BE-A9B6-88C8-86D3F79E9AE1}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="19685000" y="2401990"/>
-            <a:ext cx="1298875" cy="1453476"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="bg1"/>
-          </a:solidFill>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="15000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="en-GB" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="49" name="TextBox 48">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD41F046-340A-8132-7C8A-409E77841B1A}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="19685000" y="2401990"/>
-            <a:ext cx="560323" cy="235040"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>82826</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>39715</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>33911</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>83520</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="TextBox 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD41F046-340A-8132-7C8A-409E77841B1A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19051762" y="39715"/>
+          <a:ext cx="560685" cy="235116"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
           <a:noFill/>
-          <a:ln w="9525" cmpd="sng">
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="en-GB" sz="900" b="1"/>
-              <a:t>Legend</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="50" name="Group 49">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA167B3D-E789-D832-89B2-0A27F74285ED}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm>
-            <a:off x="19855606" y="2633046"/>
-            <a:ext cx="182135" cy="1130784"/>
-            <a:chOff x="19867997" y="2598613"/>
-            <a:chExt cx="182135" cy="1119444"/>
-          </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="57" name="Diamond 56">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{912C65E7-B21B-5996-1CEC-AA02D8472450}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="19878243" y="3005753"/>
-              <a:ext cx="161642" cy="188045"/>
-            </a:xfrm>
-            <a:prstGeom prst="diamond">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent5">
-                <a:shade val="15000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent5"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent5"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr lang="en-GB" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="58" name="Oval 57">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F6C96F7-99BC-9AA2-526A-CBA9C9F3932C}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="19867997" y="3537948"/>
-              <a:ext cx="182135" cy="180109"/>
-            </a:xfrm>
-            <a:prstGeom prst="ellipse">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent6">
-                <a:shade val="15000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent6"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent6"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr lang="en-GB" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="59" name="Diamond 58">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D0578AF-6721-922D-F129-5ED9E1763C5B}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="19878136" y="3272760"/>
-              <a:ext cx="161857" cy="186227"/>
-            </a:xfrm>
-            <a:prstGeom prst="diamond">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent2">
-                <a:shade val="15000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent2"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent2"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr lang="en-GB" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="60" name="Rectangle 59">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54C8A8DD-7D3E-82B1-55D6-1ECA8002C627}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="19890619" y="2598613"/>
-              <a:ext cx="136890" cy="124608"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent4">
-                <a:shade val="15000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent4"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent4"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr lang="en-GB" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="61" name="Rectangle 60">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE3A93C4-2A30-DD42-8AEE-1DD96D361B91}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="19890619" y="2802183"/>
-              <a:ext cx="136890" cy="124608"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="1">
-              <a:schemeClr val="accent2"/>
-            </a:lnRef>
-            <a:fillRef idx="2">
-              <a:schemeClr val="accent2"/>
-            </a:fillRef>
-            <a:effectRef idx="1">
-              <a:schemeClr val="accent2"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="dk1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr lang="en-GB" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </xdr:grpSp>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="51" name="Group 50">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BB27AB1-8794-ECF1-A09C-5BBC133DC45B}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm>
-            <a:off x="20089146" y="2608304"/>
-            <a:ext cx="926746" cy="1180740"/>
-            <a:chOff x="20101537" y="2561316"/>
-            <a:chExt cx="928846" cy="1169872"/>
-          </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="52" name="TextBox 51">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{497228EF-9603-9039-CBAA-EE3FD526CA80}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="20101537" y="2561316"/>
-              <a:ext cx="928846" cy="192416"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln w="9525" cmpd="sng">
-              <a:noFill/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="dk1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:r>
-                <a:rPr lang="en-GB" sz="900" b="1" u="none"/>
-                <a:t>Phase</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="53" name="TextBox 52">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5C7441D-487C-666B-1586-2FE7395AA40E}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="20101537" y="2772570"/>
-              <a:ext cx="928846" cy="192416"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln w="9525" cmpd="sng">
-              <a:noFill/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="dk1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:r>
-                <a:rPr lang="en-GB" sz="900" b="1" u="none"/>
-                <a:t>Task</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="54" name="TextBox 53">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{765CFE92-30BE-D736-3FF2-220373B0FB30}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="20101537" y="2998558"/>
-              <a:ext cx="928846" cy="192416"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln w="9525" cmpd="sng">
-              <a:noFill/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="dk1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:r>
-                <a:rPr lang="en-GB" sz="900" b="1" u="none"/>
-                <a:t>Milestone</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="55" name="TextBox 54">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1ABA4DE-54CF-EB72-540F-F8DDE9121B78}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="20101537" y="3274860"/>
-              <a:ext cx="928846" cy="192416"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln w="9525" cmpd="sng">
-              <a:noFill/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="dk1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:r>
-                <a:rPr lang="en-GB" sz="900" b="1" u="none"/>
-                <a:t>Client</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-GB" sz="900" b="1" u="none" baseline="0"/>
-                <a:t> Meeting</a:t>
-              </a:r>
-              <a:endParaRPr lang="en-GB" sz="900" b="1" u="none"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="56" name="TextBox 55">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0C43342-9B77-9B1D-8FBB-18265FF07879}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="20101537" y="3538772"/>
-              <a:ext cx="928846" cy="192416"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln w="9525" cmpd="sng">
-              <a:noFill/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="dk1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:r>
-                <a:rPr lang="en-GB" sz="900" b="1" u="none"/>
-                <a:t>Deliverable</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </xdr:grpSp>
-    </xdr:grpSp>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="900" b="1"/>
+            <a:t>Legend</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -2604,7 +2604,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>609190</xdr:colOff>
+      <xdr:colOff>593834</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>134266</xdr:rowOff>
     </xdr:to>
@@ -2621,8 +2621,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4996962" y="1190675"/>
-          <a:ext cx="1827757" cy="86591"/>
+          <a:off x="4967492" y="1174909"/>
+          <a:ext cx="1798542" cy="86591"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3237,13 +3237,13 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>4560</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>51776</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>600997</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>138367</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3293,15 +3293,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>605297</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>2458</xdr:colOff>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>42481</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>599877</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:colOff>596767</xdr:colOff>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>129072</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3317,8 +3317,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14761828" y="5035169"/>
-          <a:ext cx="4272893" cy="86591"/>
+          <a:off x="17749684" y="5769771"/>
+          <a:ext cx="1203909" cy="86591"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3353,13 +3353,13 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>531513</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>191492</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>84360</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>182988</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3412,15 +3412,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>516190</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>9228</xdr:rowOff>
+      <xdr:colOff>505798</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>172017</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>88527</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>3708</xdr:rowOff>
+      <xdr:colOff>78135</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>173424</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3435,8 +3435,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="19497805" y="5250420"/>
-          <a:ext cx="182914" cy="180096"/>
+          <a:off x="18863071" y="5925117"/>
+          <a:ext cx="181937" cy="184980"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -3467,180 +3467,6 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>3740</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>96296</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>6608</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>90970</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="92" name="Connector: Elbow 91">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DF6A869-B417-471B-B86C-E1769226DCE5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks/>
-          <a:stCxn id="72" idx="1"/>
-          <a:endCxn id="73" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="10800000" flipH="1" flipV="1">
-          <a:off x="4944450" y="1024215"/>
-          <a:ext cx="613287" cy="179029"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -201"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>5788</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>96296</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>7427</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>93837</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="96" name="Connector: Elbow 95">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9CC6C49-1427-46C4-87C0-BD2653A8E4CD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="10800000" flipH="1" flipV="1">
-          <a:off x="4946498" y="1024215"/>
-          <a:ext cx="1832897" cy="366251"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -179"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>7018</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>93428</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>6838</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>100444</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="114" name="Connector: Elbow 113">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89C39193-5820-47D7-A6F9-6689FDC7520E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="78" idx="1"/>
-          <a:endCxn id="79" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="10800000" flipH="1" flipV="1">
-          <a:off x="9222262" y="2314379"/>
-          <a:ext cx="610039" cy="189772"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -406"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -3705,189 +3531,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>5379</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>87693</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>4149</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>90561</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="127" name="Connector: Elbow 126">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C98D6B2F-EF2E-443C-B0D3-A4A4B528077C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="81" idx="1"/>
-          <a:endCxn id="82" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="10800000" flipH="1" flipV="1">
-          <a:off x="11050282" y="3061951"/>
-          <a:ext cx="609190" cy="187223"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 135"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>5379</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>87694</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>7018</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>93432</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="131" name="Connector: Elbow 130">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F76FB6F2-64FF-4AE9-BF02-164340445CCF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="81" idx="1"/>
-          <a:endCxn id="83" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="10800000" flipH="1" flipV="1">
-          <a:off x="11050282" y="3061952"/>
-          <a:ext cx="1222478" cy="374448"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -101"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>604274</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>90155</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>4560</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>95072</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="138" name="Connector: Elbow 137">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{491B503A-C8C5-41C5-A7B6-573E4A213012}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="86" idx="3"/>
-          <a:endCxn id="87" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="14701274" y="3807978"/>
-          <a:ext cx="10705" cy="189271"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 88277"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>514144</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>179795</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>87445</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>170958</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4450,13 +4102,13 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>600997</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>95072</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>605157</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>179795</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4507,13 +4159,13 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>605158</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>170957</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>531514</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>92099</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4562,15 +4214,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>605297</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:colOff>605595</xdr:colOff>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>170958</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>606389</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>85777</xdr:rowOff>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>101452</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4584,13 +4236,13 @@
         <xdr:cNvCxnSpPr>
           <a:cxnSpLocks/>
           <a:stCxn id="39" idx="4"/>
-          <a:endCxn id="88" idx="1"/>
+          <a:endCxn id="3" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="14761828" y="4608021"/>
-          <a:ext cx="1092" cy="470444"/>
+        <a:xfrm>
+          <a:off x="14693554" y="4810117"/>
+          <a:ext cx="4005" cy="488433"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4619,15 +4271,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>599877</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:colOff>596767</xdr:colOff>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>85777</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>607952</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>9228</xdr:rowOff>
+      <xdr:colOff>596767</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>172017</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4646,8 +4298,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="19034721" y="5078465"/>
-          <a:ext cx="8075" cy="106013"/>
+          <a:off x="18954040" y="5838877"/>
+          <a:ext cx="0" cy="86240"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4671,6 +4323,1279 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>58156</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>601851</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>144747</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rectangle 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64C865F4-58E7-4E16-B3FD-2EB5A364EF9F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14697559" y="5255254"/>
+          <a:ext cx="2430651" cy="86591"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>8861</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>8292</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>1054</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>94883</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="Rectangle 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B6EAA96-B550-4F65-94F2-94CF49916278}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15310884" y="5209385"/>
+          <a:ext cx="2428821" cy="86591"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>5894</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>179181</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>8861</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>51588</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="Straight Arrow Connector 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCEDB24C-13A0-427E-B05C-175A975588C4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="26" idx="2"/>
+          <a:endCxn id="30" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15307917" y="5012565"/>
+          <a:ext cx="2967" cy="240116"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>10825</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>38749</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>607262</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>125340</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="Rectangle 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3D0CBB8-4B34-4519-8827-12E4684ECFDB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13487339" y="4371263"/>
+          <a:ext cx="596437" cy="86591"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>7837</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>90155</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>10825</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>82045</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="46" name="Straight Arrow Connector 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86BF728D-FDDE-4EDF-8C21-3E85D5A4F146}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="86" idx="1"/>
+          <a:endCxn id="37" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13485712" y="4138280"/>
+          <a:ext cx="2988" cy="172865"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>230</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>2743</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>8772</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>100444</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="93" name="Straight Arrow Connector 92">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93B42ADB-1E3D-41AB-8FFD-7A3365D68BF0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="16" idx="2"/>
+          <a:endCxn id="79" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="10429691" y="2262239"/>
+          <a:ext cx="8542" cy="283231"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>1054</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>181689</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>2831</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>51588</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="97" name="Straight Arrow Connector 96">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5828EED-FC0D-4940-810F-C6E6F0069E14}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="33" idx="2"/>
+          <a:endCxn id="30" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="17747771" y="5189868"/>
+          <a:ext cx="1777" cy="237761"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>1054</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>51588</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>2458</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>85777</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="105" name="Straight Arrow Connector 104">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B91F76A3-52F0-437B-A824-DECFCE8365D5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="30" idx="3"/>
+          <a:endCxn id="88" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17747771" y="5427629"/>
+          <a:ext cx="1404" cy="218120"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>3606</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>51503</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>590831</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>138094</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="125" name="Rectangle 124">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93C2DBBA-268E-4A8C-8ED2-30A8DFCE5C78}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4967492" y="1174909"/>
+          <a:ext cx="1797716" cy="86591"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>208672</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>37658</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>370419</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>46087</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="57" name="Diamond 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{912C65E7-B21B-5996-1CEC-AA02D8472450}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19177608" y="974756"/>
+          <a:ext cx="161747" cy="190012"/>
+        </a:xfrm>
+        <a:prstGeom prst="diamond">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>198419</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>65282</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>380672</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>65692</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="58" name="Oval 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F6C96F7-99BC-9AA2-526A-CBA9C9F3932C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19167355" y="1556856"/>
+          <a:ext cx="182253" cy="181993"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>208564</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>147375</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>370526</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>153967</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="59" name="Diamond 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D0578AF-6721-922D-F129-5ED9E1763C5B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19177500" y="1266056"/>
+          <a:ext cx="161962" cy="188175"/>
+        </a:xfrm>
+        <a:prstGeom prst="diamond">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>221056</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>95448</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>358035</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>30050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="60" name="Rectangle 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54C8A8DD-7D3E-82B1-55D6-1ECA8002C627}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19189992" y="286759"/>
+          <a:ext cx="136979" cy="125912"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>221056</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>134578</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>358035</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>69179</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="61" name="Rectangle 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE3A93C4-2A30-DD42-8AEE-1DD96D361B91}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19189992" y="517199"/>
+          <a:ext cx="136979" cy="125912"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>221978</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>167926</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>357113</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>110856</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="140" name="Rectangle 139">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7224FA34-DE0C-4322-964F-2F6A2976F10D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19190914" y="741858"/>
+          <a:ext cx="135135" cy="124513"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>402924</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>61271</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>111070</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>64228</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="52" name="TextBox 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{497228EF-9603-9039-CBAA-EE3FD526CA80}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19371860" y="252582"/>
+          <a:ext cx="927346" cy="194267"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="900" b="1" u="none"/>
+            <a:t>Phase</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>402924</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>100401</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>111070</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>103357</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="53" name="TextBox 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5C7441D-487C-666B-1586-2FE7395AA40E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19371860" y="483022"/>
+          <a:ext cx="927346" cy="194267"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="900" b="1" u="none"/>
+            <a:t>Task</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>402924</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>35531</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>111070</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>48215</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="54" name="TextBox 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{765CFE92-30BE-D736-3FF2-220373B0FB30}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19371860" y="972629"/>
+          <a:ext cx="927346" cy="194267"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="900" b="1" u="none"/>
+            <a:t>Milestone</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>402924</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>144329</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>111070</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>157013</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="55" name="TextBox 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1ABA4DE-54CF-EB72-540F-F8DDE9121B78}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19371860" y="1263010"/>
+          <a:ext cx="927346" cy="194267"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="900" b="1" u="none"/>
+            <a:t>Client</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="900" b="1" u="none" baseline="0"/>
+            <a:t> Meeting</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="900" b="1" u="none"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>402924</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>59145</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>111070</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>71829</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="56" name="TextBox 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0C43342-9B77-9B1D-8FBB-18265FF07879}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19371860" y="1550719"/>
+          <a:ext cx="927346" cy="194267"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="900" b="1" u="none"/>
+            <a:t>Deliverable</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>402924</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>133049</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>111070</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>145733</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="141" name="TextBox 140">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBE10E6C-99E4-4A61-BE6E-B7D7FB34BB16}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19371860" y="706981"/>
+          <a:ext cx="927346" cy="194267"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="900" b="1" u="none"/>
+            <a:t>Task Slack</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -5002,8 +5927,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4480739" y="221297"/>
-          <a:ext cx="928031" cy="519122"/>
+          <a:off x="4386870" y="224610"/>
+          <a:ext cx="930239" cy="524644"/>
           <a:chOff x="2292037" y="227390"/>
           <a:chExt cx="929363" cy="513219"/>
         </a:xfrm>
@@ -5139,8 +6064,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8133035" y="1188439"/>
-          <a:ext cx="927568" cy="475442"/>
+          <a:off x="8039165" y="1203900"/>
+          <a:ext cx="929777" cy="480964"/>
           <a:chOff x="2297570" y="275957"/>
           <a:chExt cx="929363" cy="464652"/>
         </a:xfrm>
@@ -5389,8 +6314,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10542873" y="1741519"/>
-          <a:ext cx="927569" cy="480964"/>
+          <a:off x="10457838" y="1762502"/>
+          <a:ext cx="929777" cy="486485"/>
           <a:chOff x="2280972" y="270533"/>
           <a:chExt cx="929363" cy="470076"/>
         </a:xfrm>
@@ -5579,8 +6504,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="12986629" y="2294425"/>
-          <a:ext cx="927569" cy="475788"/>
+          <a:off x="12910429" y="2320929"/>
+          <a:ext cx="929777" cy="477997"/>
           <a:chOff x="2297570" y="275925"/>
           <a:chExt cx="929363" cy="464684"/>
         </a:xfrm>
@@ -5890,8 +6815,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="15409975" y="3796525"/>
-          <a:ext cx="927568" cy="464744"/>
+          <a:off x="15342609" y="3840699"/>
+          <a:ext cx="929777" cy="470266"/>
           <a:chOff x="2292037" y="286711"/>
           <a:chExt cx="929363" cy="453898"/>
         </a:xfrm>
@@ -6020,8 +6945,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10942658" y="2219472"/>
-          <a:ext cx="976755" cy="402644"/>
+          <a:off x="10857623" y="2242663"/>
+          <a:ext cx="981172" cy="408166"/>
           <a:chOff x="2687847" y="373145"/>
           <a:chExt cx="980075" cy="397606"/>
         </a:xfrm>
@@ -6218,8 +7143,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="17836698" y="3783093"/>
-          <a:ext cx="927568" cy="473640"/>
+          <a:off x="17778167" y="3827267"/>
+          <a:ext cx="929777" cy="475849"/>
           <a:chOff x="2292037" y="275957"/>
           <a:chExt cx="929363" cy="464652"/>
         </a:xfrm>
@@ -6348,8 +7273,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11784778" y="2203592"/>
-          <a:ext cx="926019" cy="756418"/>
+          <a:off x="11704160" y="2226783"/>
+          <a:ext cx="928228" cy="768566"/>
           <a:chOff x="11795196" y="2962466"/>
           <a:chExt cx="927270" cy="763665"/>
         </a:xfrm>
@@ -6485,8 +7410,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="14808517" y="3417343"/>
-          <a:ext cx="926019" cy="690299"/>
+          <a:off x="14738943" y="3459308"/>
+          <a:ext cx="928227" cy="694717"/>
           <a:chOff x="11807069" y="3074625"/>
           <a:chExt cx="927270" cy="691846"/>
         </a:xfrm>
@@ -6622,8 +7547,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="15407211" y="3916402"/>
-          <a:ext cx="928031" cy="519466"/>
+          <a:off x="15339845" y="3963889"/>
+          <a:ext cx="930240" cy="521675"/>
           <a:chOff x="2292037" y="227390"/>
           <a:chExt cx="929363" cy="513219"/>
         </a:xfrm>
@@ -6759,8 +7684,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="19049939" y="3683629"/>
-          <a:ext cx="926017" cy="758350"/>
+          <a:off x="18995825" y="3724490"/>
+          <a:ext cx="928226" cy="767185"/>
           <a:chOff x="11795196" y="2962466"/>
           <a:chExt cx="927270" cy="763665"/>
         </a:xfrm>
@@ -6901,8 +7826,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="19602174" y="39715"/>
-          <a:ext cx="1327335" cy="1442199"/>
+          <a:off x="19550269" y="39715"/>
+          <a:ext cx="1331753" cy="1459869"/>
           <a:chOff x="19685000" y="2401990"/>
           <a:chExt cx="1330892" cy="1453476"/>
         </a:xfrm>
@@ -7552,8 +8477,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5695307" y="262679"/>
-          <a:ext cx="927568" cy="478283"/>
+          <a:off x="5605855" y="265992"/>
+          <a:ext cx="929777" cy="480491"/>
           <a:chOff x="2297570" y="275957"/>
           <a:chExt cx="929363" cy="464652"/>
         </a:xfrm>
@@ -7976,345 +8901,345 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B84DCD8-6D76-4FB6-B23A-530AFABD7029}">
-  <dimension ref="A1:AB34"/>
+  <dimension ref="A1:AB47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q25" sqref="Q25"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.81640625" customWidth="1"/>
-    <col min="2" max="2" width="21.81640625" customWidth="1"/>
-    <col min="3" max="3" width="28.26953125" customWidth="1"/>
-    <col min="7" max="8" width="8.7265625" customWidth="1"/>
+    <col min="1" max="1" width="3.77734375" customWidth="1"/>
+    <col min="2" max="2" width="21.77734375" customWidth="1"/>
+    <col min="3" max="3" width="29" customWidth="1"/>
+    <col min="7" max="8" width="8.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="72"/>
-      <c r="B1" s="73"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74"/>
-      <c r="N1" s="74"/>
-      <c r="O1" s="74"/>
-      <c r="P1" s="74"/>
-      <c r="Q1" s="74"/>
-      <c r="R1" s="74"/>
-      <c r="S1" s="74"/>
-      <c r="T1" s="74"/>
-      <c r="U1" s="74"/>
-      <c r="V1" s="74"/>
-      <c r="W1" s="74"/>
-      <c r="X1" s="74"/>
-      <c r="Y1" s="74"/>
-      <c r="Z1" s="74"/>
-      <c r="AA1" s="74"/>
-      <c r="AB1" s="74"/>
+    <row r="1" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="63"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+      <c r="M1" s="65"/>
+      <c r="N1" s="65"/>
+      <c r="O1" s="65"/>
+      <c r="P1" s="65"/>
+      <c r="Q1" s="65"/>
+      <c r="R1" s="65"/>
+      <c r="S1" s="65"/>
+      <c r="T1" s="65"/>
+      <c r="U1" s="65"/>
+      <c r="V1" s="65"/>
+      <c r="W1" s="65"/>
+      <c r="X1" s="65"/>
+      <c r="Y1" s="65"/>
+      <c r="Z1" s="65"/>
+      <c r="AA1" s="65"/>
+      <c r="AB1" s="65"/>
     </row>
-    <row r="2" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="85"/>
-      <c r="B2" s="75"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="76" t="s">
+    <row r="2" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="70"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="77" t="s">
+      <c r="E2" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="78" t="s">
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="92"/>
+      <c r="I2" s="96" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="79"/>
-      <c r="K2" s="79"/>
-      <c r="L2" s="80"/>
-      <c r="M2" s="77" t="s">
+      <c r="J2" s="97"/>
+      <c r="K2" s="97"/>
+      <c r="L2" s="98"/>
+      <c r="M2" s="92" t="s">
         <v>16</v>
       </c>
-      <c r="N2" s="77"/>
-      <c r="O2" s="77"/>
-      <c r="P2" s="77"/>
-      <c r="Q2" s="77" t="s">
+      <c r="N2" s="92"/>
+      <c r="O2" s="92"/>
+      <c r="P2" s="92"/>
+      <c r="Q2" s="92" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="77"/>
-      <c r="S2" s="77"/>
-      <c r="T2" s="77"/>
-      <c r="U2" s="77" t="s">
+      <c r="R2" s="92"/>
+      <c r="S2" s="92"/>
+      <c r="T2" s="92"/>
+      <c r="U2" s="92" t="s">
         <v>18</v>
       </c>
-      <c r="V2" s="77"/>
-      <c r="W2" s="77"/>
-      <c r="X2" s="77"/>
-      <c r="Y2" s="77" t="s">
+      <c r="V2" s="92"/>
+      <c r="W2" s="92"/>
+      <c r="X2" s="92"/>
+      <c r="Y2" s="92" t="s">
         <v>19</v>
       </c>
-      <c r="Z2" s="77"/>
-      <c r="AA2" s="77"/>
-      <c r="AB2" s="81"/>
+      <c r="Z2" s="92"/>
+      <c r="AA2" s="92"/>
+      <c r="AB2" s="93"/>
     </row>
-    <row r="3" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="90" t="s">
+    <row r="3" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="94" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="91"/>
-      <c r="C3" s="92" t="s">
+      <c r="B3" s="95"/>
+      <c r="C3" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="82" t="s">
+      <c r="D3" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="83" t="s">
+      <c r="E3" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="83" t="s">
+      <c r="F3" s="68" t="s">
         <v>32</v>
       </c>
-      <c r="G3" s="83" t="s">
+      <c r="G3" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="H3" s="83" t="s">
+      <c r="H3" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="I3" s="83" t="s">
+      <c r="I3" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="J3" s="83" t="s">
+      <c r="J3" s="68" t="s">
         <v>32</v>
       </c>
-      <c r="K3" s="83" t="s">
+      <c r="K3" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="L3" s="83" t="s">
+      <c r="L3" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="M3" s="83" t="s">
+      <c r="M3" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="N3" s="83" t="s">
+      <c r="N3" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="O3" s="83" t="s">
+      <c r="O3" s="68" t="s">
         <v>37</v>
       </c>
-      <c r="P3" s="83" t="s">
+      <c r="P3" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="Q3" s="83" t="s">
+      <c r="Q3" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="R3" s="83" t="s">
+      <c r="R3" s="68" t="s">
         <v>40</v>
       </c>
-      <c r="S3" s="83" t="s">
+      <c r="S3" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="T3" s="83" t="s">
+      <c r="T3" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="U3" s="83" t="s">
+      <c r="U3" s="68" t="s">
         <v>43</v>
       </c>
-      <c r="V3" s="83" t="s">
+      <c r="V3" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="W3" s="83" t="s">
+      <c r="W3" s="68" t="s">
         <v>45</v>
       </c>
-      <c r="X3" s="83" t="s">
+      <c r="X3" s="68" t="s">
         <v>46</v>
       </c>
-      <c r="Y3" s="83" t="s">
+      <c r="Y3" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="Z3" s="83" t="s">
+      <c r="Z3" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="AA3" s="83" t="s">
+      <c r="AA3" s="68" t="s">
         <v>37</v>
       </c>
-      <c r="AB3" s="84" t="s">
+      <c r="AB3" s="69" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A4" s="106">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A4" s="89">
         <v>1</v>
       </c>
-      <c r="B4" s="89" t="s">
+      <c r="B4" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="73"/>
-      <c r="D4" s="99"/>
-      <c r="E4" s="100"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="101"/>
-      <c r="I4" s="100"/>
-      <c r="J4" s="73"/>
-      <c r="K4" s="73"/>
-      <c r="L4" s="101"/>
-      <c r="M4" s="100"/>
-      <c r="N4" s="73"/>
-      <c r="O4" s="73"/>
-      <c r="P4" s="101"/>
-      <c r="Q4" s="100"/>
-      <c r="R4" s="73"/>
-      <c r="S4" s="73"/>
-      <c r="T4" s="101"/>
-      <c r="U4" s="100"/>
-      <c r="V4" s="73"/>
-      <c r="W4" s="73"/>
-      <c r="X4" s="101"/>
-      <c r="Y4" s="73"/>
-      <c r="Z4" s="73"/>
-      <c r="AA4" s="73"/>
-      <c r="AB4" s="89"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="84"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="64"/>
+      <c r="K4" s="64"/>
+      <c r="L4" s="84"/>
+      <c r="M4" s="83"/>
+      <c r="N4" s="64"/>
+      <c r="O4" s="64"/>
+      <c r="P4" s="84"/>
+      <c r="Q4" s="83"/>
+      <c r="R4" s="64"/>
+      <c r="S4" s="64"/>
+      <c r="T4" s="84"/>
+      <c r="U4" s="83"/>
+      <c r="V4" s="64"/>
+      <c r="W4" s="64"/>
+      <c r="X4" s="84"/>
+      <c r="Y4" s="64"/>
+      <c r="Z4" s="64"/>
+      <c r="AA4" s="64"/>
+      <c r="AB4" s="74"/>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A5" s="107"/>
-      <c r="B5" s="86"/>
-      <c r="C5" s="69" t="s">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A5" s="90"/>
+      <c r="B5" s="71"/>
+      <c r="C5" s="61" t="s">
         <v>0</v>
       </c>
       <c r="D5" s="55"/>
       <c r="E5" s="41"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="70"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
       <c r="H5" s="42"/>
       <c r="I5" s="41"/>
-      <c r="J5" s="70"/>
-      <c r="K5" s="70"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
       <c r="L5" s="42"/>
       <c r="M5" s="41"/>
-      <c r="N5" s="70"/>
-      <c r="O5" s="70"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="19"/>
       <c r="P5" s="42"/>
       <c r="Q5" s="41"/>
-      <c r="R5" s="70"/>
-      <c r="S5" s="70"/>
+      <c r="R5" s="19"/>
+      <c r="S5" s="19"/>
       <c r="T5" s="42"/>
       <c r="U5" s="41"/>
-      <c r="V5" s="70"/>
-      <c r="W5" s="70"/>
+      <c r="V5" s="19"/>
+      <c r="W5" s="19"/>
       <c r="X5" s="42"/>
-      <c r="Y5" s="70"/>
-      <c r="Z5" s="70"/>
-      <c r="AA5" s="70"/>
+      <c r="Y5" s="19"/>
+      <c r="Z5" s="19"/>
+      <c r="AA5" s="19"/>
       <c r="AB5" s="20"/>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A6" s="107"/>
-      <c r="B6" s="86"/>
-      <c r="C6" s="69" t="s">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A6" s="90"/>
+      <c r="B6" s="71"/>
+      <c r="C6" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="98"/>
-      <c r="E6" s="96"/>
-      <c r="F6" s="75"/>
-      <c r="G6" s="75"/>
-      <c r="H6" s="97"/>
-      <c r="I6" s="96"/>
-      <c r="J6" s="75"/>
-      <c r="K6" s="75"/>
-      <c r="L6" s="97"/>
-      <c r="M6" s="96"/>
-      <c r="N6" s="75"/>
-      <c r="O6" s="75"/>
-      <c r="P6" s="97"/>
-      <c r="Q6" s="96"/>
-      <c r="R6" s="75"/>
-      <c r="S6" s="75"/>
-      <c r="T6" s="97"/>
-      <c r="U6" s="96"/>
-      <c r="V6" s="75"/>
-      <c r="W6" s="75"/>
-      <c r="X6" s="97"/>
-      <c r="Y6" s="75"/>
-      <c r="Z6" s="75"/>
-      <c r="AA6" s="75"/>
-      <c r="AB6" s="86"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="80"/>
+      <c r="I6" s="79"/>
+      <c r="J6" s="65"/>
+      <c r="K6" s="65"/>
+      <c r="L6" s="80"/>
+      <c r="M6" s="79"/>
+      <c r="N6" s="65"/>
+      <c r="O6" s="65"/>
+      <c r="P6" s="80"/>
+      <c r="Q6" s="79"/>
+      <c r="R6" s="65"/>
+      <c r="S6" s="65"/>
+      <c r="T6" s="80"/>
+      <c r="U6" s="79"/>
+      <c r="V6" s="65"/>
+      <c r="W6" s="65"/>
+      <c r="X6" s="80"/>
+      <c r="Y6" s="65"/>
+      <c r="Z6" s="65"/>
+      <c r="AA6" s="65"/>
+      <c r="AB6" s="71"/>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A7" s="107"/>
-      <c r="B7" s="86"/>
-      <c r="C7" s="69" t="s">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A7" s="90"/>
+      <c r="B7" s="71"/>
+      <c r="C7" s="61" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="55"/>
       <c r="E7" s="41"/>
-      <c r="F7" s="70"/>
-      <c r="G7" s="70"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
       <c r="H7" s="42"/>
       <c r="I7" s="41"/>
-      <c r="J7" s="70"/>
-      <c r="K7" s="70"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
       <c r="L7" s="42"/>
       <c r="M7" s="41"/>
-      <c r="N7" s="70"/>
-      <c r="O7" s="70"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19"/>
       <c r="P7" s="42"/>
       <c r="Q7" s="41"/>
-      <c r="R7" s="70"/>
-      <c r="S7" s="70"/>
+      <c r="R7" s="19"/>
+      <c r="S7" s="19"/>
       <c r="T7" s="42"/>
       <c r="U7" s="41"/>
-      <c r="V7" s="70"/>
-      <c r="W7" s="70"/>
+      <c r="V7" s="19"/>
+      <c r="W7" s="19"/>
       <c r="X7" s="42"/>
-      <c r="Y7" s="70"/>
-      <c r="Z7" s="70"/>
-      <c r="AA7" s="70"/>
+      <c r="Y7" s="19"/>
+      <c r="Z7" s="19"/>
+      <c r="AA7" s="19"/>
       <c r="AB7" s="20"/>
     </row>
-    <row r="8" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="108"/>
-      <c r="B8" s="93"/>
-      <c r="C8" s="94" t="s">
+    <row r="8" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="91"/>
+      <c r="B8" s="76"/>
+      <c r="C8" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="102"/>
-      <c r="E8" s="103"/>
-      <c r="F8" s="87"/>
-      <c r="G8" s="87"/>
-      <c r="H8" s="104"/>
-      <c r="I8" s="103"/>
-      <c r="J8" s="87"/>
-      <c r="K8" s="87"/>
-      <c r="L8" s="104"/>
-      <c r="M8" s="103"/>
-      <c r="N8" s="87"/>
-      <c r="O8" s="87"/>
-      <c r="P8" s="104"/>
-      <c r="Q8" s="103"/>
-      <c r="R8" s="87"/>
-      <c r="S8" s="87"/>
-      <c r="T8" s="104"/>
-      <c r="U8" s="103"/>
-      <c r="V8" s="87"/>
-      <c r="W8" s="87"/>
-      <c r="X8" s="104"/>
-      <c r="Y8" s="87"/>
-      <c r="Z8" s="87"/>
-      <c r="AA8" s="87"/>
-      <c r="AB8" s="93"/>
+      <c r="D8" s="85"/>
+      <c r="E8" s="86"/>
+      <c r="F8" s="72"/>
+      <c r="G8" s="72"/>
+      <c r="H8" s="87"/>
+      <c r="I8" s="86"/>
+      <c r="J8" s="72"/>
+      <c r="K8" s="72"/>
+      <c r="L8" s="87"/>
+      <c r="M8" s="86"/>
+      <c r="N8" s="72"/>
+      <c r="O8" s="72"/>
+      <c r="P8" s="87"/>
+      <c r="Q8" s="86"/>
+      <c r="R8" s="72"/>
+      <c r="S8" s="72"/>
+      <c r="T8" s="87"/>
+      <c r="U8" s="86"/>
+      <c r="V8" s="72"/>
+      <c r="W8" s="72"/>
+      <c r="X8" s="87"/>
+      <c r="Y8" s="72"/>
+      <c r="Z8" s="72"/>
+      <c r="AA8" s="72"/>
+      <c r="AB8" s="76"/>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A9" s="106">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A9" s="89">
         <v>2</v>
       </c>
-      <c r="B9" s="89" t="s">
+      <c r="B9" s="74" t="s">
         <v>23</v>
       </c>
       <c r="C9" s="15"/>
@@ -8344,42 +9269,42 @@
       <c r="AA9" s="29"/>
       <c r="AB9" s="31"/>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A10" s="107"/>
-      <c r="B10" s="86"/>
-      <c r="C10" s="69" t="s">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A10" s="90"/>
+      <c r="B10" s="71"/>
+      <c r="C10" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="98"/>
-      <c r="E10" s="96"/>
-      <c r="F10" s="75"/>
-      <c r="G10" s="75"/>
-      <c r="H10" s="97"/>
-      <c r="I10" s="96"/>
-      <c r="J10" s="75"/>
-      <c r="K10" s="75"/>
-      <c r="L10" s="97"/>
-      <c r="M10" s="96"/>
-      <c r="N10" s="75"/>
-      <c r="O10" s="75"/>
-      <c r="P10" s="97"/>
-      <c r="Q10" s="96"/>
-      <c r="R10" s="75"/>
-      <c r="S10" s="75"/>
-      <c r="T10" s="97"/>
-      <c r="U10" s="96"/>
-      <c r="V10" s="75"/>
-      <c r="W10" s="75"/>
-      <c r="X10" s="97"/>
-      <c r="Y10" s="75"/>
-      <c r="Z10" s="75"/>
-      <c r="AA10" s="75"/>
-      <c r="AB10" s="86"/>
+      <c r="D10" s="81"/>
+      <c r="E10" s="79"/>
+      <c r="F10" s="65"/>
+      <c r="G10" s="65"/>
+      <c r="H10" s="80"/>
+      <c r="I10" s="79"/>
+      <c r="J10" s="65"/>
+      <c r="K10" s="65"/>
+      <c r="L10" s="80"/>
+      <c r="M10" s="79"/>
+      <c r="N10" s="65"/>
+      <c r="O10" s="65"/>
+      <c r="P10" s="80"/>
+      <c r="Q10" s="79"/>
+      <c r="R10" s="65"/>
+      <c r="S10" s="65"/>
+      <c r="T10" s="80"/>
+      <c r="U10" s="79"/>
+      <c r="V10" s="65"/>
+      <c r="W10" s="65"/>
+      <c r="X10" s="80"/>
+      <c r="Y10" s="65"/>
+      <c r="Z10" s="65"/>
+      <c r="AA10" s="65"/>
+      <c r="AB10" s="71"/>
     </row>
-    <row r="11" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="108"/>
-      <c r="B11" s="93"/>
-      <c r="C11" s="94" t="s">
+    <row r="11" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="91"/>
+      <c r="B11" s="76"/>
+      <c r="C11" s="77" t="s">
         <v>5</v>
       </c>
       <c r="D11" s="59"/>
@@ -8408,108 +9333,108 @@
       <c r="AA11" s="32"/>
       <c r="AB11" s="34"/>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A12" s="106">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A12" s="89">
         <v>3</v>
       </c>
-      <c r="B12" s="89" t="s">
+      <c r="B12" s="74" t="s">
         <v>24</v>
       </c>
       <c r="C12" s="15"/>
-      <c r="D12" s="99"/>
-      <c r="E12" s="100"/>
-      <c r="F12" s="73"/>
-      <c r="G12" s="73"/>
-      <c r="H12" s="101"/>
-      <c r="I12" s="100"/>
-      <c r="J12" s="73"/>
-      <c r="K12" s="73"/>
-      <c r="L12" s="101"/>
-      <c r="M12" s="100"/>
-      <c r="N12" s="73"/>
-      <c r="O12" s="73"/>
-      <c r="P12" s="101"/>
-      <c r="Q12" s="100"/>
-      <c r="R12" s="73"/>
-      <c r="S12" s="73"/>
-      <c r="T12" s="101"/>
-      <c r="U12" s="100"/>
-      <c r="V12" s="73"/>
-      <c r="W12" s="73"/>
-      <c r="X12" s="101"/>
-      <c r="Y12" s="73"/>
-      <c r="Z12" s="73"/>
-      <c r="AA12" s="73"/>
-      <c r="AB12" s="89"/>
+      <c r="D12" s="82"/>
+      <c r="E12" s="83"/>
+      <c r="F12" s="64"/>
+      <c r="G12" s="64"/>
+      <c r="H12" s="84"/>
+      <c r="I12" s="83"/>
+      <c r="J12" s="64"/>
+      <c r="K12" s="64"/>
+      <c r="L12" s="84"/>
+      <c r="M12" s="83"/>
+      <c r="N12" s="64"/>
+      <c r="O12" s="64"/>
+      <c r="P12" s="84"/>
+      <c r="Q12" s="83"/>
+      <c r="R12" s="64"/>
+      <c r="S12" s="64"/>
+      <c r="T12" s="84"/>
+      <c r="U12" s="83"/>
+      <c r="V12" s="64"/>
+      <c r="W12" s="64"/>
+      <c r="X12" s="84"/>
+      <c r="Y12" s="64"/>
+      <c r="Z12" s="64"/>
+      <c r="AA12" s="64"/>
+      <c r="AB12" s="74"/>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A13" s="107"/>
-      <c r="B13" s="86"/>
-      <c r="C13" s="69" t="s">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A13" s="90"/>
+      <c r="B13" s="71"/>
+      <c r="C13" s="61" t="s">
         <v>6</v>
       </c>
       <c r="D13" s="55"/>
       <c r="E13" s="41"/>
-      <c r="F13" s="70"/>
-      <c r="G13" s="70"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
       <c r="H13" s="42"/>
       <c r="I13" s="41"/>
-      <c r="J13" s="70"/>
-      <c r="K13" s="70"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
       <c r="L13" s="42"/>
       <c r="M13" s="41"/>
-      <c r="N13" s="70"/>
-      <c r="O13" s="70"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="19"/>
       <c r="P13" s="42"/>
       <c r="Q13" s="41"/>
-      <c r="R13" s="70"/>
-      <c r="S13" s="70"/>
+      <c r="R13" s="19"/>
+      <c r="S13" s="19"/>
       <c r="T13" s="42"/>
       <c r="U13" s="41"/>
-      <c r="V13" s="70"/>
-      <c r="W13" s="70"/>
+      <c r="V13" s="19"/>
+      <c r="W13" s="19"/>
       <c r="X13" s="42"/>
-      <c r="Y13" s="70"/>
-      <c r="Z13" s="70"/>
-      <c r="AA13" s="70"/>
+      <c r="Y13" s="19"/>
+      <c r="Z13" s="19"/>
+      <c r="AA13" s="19"/>
       <c r="AB13" s="20"/>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A14" s="107"/>
-      <c r="B14" s="86"/>
-      <c r="C14" s="69" t="s">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A14" s="90"/>
+      <c r="B14" s="71"/>
+      <c r="C14" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="98"/>
-      <c r="E14" s="96"/>
-      <c r="F14" s="75"/>
-      <c r="G14" s="75"/>
-      <c r="H14" s="97"/>
-      <c r="I14" s="96"/>
-      <c r="J14" s="75"/>
-      <c r="K14" s="75"/>
-      <c r="L14" s="97"/>
-      <c r="M14" s="96"/>
-      <c r="N14" s="75"/>
-      <c r="O14" s="75"/>
-      <c r="P14" s="97"/>
-      <c r="Q14" s="96"/>
-      <c r="R14" s="75"/>
-      <c r="S14" s="75"/>
-      <c r="T14" s="97"/>
-      <c r="U14" s="96"/>
-      <c r="V14" s="75"/>
-      <c r="W14" s="75"/>
-      <c r="X14" s="97"/>
-      <c r="Y14" s="75"/>
-      <c r="Z14" s="75"/>
-      <c r="AA14" s="75"/>
-      <c r="AB14" s="86"/>
+      <c r="D14" s="81"/>
+      <c r="E14" s="79"/>
+      <c r="F14" s="65"/>
+      <c r="G14" s="65"/>
+      <c r="H14" s="80"/>
+      <c r="I14" s="79"/>
+      <c r="J14" s="65"/>
+      <c r="K14" s="65"/>
+      <c r="L14" s="80"/>
+      <c r="M14" s="79"/>
+      <c r="N14" s="65"/>
+      <c r="O14" s="65"/>
+      <c r="P14" s="80"/>
+      <c r="Q14" s="79"/>
+      <c r="R14" s="65"/>
+      <c r="S14" s="65"/>
+      <c r="T14" s="80"/>
+      <c r="U14" s="79"/>
+      <c r="V14" s="65"/>
+      <c r="W14" s="65"/>
+      <c r="X14" s="80"/>
+      <c r="Y14" s="65"/>
+      <c r="Z14" s="65"/>
+      <c r="AA14" s="65"/>
+      <c r="AB14" s="71"/>
     </row>
-    <row r="15" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="108"/>
-      <c r="B15" s="93"/>
-      <c r="C15" s="95" t="s">
+    <row r="15" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="91"/>
+      <c r="B15" s="76"/>
+      <c r="C15" s="78" t="s">
         <v>48</v>
       </c>
       <c r="D15" s="59"/>
@@ -8538,172 +9463,172 @@
       <c r="AA15" s="32"/>
       <c r="AB15" s="34"/>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A16" s="106">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A16" s="89">
         <v>4</v>
       </c>
-      <c r="B16" s="89" t="s">
+      <c r="B16" s="74" t="s">
         <v>25</v>
       </c>
       <c r="C16" s="15"/>
-      <c r="D16" s="99"/>
-      <c r="E16" s="100"/>
-      <c r="F16" s="73"/>
-      <c r="G16" s="73"/>
-      <c r="H16" s="101"/>
-      <c r="I16" s="100"/>
-      <c r="J16" s="73"/>
-      <c r="K16" s="73"/>
-      <c r="L16" s="101"/>
-      <c r="M16" s="100"/>
-      <c r="N16" s="73"/>
-      <c r="O16" s="73"/>
-      <c r="P16" s="101"/>
-      <c r="Q16" s="100"/>
-      <c r="R16" s="73"/>
-      <c r="S16" s="73"/>
-      <c r="T16" s="101"/>
-      <c r="U16" s="100"/>
-      <c r="V16" s="73"/>
-      <c r="W16" s="73"/>
-      <c r="X16" s="101"/>
-      <c r="Y16" s="73"/>
-      <c r="Z16" s="73"/>
-      <c r="AA16" s="73"/>
-      <c r="AB16" s="89"/>
+      <c r="D16" s="82"/>
+      <c r="E16" s="83"/>
+      <c r="F16" s="64"/>
+      <c r="G16" s="64"/>
+      <c r="H16" s="84"/>
+      <c r="I16" s="83"/>
+      <c r="J16" s="64"/>
+      <c r="K16" s="64"/>
+      <c r="L16" s="84"/>
+      <c r="M16" s="83"/>
+      <c r="N16" s="64"/>
+      <c r="O16" s="64"/>
+      <c r="P16" s="84"/>
+      <c r="Q16" s="83"/>
+      <c r="R16" s="64"/>
+      <c r="S16" s="64"/>
+      <c r="T16" s="84"/>
+      <c r="U16" s="83"/>
+      <c r="V16" s="64"/>
+      <c r="W16" s="64"/>
+      <c r="X16" s="84"/>
+      <c r="Y16" s="64"/>
+      <c r="Z16" s="64"/>
+      <c r="AA16" s="64"/>
+      <c r="AB16" s="74"/>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A17" s="107"/>
-      <c r="B17" s="86"/>
-      <c r="C17" s="69" t="s">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A17" s="90"/>
+      <c r="B17" s="71"/>
+      <c r="C17" s="61" t="s">
         <v>8</v>
       </c>
       <c r="D17" s="55"/>
       <c r="E17" s="41"/>
-      <c r="F17" s="70"/>
-      <c r="G17" s="70"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
       <c r="H17" s="42"/>
       <c r="I17" s="41"/>
-      <c r="J17" s="70"/>
-      <c r="K17" s="70"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
       <c r="L17" s="42"/>
       <c r="M17" s="41"/>
-      <c r="N17" s="70"/>
-      <c r="O17" s="70"/>
+      <c r="N17" s="19"/>
+      <c r="O17" s="19"/>
       <c r="P17" s="42"/>
       <c r="Q17" s="41"/>
-      <c r="R17" s="70"/>
-      <c r="S17" s="70"/>
+      <c r="R17" s="19"/>
+      <c r="S17" s="19"/>
       <c r="T17" s="42"/>
       <c r="U17" s="41"/>
-      <c r="V17" s="70"/>
-      <c r="W17" s="70"/>
+      <c r="V17" s="19"/>
+      <c r="W17" s="19"/>
       <c r="X17" s="42"/>
-      <c r="Y17" s="70"/>
-      <c r="Z17" s="70"/>
-      <c r="AA17" s="70"/>
+      <c r="Y17" s="19"/>
+      <c r="Z17" s="19"/>
+      <c r="AA17" s="19"/>
       <c r="AB17" s="20"/>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A18" s="107"/>
-      <c r="B18" s="86"/>
-      <c r="C18" s="71" t="s">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A18" s="90"/>
+      <c r="B18" s="71"/>
+      <c r="C18" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="D18" s="98"/>
-      <c r="E18" s="96"/>
-      <c r="F18" s="75"/>
-      <c r="G18" s="75"/>
-      <c r="H18" s="97"/>
-      <c r="I18" s="96"/>
-      <c r="J18" s="75"/>
-      <c r="K18" s="75"/>
-      <c r="L18" s="97"/>
-      <c r="M18" s="96"/>
-      <c r="N18" s="75"/>
-      <c r="O18" s="75"/>
-      <c r="P18" s="97"/>
-      <c r="Q18" s="96"/>
-      <c r="R18" s="75"/>
-      <c r="S18" s="75"/>
-      <c r="T18" s="97"/>
-      <c r="U18" s="96"/>
-      <c r="V18" s="75"/>
-      <c r="W18" s="75"/>
-      <c r="X18" s="97"/>
-      <c r="Y18" s="75"/>
-      <c r="Z18" s="75"/>
-      <c r="AA18" s="75"/>
-      <c r="AB18" s="86"/>
+      <c r="D18" s="81"/>
+      <c r="E18" s="79"/>
+      <c r="F18" s="65"/>
+      <c r="G18" s="65"/>
+      <c r="H18" s="80"/>
+      <c r="I18" s="79"/>
+      <c r="J18" s="65"/>
+      <c r="K18" s="65"/>
+      <c r="L18" s="80"/>
+      <c r="M18" s="79"/>
+      <c r="N18" s="65"/>
+      <c r="O18" s="65"/>
+      <c r="P18" s="80"/>
+      <c r="Q18" s="79"/>
+      <c r="R18" s="65"/>
+      <c r="S18" s="65"/>
+      <c r="T18" s="80"/>
+      <c r="U18" s="79"/>
+      <c r="V18" s="65"/>
+      <c r="W18" s="65"/>
+      <c r="X18" s="80"/>
+      <c r="Y18" s="65"/>
+      <c r="Z18" s="65"/>
+      <c r="AA18" s="65"/>
+      <c r="AB18" s="71"/>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A19" s="107"/>
-      <c r="B19" s="86"/>
-      <c r="C19" s="69" t="s">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A19" s="90"/>
+      <c r="B19" s="71"/>
+      <c r="C19" s="61" t="s">
         <v>9</v>
       </c>
       <c r="D19" s="55"/>
       <c r="E19" s="41"/>
-      <c r="F19" s="70"/>
-      <c r="G19" s="70"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
       <c r="H19" s="42"/>
       <c r="I19" s="41"/>
-      <c r="J19" s="70"/>
-      <c r="K19" s="70"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="19"/>
       <c r="L19" s="42"/>
       <c r="M19" s="41"/>
-      <c r="N19" s="70"/>
-      <c r="O19" s="70"/>
+      <c r="N19" s="19"/>
+      <c r="O19" s="19"/>
       <c r="P19" s="42"/>
       <c r="Q19" s="41"/>
-      <c r="R19" s="70"/>
-      <c r="S19" s="70"/>
+      <c r="R19" s="19"/>
+      <c r="S19" s="19"/>
       <c r="T19" s="42"/>
       <c r="U19" s="41"/>
-      <c r="V19" s="70"/>
-      <c r="W19" s="70"/>
+      <c r="V19" s="19"/>
+      <c r="W19" s="19"/>
       <c r="X19" s="42"/>
-      <c r="Y19" s="70"/>
-      <c r="Z19" s="70"/>
-      <c r="AA19" s="70"/>
+      <c r="Y19" s="19"/>
+      <c r="Z19" s="19"/>
+      <c r="AA19" s="19"/>
       <c r="AB19" s="20"/>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A20" s="107"/>
-      <c r="B20" s="86"/>
-      <c r="C20" s="69" t="s">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A20" s="90"/>
+      <c r="B20" s="71"/>
+      <c r="C20" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="D20" s="98"/>
-      <c r="E20" s="96"/>
-      <c r="F20" s="75"/>
-      <c r="G20" s="75"/>
-      <c r="H20" s="97"/>
-      <c r="I20" s="96"/>
-      <c r="J20" s="75"/>
-      <c r="K20" s="75"/>
-      <c r="L20" s="97"/>
-      <c r="M20" s="96"/>
-      <c r="N20" s="75"/>
-      <c r="O20" s="75"/>
-      <c r="P20" s="97"/>
-      <c r="Q20" s="96"/>
-      <c r="R20" s="75"/>
-      <c r="S20" s="75"/>
-      <c r="T20" s="97"/>
-      <c r="U20" s="96"/>
-      <c r="V20" s="75"/>
-      <c r="W20" s="75"/>
-      <c r="X20" s="97"/>
-      <c r="Y20" s="75"/>
-      <c r="Z20" s="75"/>
-      <c r="AA20" s="75"/>
-      <c r="AB20" s="86"/>
+      <c r="D20" s="81"/>
+      <c r="E20" s="79"/>
+      <c r="F20" s="65"/>
+      <c r="G20" s="65"/>
+      <c r="H20" s="80"/>
+      <c r="I20" s="79"/>
+      <c r="J20" s="65"/>
+      <c r="K20" s="65"/>
+      <c r="L20" s="80"/>
+      <c r="M20" s="79"/>
+      <c r="N20" s="65"/>
+      <c r="O20" s="65"/>
+      <c r="P20" s="80"/>
+      <c r="Q20" s="79"/>
+      <c r="R20" s="65"/>
+      <c r="S20" s="65"/>
+      <c r="T20" s="80"/>
+      <c r="U20" s="79"/>
+      <c r="V20" s="65"/>
+      <c r="W20" s="65"/>
+      <c r="X20" s="80"/>
+      <c r="Y20" s="65"/>
+      <c r="Z20" s="65"/>
+      <c r="AA20" s="65"/>
+      <c r="AB20" s="71"/>
     </row>
-    <row r="21" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="107"/>
-      <c r="B21" s="86"/>
-      <c r="C21" s="69" t="s">
+    <row r="21" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="90"/>
+      <c r="B21" s="71"/>
+      <c r="C21" s="61" t="s">
         <v>11</v>
       </c>
       <c r="D21" s="59"/>
@@ -8732,415 +9657,524 @@
       <c r="AA21" s="32"/>
       <c r="AB21" s="34"/>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A22" s="106">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A22" s="89">
         <v>5</v>
       </c>
-      <c r="B22" s="89" t="s">
+      <c r="B22" s="74" t="s">
         <v>26</v>
       </c>
       <c r="C22" s="15"/>
-      <c r="D22" s="99"/>
-      <c r="E22" s="100"/>
-      <c r="F22" s="73"/>
-      <c r="G22" s="73"/>
-      <c r="H22" s="101"/>
-      <c r="I22" s="100"/>
-      <c r="J22" s="73"/>
-      <c r="K22" s="73"/>
-      <c r="L22" s="101"/>
-      <c r="M22" s="100"/>
-      <c r="N22" s="73"/>
-      <c r="O22" s="73"/>
-      <c r="P22" s="101"/>
-      <c r="Q22" s="100"/>
-      <c r="R22" s="73"/>
-      <c r="S22" s="73"/>
-      <c r="T22" s="101"/>
-      <c r="U22" s="100"/>
-      <c r="V22" s="73"/>
-      <c r="W22" s="73"/>
-      <c r="X22" s="101"/>
-      <c r="Y22" s="73"/>
-      <c r="Z22" s="73"/>
-      <c r="AA22" s="73"/>
-      <c r="AB22" s="89"/>
+      <c r="D22" s="82"/>
+      <c r="E22" s="83"/>
+      <c r="F22" s="64"/>
+      <c r="G22" s="64"/>
+      <c r="H22" s="84"/>
+      <c r="I22" s="83"/>
+      <c r="J22" s="64"/>
+      <c r="K22" s="64"/>
+      <c r="L22" s="84"/>
+      <c r="M22" s="83"/>
+      <c r="N22" s="64"/>
+      <c r="O22" s="64"/>
+      <c r="P22" s="84"/>
+      <c r="Q22" s="83"/>
+      <c r="R22" s="64"/>
+      <c r="S22" s="64"/>
+      <c r="T22" s="84"/>
+      <c r="U22" s="83"/>
+      <c r="V22" s="64"/>
+      <c r="W22" s="64"/>
+      <c r="X22" s="84"/>
+      <c r="Y22" s="64"/>
+      <c r="Z22" s="64"/>
+      <c r="AA22" s="64"/>
+      <c r="AB22" s="74"/>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A23" s="107"/>
-      <c r="B23" s="86"/>
-      <c r="C23" s="69" t="s">
-        <v>12</v>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A23" s="90"/>
+      <c r="B23" s="71"/>
+      <c r="C23" s="61" t="s">
+        <v>53</v>
       </c>
       <c r="D23" s="55"/>
       <c r="E23" s="41"/>
-      <c r="F23" s="70"/>
-      <c r="G23" s="70"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
       <c r="H23" s="42"/>
       <c r="I23" s="41"/>
-      <c r="J23" s="70"/>
-      <c r="K23" s="70"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="19"/>
       <c r="L23" s="42"/>
       <c r="M23" s="41"/>
-      <c r="N23" s="70"/>
-      <c r="O23" s="70"/>
+      <c r="N23" s="19"/>
+      <c r="O23" s="19"/>
       <c r="P23" s="42"/>
       <c r="Q23" s="41"/>
-      <c r="R23" s="70"/>
-      <c r="S23" s="70"/>
+      <c r="R23" s="19"/>
+      <c r="S23" s="19"/>
       <c r="T23" s="42"/>
       <c r="U23" s="41"/>
-      <c r="V23" s="70"/>
-      <c r="W23" s="70"/>
+      <c r="V23" s="19"/>
+      <c r="W23" s="19"/>
       <c r="X23" s="42"/>
-      <c r="Y23" s="70"/>
-      <c r="Z23" s="70"/>
-      <c r="AA23" s="70"/>
+      <c r="Y23" s="19"/>
+      <c r="Z23" s="19"/>
+      <c r="AA23" s="19"/>
       <c r="AB23" s="20"/>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A24" s="107"/>
-      <c r="B24" s="86"/>
-      <c r="C24" s="69" t="s">
-        <v>13</v>
-      </c>
-      <c r="D24" s="98"/>
-      <c r="E24" s="96"/>
-      <c r="F24" s="75"/>
-      <c r="G24" s="75"/>
-      <c r="H24" s="97"/>
-      <c r="I24" s="96"/>
-      <c r="J24" s="75"/>
-      <c r="K24" s="75"/>
-      <c r="L24" s="97"/>
-      <c r="M24" s="96"/>
-      <c r="N24" s="75"/>
-      <c r="O24" s="75"/>
-      <c r="P24" s="97"/>
-      <c r="Q24" s="96"/>
-      <c r="R24" s="75"/>
-      <c r="S24" s="75"/>
-      <c r="T24" s="97"/>
-      <c r="U24" s="96"/>
-      <c r="V24" s="75"/>
-      <c r="W24" s="75"/>
-      <c r="X24" s="97"/>
-      <c r="Y24" s="75"/>
-      <c r="Z24" s="75"/>
-      <c r="AA24" s="75"/>
-      <c r="AB24" s="86"/>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A24" s="90"/>
+      <c r="B24" s="90"/>
+      <c r="C24" s="61" t="s">
+        <v>56</v>
+      </c>
+      <c r="D24" s="81"/>
+      <c r="E24" s="79"/>
+      <c r="F24" s="65"/>
+      <c r="G24" s="65"/>
+      <c r="H24" s="80"/>
+      <c r="I24" s="79"/>
+      <c r="J24" s="65"/>
+      <c r="K24" s="65"/>
+      <c r="L24" s="80"/>
+      <c r="M24" s="79"/>
+      <c r="N24" s="65"/>
+      <c r="O24" s="65"/>
+      <c r="P24" s="80"/>
+      <c r="Q24" s="79"/>
+      <c r="R24" s="65"/>
+      <c r="S24" s="65"/>
+      <c r="T24" s="80"/>
+      <c r="U24" s="79"/>
+      <c r="V24" s="65"/>
+      <c r="W24" s="65"/>
+      <c r="X24" s="80"/>
+      <c r="Y24" s="65"/>
+      <c r="Z24" s="65"/>
+      <c r="AA24" s="65"/>
+      <c r="AB24" s="71"/>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A25" s="107"/>
-      <c r="B25" s="86"/>
-      <c r="C25" s="71" t="s">
-        <v>50</v>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A25" s="90"/>
+      <c r="B25" s="71"/>
+      <c r="C25" s="61" t="s">
+        <v>54</v>
       </c>
       <c r="D25" s="55"/>
       <c r="E25" s="41"/>
-      <c r="F25" s="70"/>
-      <c r="G25" s="70"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
       <c r="H25" s="42"/>
       <c r="I25" s="41"/>
-      <c r="J25" s="70"/>
-      <c r="K25" s="70"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="19"/>
       <c r="L25" s="42"/>
       <c r="M25" s="41"/>
-      <c r="N25" s="70"/>
-      <c r="O25" s="70"/>
+      <c r="N25" s="19"/>
+      <c r="O25" s="19"/>
       <c r="P25" s="42"/>
       <c r="Q25" s="41"/>
-      <c r="R25" s="70"/>
-      <c r="S25" s="70"/>
+      <c r="R25" s="19"/>
+      <c r="S25" s="19"/>
       <c r="T25" s="42"/>
       <c r="U25" s="41"/>
-      <c r="V25" s="70"/>
-      <c r="W25" s="70"/>
+      <c r="V25" s="19"/>
+      <c r="W25" s="19"/>
       <c r="X25" s="42"/>
-      <c r="Y25" s="70"/>
-      <c r="Z25" s="70"/>
-      <c r="AA25" s="70"/>
+      <c r="Y25" s="19"/>
+      <c r="Z25" s="19"/>
+      <c r="AA25" s="19"/>
       <c r="AB25" s="20"/>
     </row>
-    <row r="26" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="108"/>
-      <c r="B26" s="93"/>
-      <c r="C26" s="95" t="s">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A26" s="90"/>
+      <c r="B26" s="71"/>
+      <c r="C26" s="62" t="s">
+        <v>50</v>
+      </c>
+      <c r="D26" s="81"/>
+      <c r="E26" s="79"/>
+      <c r="F26" s="65"/>
+      <c r="G26" s="65"/>
+      <c r="H26" s="80"/>
+      <c r="I26" s="79"/>
+      <c r="J26" s="65"/>
+      <c r="K26" s="65"/>
+      <c r="L26" s="80"/>
+      <c r="M26" s="79"/>
+      <c r="N26" s="65"/>
+      <c r="O26" s="65"/>
+      <c r="P26" s="80"/>
+      <c r="Q26" s="79"/>
+      <c r="R26" s="65"/>
+      <c r="S26" s="65"/>
+      <c r="T26" s="80"/>
+      <c r="U26" s="79"/>
+      <c r="V26" s="65"/>
+      <c r="W26" s="65"/>
+      <c r="X26" s="80"/>
+      <c r="Y26" s="65"/>
+      <c r="Z26" s="65"/>
+      <c r="AA26" s="65"/>
+      <c r="AB26" s="71"/>
+    </row>
+    <row r="27" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="91"/>
+      <c r="B27" s="76"/>
+      <c r="C27" s="78" t="s">
         <v>52</v>
       </c>
-      <c r="D26" s="102"/>
-      <c r="E26" s="103"/>
-      <c r="F26" s="87"/>
-      <c r="G26" s="87"/>
-      <c r="H26" s="104"/>
-      <c r="I26" s="103"/>
-      <c r="J26" s="87"/>
-      <c r="K26" s="87"/>
-      <c r="L26" s="104"/>
-      <c r="M26" s="103"/>
-      <c r="N26" s="87"/>
-      <c r="O26" s="87"/>
-      <c r="P26" s="104"/>
-      <c r="Q26" s="103"/>
-      <c r="R26" s="87"/>
-      <c r="S26" s="87"/>
-      <c r="T26" s="104"/>
-      <c r="U26" s="103"/>
-      <c r="V26" s="87"/>
-      <c r="W26" s="87"/>
-      <c r="X26" s="104"/>
-      <c r="Y26" s="87"/>
-      <c r="Z26" s="87"/>
-      <c r="AA26" s="87"/>
-      <c r="AB26" s="93"/>
+      <c r="D27" s="55"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="42"/>
+      <c r="I27" s="41"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="19"/>
+      <c r="L27" s="42"/>
+      <c r="M27" s="41"/>
+      <c r="N27" s="19"/>
+      <c r="O27" s="19"/>
+      <c r="P27" s="42"/>
+      <c r="Q27" s="41"/>
+      <c r="R27" s="19"/>
+      <c r="S27" s="19"/>
+      <c r="T27" s="42"/>
+      <c r="U27" s="41"/>
+      <c r="V27" s="19"/>
+      <c r="W27" s="19"/>
+      <c r="X27" s="42"/>
+      <c r="Y27" s="19"/>
+      <c r="Z27" s="19"/>
+      <c r="AA27" s="19"/>
+      <c r="AB27" s="20"/>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A27" s="106">
-        <v>8</v>
-      </c>
-      <c r="B27" s="89" t="s">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A28" s="89">
+        <v>6</v>
+      </c>
+      <c r="B28" s="74" t="s">
         <v>27</v>
       </c>
-      <c r="C27" s="15"/>
-      <c r="D27" s="58"/>
-      <c r="E27" s="43"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="29"/>
-      <c r="H27" s="44"/>
-      <c r="I27" s="43"/>
-      <c r="J27" s="29"/>
-      <c r="K27" s="29"/>
-      <c r="L27" s="44"/>
-      <c r="M27" s="43"/>
-      <c r="N27" s="29"/>
-      <c r="O27" s="29"/>
-      <c r="P27" s="44"/>
-      <c r="Q27" s="43"/>
-      <c r="R27" s="29"/>
-      <c r="S27" s="29"/>
-      <c r="T27" s="44"/>
-      <c r="U27" s="43"/>
-      <c r="V27" s="29"/>
-      <c r="W27" s="29"/>
-      <c r="X27" s="44"/>
-      <c r="Y27" s="29"/>
-      <c r="Z27" s="29"/>
-      <c r="AA27" s="29"/>
-      <c r="AB27" s="31"/>
+      <c r="D28" s="82"/>
+      <c r="E28" s="83"/>
+      <c r="F28" s="64"/>
+      <c r="G28" s="64"/>
+      <c r="H28" s="84"/>
+      <c r="I28" s="83"/>
+      <c r="J28" s="64"/>
+      <c r="K28" s="64"/>
+      <c r="L28" s="84"/>
+      <c r="M28" s="83"/>
+      <c r="N28" s="64"/>
+      <c r="O28" s="64"/>
+      <c r="P28" s="84"/>
+      <c r="Q28" s="83"/>
+      <c r="R28" s="64"/>
+      <c r="S28" s="64"/>
+      <c r="T28" s="84"/>
+      <c r="U28" s="83"/>
+      <c r="V28" s="64"/>
+      <c r="W28" s="64"/>
+      <c r="X28" s="84"/>
+      <c r="Y28" s="64"/>
+      <c r="Z28" s="64"/>
+      <c r="AA28" s="64"/>
+      <c r="AB28" s="74"/>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A28" s="107"/>
-      <c r="B28" s="86"/>
-      <c r="C28" s="69" t="s">
-        <v>29</v>
-      </c>
-      <c r="D28" s="98"/>
-      <c r="E28" s="96"/>
-      <c r="F28" s="75"/>
-      <c r="G28" s="75"/>
-      <c r="H28" s="97"/>
-      <c r="I28" s="96"/>
-      <c r="J28" s="75"/>
-      <c r="K28" s="75"/>
-      <c r="L28" s="97"/>
-      <c r="M28" s="96"/>
-      <c r="N28" s="75"/>
-      <c r="O28" s="75"/>
-      <c r="P28" s="97"/>
-      <c r="Q28" s="96"/>
-      <c r="R28" s="75"/>
-      <c r="S28" s="75"/>
-      <c r="T28" s="97"/>
-      <c r="U28" s="96"/>
-      <c r="V28" s="75"/>
-      <c r="W28" s="75"/>
-      <c r="X28" s="97"/>
-      <c r="Y28" s="75"/>
-      <c r="Z28" s="75"/>
-      <c r="AA28" s="75"/>
-      <c r="AB28" s="86"/>
+    <row r="29" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A29" s="90"/>
+      <c r="B29" s="90"/>
+      <c r="C29" s="61" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" s="55"/>
+      <c r="E29" s="41"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="42"/>
+      <c r="I29" s="41"/>
+      <c r="J29" s="19"/>
+      <c r="K29" s="19"/>
+      <c r="L29" s="42"/>
+      <c r="M29" s="41"/>
+      <c r="N29" s="19"/>
+      <c r="O29" s="19"/>
+      <c r="P29" s="42"/>
+      <c r="Q29" s="41"/>
+      <c r="R29" s="19"/>
+      <c r="S29" s="19"/>
+      <c r="T29" s="42"/>
+      <c r="U29" s="41"/>
+      <c r="V29" s="19"/>
+      <c r="W29" s="19"/>
+      <c r="X29" s="42"/>
+      <c r="Y29" s="19"/>
+      <c r="Z29" s="19"/>
+      <c r="AA29" s="19"/>
+      <c r="AB29" s="20"/>
     </row>
-    <row r="29" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="105"/>
-      <c r="B29" s="93"/>
-      <c r="C29" s="88" t="s">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A30" s="90"/>
+      <c r="B30" s="90"/>
+      <c r="C30" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="D30" s="81"/>
+      <c r="E30" s="79"/>
+      <c r="F30" s="65"/>
+      <c r="G30" s="65"/>
+      <c r="H30" s="80"/>
+      <c r="I30" s="79"/>
+      <c r="J30" s="65"/>
+      <c r="K30" s="65"/>
+      <c r="L30" s="80"/>
+      <c r="M30" s="79"/>
+      <c r="N30" s="65"/>
+      <c r="O30" s="65"/>
+      <c r="P30" s="80"/>
+      <c r="Q30" s="79"/>
+      <c r="R30" s="65"/>
+      <c r="S30" s="65"/>
+      <c r="T30" s="80"/>
+      <c r="U30" s="79"/>
+      <c r="V30" s="65"/>
+      <c r="W30" s="65"/>
+      <c r="X30" s="80"/>
+      <c r="Y30" s="65"/>
+      <c r="Z30" s="65"/>
+      <c r="AA30" s="65"/>
+      <c r="AB30" s="71"/>
+    </row>
+    <row r="31" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A31" s="90"/>
+      <c r="B31" s="71"/>
+      <c r="C31" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="D31" s="55"/>
+      <c r="E31" s="41"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="42"/>
+      <c r="I31" s="41"/>
+      <c r="J31" s="19"/>
+      <c r="K31" s="19"/>
+      <c r="L31" s="42"/>
+      <c r="M31" s="41"/>
+      <c r="N31" s="19"/>
+      <c r="O31" s="19"/>
+      <c r="P31" s="42"/>
+      <c r="Q31" s="41"/>
+      <c r="R31" s="19"/>
+      <c r="S31" s="19"/>
+      <c r="T31" s="42"/>
+      <c r="U31" s="41"/>
+      <c r="V31" s="19"/>
+      <c r="W31" s="19"/>
+      <c r="X31" s="42"/>
+      <c r="Y31" s="19"/>
+      <c r="Z31" s="19"/>
+      <c r="AA31" s="19"/>
+      <c r="AB31" s="20"/>
+    </row>
+    <row r="32" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="88"/>
+      <c r="B32" s="76"/>
+      <c r="C32" s="73" t="s">
         <v>51</v>
       </c>
-      <c r="D29" s="59"/>
-      <c r="E29" s="45"/>
-      <c r="F29" s="32"/>
-      <c r="G29" s="32"/>
-      <c r="H29" s="46"/>
-      <c r="I29" s="45"/>
-      <c r="J29" s="32"/>
-      <c r="K29" s="32"/>
-      <c r="L29" s="46"/>
-      <c r="M29" s="45"/>
-      <c r="N29" s="32"/>
-      <c r="O29" s="32"/>
-      <c r="P29" s="46"/>
-      <c r="Q29" s="45"/>
-      <c r="R29" s="32"/>
-      <c r="S29" s="32"/>
-      <c r="T29" s="46"/>
-      <c r="U29" s="45"/>
-      <c r="V29" s="32"/>
-      <c r="W29" s="32"/>
-      <c r="X29" s="46"/>
-      <c r="Y29" s="32"/>
-      <c r="Z29" s="32"/>
-      <c r="AA29" s="32"/>
-      <c r="AB29" s="34"/>
+      <c r="D32" s="85"/>
+      <c r="E32" s="86"/>
+      <c r="F32" s="72"/>
+      <c r="G32" s="72"/>
+      <c r="H32" s="87"/>
+      <c r="I32" s="86"/>
+      <c r="J32" s="72"/>
+      <c r="K32" s="72"/>
+      <c r="L32" s="87"/>
+      <c r="M32" s="86"/>
+      <c r="N32" s="72"/>
+      <c r="O32" s="72"/>
+      <c r="P32" s="87"/>
+      <c r="Q32" s="86"/>
+      <c r="R32" s="72"/>
+      <c r="S32" s="72"/>
+      <c r="T32" s="87"/>
+      <c r="U32" s="86"/>
+      <c r="V32" s="72"/>
+      <c r="W32" s="72"/>
+      <c r="X32" s="87"/>
+      <c r="Y32" s="72"/>
+      <c r="Z32" s="72"/>
+      <c r="AA32" s="72"/>
+      <c r="AB32" s="76"/>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A30" s="68"/>
-      <c r="B30" s="68"/>
-      <c r="C30" s="68"/>
-      <c r="D30" s="68"/>
-      <c r="E30" s="68"/>
-      <c r="F30" s="68"/>
-      <c r="G30" s="68"/>
-      <c r="H30" s="68"/>
-      <c r="I30" s="68"/>
-      <c r="J30" s="68"/>
-      <c r="K30" s="68"/>
-      <c r="L30" s="68"/>
-      <c r="M30" s="68"/>
-      <c r="N30" s="68"/>
-      <c r="O30" s="68"/>
-      <c r="P30" s="68"/>
-      <c r="Q30" s="68"/>
-      <c r="R30" s="68"/>
-      <c r="S30" s="68"/>
-      <c r="T30" s="68"/>
-      <c r="U30" s="68"/>
-      <c r="V30" s="68"/>
-      <c r="W30" s="68"/>
-      <c r="X30" s="68"/>
-      <c r="Y30" s="68"/>
-      <c r="Z30" s="68"/>
-      <c r="AA30" s="68"/>
-      <c r="AB30" s="68"/>
+    <row r="38" spans="4:28" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="39" spans="4:28" x14ac:dyDescent="0.3">
+      <c r="D39" s="58"/>
+      <c r="E39" s="43"/>
+      <c r="F39" s="29"/>
+      <c r="G39" s="29"/>
+      <c r="H39" s="44"/>
+      <c r="I39" s="43"/>
+      <c r="J39" s="29"/>
+      <c r="K39" s="29"/>
+      <c r="L39" s="44"/>
+      <c r="M39" s="43"/>
+      <c r="N39" s="29"/>
+      <c r="O39" s="29"/>
+      <c r="P39" s="44"/>
+      <c r="Q39" s="43"/>
+      <c r="R39" s="29"/>
+      <c r="S39" s="29"/>
+      <c r="T39" s="44"/>
+      <c r="U39" s="43"/>
+      <c r="V39" s="29"/>
+      <c r="W39" s="29"/>
+      <c r="X39" s="44"/>
+      <c r="Y39" s="29"/>
+      <c r="Z39" s="29"/>
+      <c r="AA39" s="29"/>
+      <c r="AB39" s="31"/>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A31" s="68"/>
-      <c r="B31" s="68"/>
-      <c r="C31" s="68"/>
-      <c r="D31" s="68"/>
-      <c r="E31" s="68"/>
-      <c r="F31" s="68"/>
-      <c r="G31" s="68"/>
-      <c r="H31" s="68"/>
-      <c r="I31" s="68"/>
-      <c r="J31" s="68"/>
-      <c r="K31" s="68"/>
-      <c r="L31" s="68"/>
-      <c r="M31" s="68"/>
-      <c r="N31" s="68"/>
-      <c r="O31" s="68"/>
-      <c r="P31" s="68"/>
-      <c r="Q31" s="68"/>
-      <c r="R31" s="68"/>
-      <c r="S31" s="68"/>
-      <c r="T31" s="68"/>
-      <c r="U31" s="68"/>
-      <c r="V31" s="68"/>
-      <c r="W31" s="68"/>
-      <c r="X31" s="68"/>
-      <c r="Y31" s="68"/>
-      <c r="Z31" s="68"/>
-      <c r="AA31" s="68"/>
-      <c r="AB31" s="68"/>
+    <row r="40" spans="4:28" x14ac:dyDescent="0.3">
+      <c r="D40" s="55"/>
+      <c r="E40" s="41"/>
+      <c r="F40" s="19"/>
+      <c r="G40" s="19"/>
+      <c r="H40" s="42"/>
+      <c r="I40" s="41"/>
+      <c r="J40" s="19"/>
+      <c r="K40" s="19"/>
+      <c r="L40" s="42"/>
+      <c r="M40" s="41"/>
+      <c r="N40" s="19"/>
+      <c r="O40" s="19"/>
+      <c r="P40" s="42"/>
+      <c r="Q40" s="41"/>
+      <c r="R40" s="19"/>
+      <c r="S40" s="19"/>
+      <c r="T40" s="42"/>
+      <c r="U40" s="41"/>
+      <c r="V40" s="19"/>
+      <c r="W40" s="19"/>
+      <c r="X40" s="42"/>
+      <c r="Y40" s="19"/>
+      <c r="Z40" s="19"/>
+      <c r="AA40" s="19"/>
+      <c r="AB40" s="20"/>
     </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A32" s="68"/>
-      <c r="B32" s="68"/>
-      <c r="C32" s="68"/>
-      <c r="D32" s="68"/>
-      <c r="E32" s="68"/>
-      <c r="F32" s="68"/>
-      <c r="G32" s="68"/>
-      <c r="H32" s="68"/>
-      <c r="I32" s="68"/>
-      <c r="J32" s="68"/>
-      <c r="K32" s="68"/>
-      <c r="L32" s="68"/>
-      <c r="M32" s="68"/>
-      <c r="N32" s="68"/>
-      <c r="O32" s="68"/>
-      <c r="P32" s="68"/>
-      <c r="Q32" s="68"/>
-      <c r="R32" s="68"/>
-      <c r="S32" s="68"/>
-      <c r="T32" s="68"/>
-      <c r="U32" s="68"/>
-      <c r="V32" s="68"/>
-      <c r="W32" s="68"/>
-      <c r="X32" s="68"/>
-      <c r="Y32" s="68"/>
-      <c r="Z32" s="68"/>
-      <c r="AA32" s="68"/>
-      <c r="AB32" s="68"/>
+    <row r="41" spans="4:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D41" s="59"/>
+      <c r="E41" s="45"/>
+      <c r="F41" s="32"/>
+      <c r="G41" s="32"/>
+      <c r="H41" s="46"/>
+      <c r="I41" s="45"/>
+      <c r="J41" s="32"/>
+      <c r="K41" s="32"/>
+      <c r="L41" s="46"/>
+      <c r="M41" s="45"/>
+      <c r="N41" s="32"/>
+      <c r="O41" s="32"/>
+      <c r="P41" s="46"/>
+      <c r="Q41" s="45"/>
+      <c r="R41" s="32"/>
+      <c r="S41" s="32"/>
+      <c r="T41" s="46"/>
+      <c r="U41" s="45"/>
+      <c r="V41" s="32"/>
+      <c r="W41" s="32"/>
+      <c r="X41" s="46"/>
+      <c r="Y41" s="32"/>
+      <c r="Z41" s="32"/>
+      <c r="AA41" s="32"/>
+      <c r="AB41" s="34"/>
     </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A33" s="68"/>
-      <c r="B33" s="68"/>
-      <c r="C33" s="68"/>
-      <c r="D33" s="68"/>
-      <c r="E33" s="68"/>
-      <c r="F33" s="68"/>
-      <c r="G33" s="68"/>
-      <c r="H33" s="68"/>
-      <c r="I33" s="68"/>
-      <c r="J33" s="68"/>
-      <c r="K33" s="68"/>
-      <c r="L33" s="68"/>
-      <c r="M33" s="68"/>
-      <c r="N33" s="68"/>
-      <c r="O33" s="68"/>
-      <c r="P33" s="68"/>
-      <c r="Q33" s="68"/>
-      <c r="R33" s="68"/>
-      <c r="S33" s="68"/>
-      <c r="T33" s="68"/>
-      <c r="U33" s="68"/>
-      <c r="V33" s="68"/>
-      <c r="W33" s="68"/>
-      <c r="X33" s="68"/>
-      <c r="Y33" s="68"/>
-      <c r="Z33" s="68"/>
-      <c r="AA33" s="68"/>
-      <c r="AB33" s="68"/>
+    <row r="44" spans="4:28" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="45" spans="4:28" x14ac:dyDescent="0.3">
+      <c r="D45" s="82"/>
+      <c r="E45" s="83"/>
+      <c r="F45" s="64"/>
+      <c r="G45" s="64"/>
+      <c r="H45" s="84"/>
+      <c r="I45" s="83"/>
+      <c r="J45" s="64"/>
+      <c r="K45" s="64"/>
+      <c r="L45" s="84"/>
+      <c r="M45" s="83"/>
+      <c r="N45" s="64"/>
+      <c r="O45" s="64"/>
+      <c r="P45" s="84"/>
+      <c r="Q45" s="83"/>
+      <c r="R45" s="64"/>
+      <c r="S45" s="64"/>
+      <c r="T45" s="84"/>
+      <c r="U45" s="83"/>
+      <c r="V45" s="64"/>
+      <c r="W45" s="64"/>
+      <c r="X45" s="84"/>
+      <c r="Y45" s="64"/>
+      <c r="Z45" s="64"/>
+      <c r="AA45" s="64"/>
+      <c r="AB45" s="74"/>
     </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A34" s="68"/>
-      <c r="B34" s="68"/>
-      <c r="C34" s="68"/>
-      <c r="D34" s="68"/>
-      <c r="E34" s="68"/>
-      <c r="F34" s="68"/>
-      <c r="G34" s="68"/>
-      <c r="H34" s="68"/>
-      <c r="I34" s="68"/>
-      <c r="J34" s="68"/>
-      <c r="K34" s="68"/>
-      <c r="L34" s="68"/>
-      <c r="M34" s="68"/>
-      <c r="N34" s="68"/>
-      <c r="O34" s="68"/>
-      <c r="P34" s="68"/>
-      <c r="Q34" s="68"/>
-      <c r="R34" s="68"/>
-      <c r="S34" s="68"/>
-      <c r="T34" s="68"/>
-      <c r="U34" s="68"/>
-      <c r="V34" s="68"/>
-      <c r="W34" s="68"/>
-      <c r="X34" s="68"/>
-      <c r="Y34" s="68"/>
-      <c r="Z34" s="68"/>
-      <c r="AA34" s="68"/>
-      <c r="AB34" s="68"/>
+    <row r="46" spans="4:28" x14ac:dyDescent="0.3">
+      <c r="D46" s="81"/>
+      <c r="E46" s="79"/>
+      <c r="F46" s="65"/>
+      <c r="G46" s="65"/>
+      <c r="H46" s="80"/>
+      <c r="I46" s="79"/>
+      <c r="J46" s="65"/>
+      <c r="K46" s="65"/>
+      <c r="L46" s="80"/>
+      <c r="M46" s="79"/>
+      <c r="N46" s="65"/>
+      <c r="O46" s="65"/>
+      <c r="P46" s="80"/>
+      <c r="Q46" s="79"/>
+      <c r="R46" s="65"/>
+      <c r="S46" s="65"/>
+      <c r="T46" s="80"/>
+      <c r="U46" s="79"/>
+      <c r="V46" s="65"/>
+      <c r="W46" s="65"/>
+      <c r="X46" s="80"/>
+      <c r="Y46" s="65"/>
+      <c r="Z46" s="65"/>
+      <c r="AA46" s="65"/>
+      <c r="AB46" s="71"/>
+    </row>
+    <row r="47" spans="4:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D47" s="85"/>
+      <c r="E47" s="86"/>
+      <c r="F47" s="72"/>
+      <c r="G47" s="72"/>
+      <c r="H47" s="87"/>
+      <c r="I47" s="86"/>
+      <c r="J47" s="72"/>
+      <c r="K47" s="72"/>
+      <c r="L47" s="87"/>
+      <c r="M47" s="86"/>
+      <c r="N47" s="72"/>
+      <c r="O47" s="72"/>
+      <c r="P47" s="87"/>
+      <c r="Q47" s="86"/>
+      <c r="R47" s="72"/>
+      <c r="S47" s="72"/>
+      <c r="T47" s="87"/>
+      <c r="U47" s="86"/>
+      <c r="V47" s="72"/>
+      <c r="W47" s="72"/>
+      <c r="X47" s="87"/>
+      <c r="Y47" s="72"/>
+      <c r="Z47" s="72"/>
+      <c r="AA47" s="72"/>
+      <c r="AB47" s="76"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -9166,58 +10200,58 @@
       <selection activeCell="W17" sqref="W17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.453125" customWidth="1"/>
-    <col min="2" max="3" width="28.26953125" customWidth="1"/>
-    <col min="7" max="8" width="8.7265625" customWidth="1"/>
+    <col min="1" max="1" width="5.44140625" customWidth="1"/>
+    <col min="2" max="3" width="28.21875" customWidth="1"/>
+    <col min="7" max="8" width="8.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A1" s="13"/>
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
       <c r="D1" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="63" t="s">
+      <c r="E1" s="99" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="64" t="s">
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="103" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="63" t="s">
+      <c r="J1" s="104"/>
+      <c r="K1" s="104"/>
+      <c r="L1" s="105"/>
+      <c r="M1" s="99" t="s">
         <v>16</v>
       </c>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63" t="s">
+      <c r="N1" s="99"/>
+      <c r="O1" s="99"/>
+      <c r="P1" s="99"/>
+      <c r="Q1" s="99" t="s">
         <v>17</v>
       </c>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
-      <c r="U1" s="63" t="s">
+      <c r="R1" s="99"/>
+      <c r="S1" s="99"/>
+      <c r="T1" s="99"/>
+      <c r="U1" s="99" t="s">
         <v>18</v>
       </c>
-      <c r="V1" s="63"/>
-      <c r="W1" s="63"/>
-      <c r="X1" s="63"/>
-      <c r="Y1" s="63" t="s">
+      <c r="V1" s="99"/>
+      <c r="W1" s="99"/>
+      <c r="X1" s="99"/>
+      <c r="Y1" s="99" t="s">
         <v>19</v>
       </c>
-      <c r="Z1" s="63"/>
-      <c r="AA1" s="63"/>
-      <c r="AB1" s="67"/>
+      <c r="Z1" s="99"/>
+      <c r="AA1" s="99"/>
+      <c r="AB1" s="100"/>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="D2" s="53" t="s">
         <v>30</v>
       </c>
@@ -9294,18 +10328,18 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="61" t="s">
+    <row r="3" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="101" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="62"/>
+      <c r="B3" s="102"/>
       <c r="C3" s="51" t="s">
         <v>28</v>
       </c>
       <c r="D3" s="18"/>
       <c r="AB3" s="21"/>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A4" s="13">
         <v>1</v>
       </c>
@@ -9339,7 +10373,7 @@
       <c r="AA4" s="40"/>
       <c r="AB4" s="50"/>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A5" s="18"/>
       <c r="B5" s="1"/>
       <c r="C5" s="11" t="s">
@@ -9371,7 +10405,7 @@
       <c r="AA5" s="19"/>
       <c r="AB5" s="20"/>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A6" s="18"/>
       <c r="B6" s="1"/>
       <c r="C6" s="11" t="s">
@@ -9392,7 +10426,7 @@
       <c r="Y6" s="11"/>
       <c r="AB6" s="21"/>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A7" s="18"/>
       <c r="B7" s="1"/>
       <c r="C7" s="11" t="s">
@@ -9424,7 +10458,7 @@
       <c r="AA7" s="19"/>
       <c r="AB7" s="20"/>
     </row>
-    <row r="8" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="22"/>
       <c r="B8" s="23"/>
       <c r="C8" s="48" t="s">
@@ -9456,7 +10490,7 @@
       <c r="AA8" s="24"/>
       <c r="AB8" s="28"/>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A9" s="13">
         <v>2</v>
       </c>
@@ -9490,7 +10524,7 @@
       <c r="AA9" s="29"/>
       <c r="AB9" s="31"/>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A10" s="18"/>
       <c r="B10" s="1"/>
       <c r="C10" s="11" t="s">
@@ -9509,7 +10543,7 @@
       <c r="Y10" s="11"/>
       <c r="AB10" s="21"/>
     </row>
-    <row r="11" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="22"/>
       <c r="B11" s="23"/>
       <c r="C11" s="48" t="s">
@@ -9541,7 +10575,7 @@
       <c r="AA11" s="32"/>
       <c r="AB11" s="34"/>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A12" s="13">
         <v>3</v>
       </c>
@@ -9575,7 +10609,7 @@
       <c r="AA12" s="15"/>
       <c r="AB12" s="17"/>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A13" s="18"/>
       <c r="B13" s="1"/>
       <c r="C13" s="11" t="s">
@@ -9607,7 +10641,7 @@
       <c r="AA13" s="19"/>
       <c r="AB13" s="20"/>
     </row>
-    <row r="14" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="22"/>
       <c r="B14" s="23"/>
       <c r="C14" s="48" t="s">
@@ -9639,7 +10673,7 @@
       <c r="AA14" s="24"/>
       <c r="AB14" s="28"/>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A15" s="13">
         <v>4</v>
       </c>
@@ -9673,7 +10707,7 @@
       <c r="AA15" s="29"/>
       <c r="AB15" s="31"/>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A16" s="18"/>
       <c r="B16" s="1"/>
       <c r="C16" s="11" t="s">
@@ -9692,7 +10726,7 @@
       <c r="Y16" s="11"/>
       <c r="AB16" s="21"/>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A17" s="18"/>
       <c r="B17" s="1"/>
       <c r="C17" s="11" t="s">
@@ -9724,7 +10758,7 @@
       <c r="AA17" s="19"/>
       <c r="AB17" s="20"/>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A18" s="18"/>
       <c r="B18" s="1"/>
       <c r="C18" s="11" t="s">
@@ -9744,7 +10778,7 @@
       <c r="Y18" s="11"/>
       <c r="AB18" s="21"/>
     </row>
-    <row r="19" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="22"/>
       <c r="B19" s="23"/>
       <c r="C19" s="48" t="s">
@@ -9776,7 +10810,7 @@
       <c r="AA19" s="32"/>
       <c r="AB19" s="34"/>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A20" s="13">
         <v>5</v>
       </c>
@@ -9810,7 +10844,7 @@
       <c r="AA20" s="15"/>
       <c r="AB20" s="17"/>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A21" s="18"/>
       <c r="B21" s="1"/>
       <c r="C21" s="11" t="s">
@@ -9842,7 +10876,7 @@
       <c r="AA21" s="19"/>
       <c r="AB21" s="20"/>
     </row>
-    <row r="22" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="22"/>
       <c r="B22" s="23"/>
       <c r="C22" s="48" t="s">
@@ -9874,7 +10908,7 @@
       <c r="AA22" s="24"/>
       <c r="AB22" s="28"/>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A23" s="13">
         <v>8</v>
       </c>
@@ -9908,7 +10942,7 @@
       <c r="AA23" s="29"/>
       <c r="AB23" s="31"/>
     </row>
-    <row r="24" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="22"/>
       <c r="B24" s="23"/>
       <c r="C24" s="48" t="s">

--- a/GanttChart.xlsx
+++ b/GanttChart.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Christian\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ED6236B-B8CF-4123-8AAD-D1B81570AA61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00A91772-280D-4345-9E63-0C9BADAD5F1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{43E547F6-0216-4364-89E9-4ABBD2898905}"/>
+    <workbookView xWindow="-30" yWindow="-16297" windowWidth="28995" windowHeight="16395" xr2:uid="{43E547F6-0216-4364-89E9-4ABBD2898905}"/>
   </bookViews>
   <sheets>
     <sheet name="No Dates" sheetId="4" r:id="rId1"/>
@@ -792,19 +792,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -829,19 +816,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -878,11 +852,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
@@ -956,27 +960,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="8" borderId="40" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="8" borderId="44" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
@@ -991,14 +984,14 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="42" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="50" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="48" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1007,10 +1000,10 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1041,6 +1034,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="49" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="32" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="50" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1448,13 +1451,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>11297</xdr:colOff>
+      <xdr:colOff>16212</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>51507</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>600745</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>9831</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>142673</xdr:rowOff>
     </xdr:to>
@@ -1471,8 +1474,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4972403" y="988605"/>
-          <a:ext cx="1802163" cy="91166"/>
+          <a:off x="4976586" y="990488"/>
+          <a:ext cx="1807671" cy="91166"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1576,15 +1579,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>9509</xdr:colOff>
+      <xdr:colOff>11967</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>8759</xdr:rowOff>
+      <xdr:rowOff>11217</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>607258</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>116</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>172398</xdr:rowOff>
+      <xdr:rowOff>174856</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1599,8 +1602,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4954572" y="564384"/>
-          <a:ext cx="3042499" cy="163639"/>
+          <a:off x="4362741" y="586404"/>
+          <a:ext cx="3021401" cy="163639"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2424,13 +2427,13 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>532456</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>186514</xdr:rowOff>
+      <xdr:rowOff>188972</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>84605</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>183264</xdr:rowOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>3825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2445,8 +2448,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6080542" y="556628"/>
-          <a:ext cx="161749" cy="189065"/>
+          <a:off x="5492830" y="572430"/>
+          <a:ext cx="161749" cy="188479"/>
         </a:xfrm>
         <a:prstGeom prst="diamond">
           <a:avLst/>
@@ -4791,8 +4794,8 @@
       <xdr:rowOff>51503</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>590831</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>7374</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>138094</xdr:rowOff>
     </xdr:to>
@@ -4809,8 +4812,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4967492" y="1174909"/>
-          <a:ext cx="1797716" cy="86591"/>
+          <a:off x="4963980" y="1172380"/>
+          <a:ext cx="1817820" cy="86591"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8901,10 +8904,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B84DCD8-6D76-4FB6-B23A-530AFABD7029}">
-  <dimension ref="A1:AB47"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:AH42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+    <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8915,201 +8921,225 @@
     <col min="7" max="8" width="8.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="63"/>
-      <c r="B1" s="64"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
-      <c r="M1" s="65"/>
-      <c r="N1" s="65"/>
-      <c r="O1" s="65"/>
-      <c r="P1" s="65"/>
-      <c r="Q1" s="65"/>
-      <c r="R1" s="65"/>
-      <c r="S1" s="65"/>
-      <c r="T1" s="65"/>
-      <c r="U1" s="65"/>
-      <c r="V1" s="65"/>
-      <c r="W1" s="65"/>
-      <c r="X1" s="65"/>
-      <c r="Y1" s="65"/>
-      <c r="Z1" s="65"/>
-      <c r="AA1" s="65"/>
-      <c r="AB1" s="65"/>
+    <row r="1" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="101"/>
+      <c r="B1" s="101"/>
+      <c r="C1" s="101"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="64"/>
+      <c r="S1" s="64"/>
+      <c r="T1" s="64"/>
+      <c r="U1" s="64"/>
+      <c r="V1" s="64"/>
+      <c r="W1" s="64"/>
+      <c r="X1" s="64"/>
+      <c r="Y1" s="64"/>
+      <c r="Z1" s="64"/>
+      <c r="AA1" s="64"/>
+      <c r="AB1" s="64"/>
+      <c r="AC1" s="101"/>
+      <c r="AD1" s="101"/>
+      <c r="AE1" s="101"/>
+      <c r="AF1" s="101"/>
+      <c r="AG1" s="101"/>
+      <c r="AH1" s="101"/>
     </row>
-    <row r="2" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="70"/>
-      <c r="B2" s="65"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="66" t="s">
+    <row r="2" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="101"/>
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="92" t="s">
+      <c r="E2" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="92"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="92"/>
-      <c r="I2" s="96" t="s">
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="91" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="97"/>
-      <c r="K2" s="97"/>
-      <c r="L2" s="98"/>
-      <c r="M2" s="92" t="s">
+      <c r="J2" s="92"/>
+      <c r="K2" s="92"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="87" t="s">
         <v>16</v>
       </c>
-      <c r="N2" s="92"/>
-      <c r="O2" s="92"/>
-      <c r="P2" s="92"/>
-      <c r="Q2" s="92" t="s">
+      <c r="N2" s="87"/>
+      <c r="O2" s="87"/>
+      <c r="P2" s="87"/>
+      <c r="Q2" s="87" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="92"/>
-      <c r="S2" s="92"/>
-      <c r="T2" s="92"/>
-      <c r="U2" s="92" t="s">
+      <c r="R2" s="87"/>
+      <c r="S2" s="87"/>
+      <c r="T2" s="87"/>
+      <c r="U2" s="87" t="s">
         <v>18</v>
       </c>
-      <c r="V2" s="92"/>
-      <c r="W2" s="92"/>
-      <c r="X2" s="92"/>
-      <c r="Y2" s="92" t="s">
+      <c r="V2" s="87"/>
+      <c r="W2" s="87"/>
+      <c r="X2" s="87"/>
+      <c r="Y2" s="87" t="s">
         <v>19</v>
       </c>
-      <c r="Z2" s="92"/>
-      <c r="AA2" s="92"/>
-      <c r="AB2" s="93"/>
+      <c r="Z2" s="87"/>
+      <c r="AA2" s="87"/>
+      <c r="AB2" s="88"/>
+      <c r="AC2" s="101"/>
+      <c r="AD2" s="101"/>
+      <c r="AE2" s="101"/>
+      <c r="AF2" s="101"/>
+      <c r="AG2" s="101"/>
+      <c r="AH2" s="101"/>
     </row>
-    <row r="3" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="94" t="s">
+    <row r="3" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="89" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="95"/>
-      <c r="C3" s="75" t="s">
+      <c r="B3" s="90"/>
+      <c r="C3" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="67" t="s">
+      <c r="D3" s="102" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="68" t="s">
+      <c r="E3" s="103" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="68" t="s">
+      <c r="F3" s="103" t="s">
         <v>32</v>
       </c>
-      <c r="G3" s="68" t="s">
+      <c r="G3" s="103" t="s">
         <v>33</v>
       </c>
-      <c r="H3" s="68" t="s">
+      <c r="H3" s="103" t="s">
         <v>34</v>
       </c>
-      <c r="I3" s="68" t="s">
+      <c r="I3" s="103" t="s">
         <v>31</v>
       </c>
-      <c r="J3" s="68" t="s">
+      <c r="J3" s="103" t="s">
         <v>32</v>
       </c>
-      <c r="K3" s="68" t="s">
+      <c r="K3" s="103" t="s">
         <v>33</v>
       </c>
-      <c r="L3" s="68" t="s">
+      <c r="L3" s="103" t="s">
         <v>34</v>
       </c>
-      <c r="M3" s="68" t="s">
+      <c r="M3" s="103" t="s">
         <v>35</v>
       </c>
-      <c r="N3" s="68" t="s">
+      <c r="N3" s="103" t="s">
         <v>36</v>
       </c>
-      <c r="O3" s="68" t="s">
+      <c r="O3" s="103" t="s">
         <v>37</v>
       </c>
-      <c r="P3" s="68" t="s">
+      <c r="P3" s="103" t="s">
         <v>38</v>
       </c>
-      <c r="Q3" s="68" t="s">
+      <c r="Q3" s="103" t="s">
         <v>39</v>
       </c>
-      <c r="R3" s="68" t="s">
+      <c r="R3" s="103" t="s">
         <v>40</v>
       </c>
-      <c r="S3" s="68" t="s">
+      <c r="S3" s="103" t="s">
         <v>41</v>
       </c>
-      <c r="T3" s="68" t="s">
+      <c r="T3" s="103" t="s">
         <v>42</v>
       </c>
-      <c r="U3" s="68" t="s">
+      <c r="U3" s="103" t="s">
         <v>43</v>
       </c>
-      <c r="V3" s="68" t="s">
+      <c r="V3" s="103" t="s">
         <v>44</v>
       </c>
-      <c r="W3" s="68" t="s">
+      <c r="W3" s="103" t="s">
         <v>45</v>
       </c>
-      <c r="X3" s="68" t="s">
+      <c r="X3" s="103" t="s">
         <v>46</v>
       </c>
-      <c r="Y3" s="68" t="s">
+      <c r="Y3" s="103" t="s">
         <v>35</v>
       </c>
-      <c r="Z3" s="68" t="s">
+      <c r="Z3" s="103" t="s">
         <v>36</v>
       </c>
-      <c r="AA3" s="68" t="s">
+      <c r="AA3" s="103" t="s">
         <v>37</v>
       </c>
-      <c r="AB3" s="69" t="s">
+      <c r="AB3" s="104" t="s">
         <v>47</v>
       </c>
+      <c r="AC3" s="101"/>
+      <c r="AD3" s="101"/>
+      <c r="AE3" s="101"/>
+      <c r="AF3" s="101"/>
+      <c r="AG3" s="101"/>
+      <c r="AH3" s="101"/>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A4" s="89">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A4" s="84">
         <v>1</v>
       </c>
-      <c r="B4" s="74" t="s">
+      <c r="B4" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="64"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="84"/>
-      <c r="I4" s="83"/>
-      <c r="J4" s="64"/>
-      <c r="K4" s="64"/>
-      <c r="L4" s="84"/>
-      <c r="M4" s="83"/>
-      <c r="N4" s="64"/>
-      <c r="O4" s="64"/>
-      <c r="P4" s="84"/>
-      <c r="Q4" s="83"/>
-      <c r="R4" s="64"/>
-      <c r="S4" s="64"/>
-      <c r="T4" s="84"/>
-      <c r="U4" s="83"/>
-      <c r="V4" s="64"/>
-      <c r="W4" s="64"/>
-      <c r="X4" s="84"/>
-      <c r="Y4" s="64"/>
-      <c r="Z4" s="64"/>
-      <c r="AA4" s="64"/>
-      <c r="AB4" s="74"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="63"/>
+      <c r="K4" s="63"/>
+      <c r="L4" s="79"/>
+      <c r="M4" s="78"/>
+      <c r="N4" s="63"/>
+      <c r="O4" s="63"/>
+      <c r="P4" s="79"/>
+      <c r="Q4" s="78"/>
+      <c r="R4" s="63"/>
+      <c r="S4" s="63"/>
+      <c r="T4" s="79"/>
+      <c r="U4" s="78"/>
+      <c r="V4" s="63"/>
+      <c r="W4" s="63"/>
+      <c r="X4" s="79"/>
+      <c r="Y4" s="63"/>
+      <c r="Z4" s="63"/>
+      <c r="AA4" s="63"/>
+      <c r="AB4" s="69"/>
+      <c r="AC4" s="101"/>
+      <c r="AD4" s="101"/>
+      <c r="AE4" s="101"/>
+      <c r="AF4" s="101"/>
+      <c r="AG4" s="101"/>
+      <c r="AH4" s="101"/>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A5" s="90"/>
-      <c r="B5" s="71"/>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A5" s="85"/>
+      <c r="B5" s="66"/>
       <c r="C5" s="61" t="s">
         <v>0</v>
       </c>
@@ -9138,42 +9168,54 @@
       <c r="Z5" s="19"/>
       <c r="AA5" s="19"/>
       <c r="AB5" s="20"/>
+      <c r="AC5" s="101"/>
+      <c r="AD5" s="101"/>
+      <c r="AE5" s="101"/>
+      <c r="AF5" s="101"/>
+      <c r="AG5" s="101"/>
+      <c r="AH5" s="101"/>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A6" s="90"/>
-      <c r="B6" s="71"/>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A6" s="85"/>
+      <c r="B6" s="66"/>
       <c r="C6" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="81"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="65"/>
-      <c r="G6" s="65"/>
-      <c r="H6" s="80"/>
-      <c r="I6" s="79"/>
-      <c r="J6" s="65"/>
-      <c r="K6" s="65"/>
-      <c r="L6" s="80"/>
-      <c r="M6" s="79"/>
-      <c r="N6" s="65"/>
-      <c r="O6" s="65"/>
-      <c r="P6" s="80"/>
-      <c r="Q6" s="79"/>
-      <c r="R6" s="65"/>
-      <c r="S6" s="65"/>
-      <c r="T6" s="80"/>
-      <c r="U6" s="79"/>
-      <c r="V6" s="65"/>
-      <c r="W6" s="65"/>
-      <c r="X6" s="80"/>
-      <c r="Y6" s="65"/>
-      <c r="Z6" s="65"/>
-      <c r="AA6" s="65"/>
-      <c r="AB6" s="71"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="74"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="64"/>
+      <c r="H6" s="75"/>
+      <c r="I6" s="74"/>
+      <c r="J6" s="64"/>
+      <c r="K6" s="64"/>
+      <c r="L6" s="75"/>
+      <c r="M6" s="74"/>
+      <c r="N6" s="64"/>
+      <c r="O6" s="64"/>
+      <c r="P6" s="75"/>
+      <c r="Q6" s="74"/>
+      <c r="R6" s="64"/>
+      <c r="S6" s="64"/>
+      <c r="T6" s="75"/>
+      <c r="U6" s="74"/>
+      <c r="V6" s="64"/>
+      <c r="W6" s="64"/>
+      <c r="X6" s="75"/>
+      <c r="Y6" s="64"/>
+      <c r="Z6" s="64"/>
+      <c r="AA6" s="64"/>
+      <c r="AB6" s="66"/>
+      <c r="AC6" s="101"/>
+      <c r="AD6" s="101"/>
+      <c r="AE6" s="101"/>
+      <c r="AF6" s="101"/>
+      <c r="AG6" s="101"/>
+      <c r="AH6" s="101"/>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A7" s="90"/>
-      <c r="B7" s="71"/>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A7" s="85"/>
+      <c r="B7" s="66"/>
       <c r="C7" s="61" t="s">
         <v>2</v>
       </c>
@@ -9202,44 +9244,56 @@
       <c r="Z7" s="19"/>
       <c r="AA7" s="19"/>
       <c r="AB7" s="20"/>
+      <c r="AC7" s="101"/>
+      <c r="AD7" s="101"/>
+      <c r="AE7" s="101"/>
+      <c r="AF7" s="101"/>
+      <c r="AG7" s="101"/>
+      <c r="AH7" s="101"/>
     </row>
-    <row r="8" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="91"/>
-      <c r="B8" s="76"/>
-      <c r="C8" s="77" t="s">
+    <row r="8" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="86"/>
+      <c r="B8" s="71"/>
+      <c r="C8" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="85"/>
-      <c r="E8" s="86"/>
-      <c r="F8" s="72"/>
-      <c r="G8" s="72"/>
-      <c r="H8" s="87"/>
-      <c r="I8" s="86"/>
-      <c r="J8" s="72"/>
-      <c r="K8" s="72"/>
-      <c r="L8" s="87"/>
-      <c r="M8" s="86"/>
-      <c r="N8" s="72"/>
-      <c r="O8" s="72"/>
-      <c r="P8" s="87"/>
-      <c r="Q8" s="86"/>
-      <c r="R8" s="72"/>
-      <c r="S8" s="72"/>
-      <c r="T8" s="87"/>
-      <c r="U8" s="86"/>
-      <c r="V8" s="72"/>
-      <c r="W8" s="72"/>
-      <c r="X8" s="87"/>
-      <c r="Y8" s="72"/>
-      <c r="Z8" s="72"/>
-      <c r="AA8" s="72"/>
-      <c r="AB8" s="76"/>
+      <c r="D8" s="80"/>
+      <c r="E8" s="81"/>
+      <c r="F8" s="67"/>
+      <c r="G8" s="67"/>
+      <c r="H8" s="82"/>
+      <c r="I8" s="81"/>
+      <c r="J8" s="67"/>
+      <c r="K8" s="67"/>
+      <c r="L8" s="82"/>
+      <c r="M8" s="81"/>
+      <c r="N8" s="67"/>
+      <c r="O8" s="67"/>
+      <c r="P8" s="82"/>
+      <c r="Q8" s="81"/>
+      <c r="R8" s="67"/>
+      <c r="S8" s="67"/>
+      <c r="T8" s="82"/>
+      <c r="U8" s="81"/>
+      <c r="V8" s="67"/>
+      <c r="W8" s="67"/>
+      <c r="X8" s="82"/>
+      <c r="Y8" s="67"/>
+      <c r="Z8" s="67"/>
+      <c r="AA8" s="67"/>
+      <c r="AB8" s="71"/>
+      <c r="AC8" s="101"/>
+      <c r="AD8" s="101"/>
+      <c r="AE8" s="101"/>
+      <c r="AF8" s="101"/>
+      <c r="AG8" s="101"/>
+      <c r="AH8" s="101"/>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A9" s="89">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A9" s="84">
         <v>2</v>
       </c>
-      <c r="B9" s="74" t="s">
+      <c r="B9" s="69" t="s">
         <v>23</v>
       </c>
       <c r="C9" s="15"/>
@@ -9268,43 +9322,55 @@
       <c r="Z9" s="29"/>
       <c r="AA9" s="29"/>
       <c r="AB9" s="31"/>
+      <c r="AC9" s="101"/>
+      <c r="AD9" s="101"/>
+      <c r="AE9" s="101"/>
+      <c r="AF9" s="101"/>
+      <c r="AG9" s="101"/>
+      <c r="AH9" s="101"/>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A10" s="90"/>
-      <c r="B10" s="71"/>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A10" s="85"/>
+      <c r="B10" s="66"/>
       <c r="C10" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="81"/>
-      <c r="E10" s="79"/>
-      <c r="F10" s="65"/>
-      <c r="G10" s="65"/>
-      <c r="H10" s="80"/>
-      <c r="I10" s="79"/>
-      <c r="J10" s="65"/>
-      <c r="K10" s="65"/>
-      <c r="L10" s="80"/>
-      <c r="M10" s="79"/>
-      <c r="N10" s="65"/>
-      <c r="O10" s="65"/>
-      <c r="P10" s="80"/>
-      <c r="Q10" s="79"/>
-      <c r="R10" s="65"/>
-      <c r="S10" s="65"/>
-      <c r="T10" s="80"/>
-      <c r="U10" s="79"/>
-      <c r="V10" s="65"/>
-      <c r="W10" s="65"/>
-      <c r="X10" s="80"/>
-      <c r="Y10" s="65"/>
-      <c r="Z10" s="65"/>
-      <c r="AA10" s="65"/>
-      <c r="AB10" s="71"/>
+      <c r="D10" s="76"/>
+      <c r="E10" s="74"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="64"/>
+      <c r="H10" s="75"/>
+      <c r="I10" s="74"/>
+      <c r="J10" s="64"/>
+      <c r="K10" s="64"/>
+      <c r="L10" s="75"/>
+      <c r="M10" s="74"/>
+      <c r="N10" s="64"/>
+      <c r="O10" s="64"/>
+      <c r="P10" s="75"/>
+      <c r="Q10" s="74"/>
+      <c r="R10" s="64"/>
+      <c r="S10" s="64"/>
+      <c r="T10" s="75"/>
+      <c r="U10" s="74"/>
+      <c r="V10" s="64"/>
+      <c r="W10" s="64"/>
+      <c r="X10" s="75"/>
+      <c r="Y10" s="64"/>
+      <c r="Z10" s="64"/>
+      <c r="AA10" s="64"/>
+      <c r="AB10" s="66"/>
+      <c r="AC10" s="101"/>
+      <c r="AD10" s="101"/>
+      <c r="AE10" s="101"/>
+      <c r="AF10" s="101"/>
+      <c r="AG10" s="101"/>
+      <c r="AH10" s="101"/>
     </row>
-    <row r="11" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="91"/>
-      <c r="B11" s="76"/>
-      <c r="C11" s="77" t="s">
+    <row r="11" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="86"/>
+      <c r="B11" s="71"/>
+      <c r="C11" s="72" t="s">
         <v>5</v>
       </c>
       <c r="D11" s="59"/>
@@ -9332,44 +9398,56 @@
       <c r="Z11" s="32"/>
       <c r="AA11" s="32"/>
       <c r="AB11" s="34"/>
+      <c r="AC11" s="101"/>
+      <c r="AD11" s="101"/>
+      <c r="AE11" s="101"/>
+      <c r="AF11" s="101"/>
+      <c r="AG11" s="101"/>
+      <c r="AH11" s="101"/>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A12" s="89">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A12" s="84">
         <v>3</v>
       </c>
-      <c r="B12" s="74" t="s">
+      <c r="B12" s="69" t="s">
         <v>24</v>
       </c>
       <c r="C12" s="15"/>
-      <c r="D12" s="82"/>
-      <c r="E12" s="83"/>
-      <c r="F12" s="64"/>
-      <c r="G12" s="64"/>
-      <c r="H12" s="84"/>
-      <c r="I12" s="83"/>
-      <c r="J12" s="64"/>
-      <c r="K12" s="64"/>
-      <c r="L12" s="84"/>
-      <c r="M12" s="83"/>
-      <c r="N12" s="64"/>
-      <c r="O12" s="64"/>
-      <c r="P12" s="84"/>
-      <c r="Q12" s="83"/>
-      <c r="R12" s="64"/>
-      <c r="S12" s="64"/>
-      <c r="T12" s="84"/>
-      <c r="U12" s="83"/>
-      <c r="V12" s="64"/>
-      <c r="W12" s="64"/>
-      <c r="X12" s="84"/>
-      <c r="Y12" s="64"/>
-      <c r="Z12" s="64"/>
-      <c r="AA12" s="64"/>
-      <c r="AB12" s="74"/>
+      <c r="D12" s="77"/>
+      <c r="E12" s="78"/>
+      <c r="F12" s="63"/>
+      <c r="G12" s="63"/>
+      <c r="H12" s="79"/>
+      <c r="I12" s="78"/>
+      <c r="J12" s="63"/>
+      <c r="K12" s="63"/>
+      <c r="L12" s="79"/>
+      <c r="M12" s="78"/>
+      <c r="N12" s="63"/>
+      <c r="O12" s="63"/>
+      <c r="P12" s="79"/>
+      <c r="Q12" s="78"/>
+      <c r="R12" s="63"/>
+      <c r="S12" s="63"/>
+      <c r="T12" s="79"/>
+      <c r="U12" s="78"/>
+      <c r="V12" s="63"/>
+      <c r="W12" s="63"/>
+      <c r="X12" s="79"/>
+      <c r="Y12" s="63"/>
+      <c r="Z12" s="63"/>
+      <c r="AA12" s="63"/>
+      <c r="AB12" s="69"/>
+      <c r="AC12" s="101"/>
+      <c r="AD12" s="101"/>
+      <c r="AE12" s="101"/>
+      <c r="AF12" s="101"/>
+      <c r="AG12" s="101"/>
+      <c r="AH12" s="101"/>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A13" s="90"/>
-      <c r="B13" s="71"/>
+    <row r="13" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A13" s="85"/>
+      <c r="B13" s="66"/>
       <c r="C13" s="61" t="s">
         <v>6</v>
       </c>
@@ -9398,43 +9476,55 @@
       <c r="Z13" s="19"/>
       <c r="AA13" s="19"/>
       <c r="AB13" s="20"/>
+      <c r="AC13" s="101"/>
+      <c r="AD13" s="101"/>
+      <c r="AE13" s="101"/>
+      <c r="AF13" s="101"/>
+      <c r="AG13" s="101"/>
+      <c r="AH13" s="101"/>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A14" s="90"/>
-      <c r="B14" s="71"/>
+    <row r="14" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A14" s="85"/>
+      <c r="B14" s="66"/>
       <c r="C14" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="81"/>
-      <c r="E14" s="79"/>
-      <c r="F14" s="65"/>
-      <c r="G14" s="65"/>
-      <c r="H14" s="80"/>
-      <c r="I14" s="79"/>
-      <c r="J14" s="65"/>
-      <c r="K14" s="65"/>
-      <c r="L14" s="80"/>
-      <c r="M14" s="79"/>
-      <c r="N14" s="65"/>
-      <c r="O14" s="65"/>
-      <c r="P14" s="80"/>
-      <c r="Q14" s="79"/>
-      <c r="R14" s="65"/>
-      <c r="S14" s="65"/>
-      <c r="T14" s="80"/>
-      <c r="U14" s="79"/>
-      <c r="V14" s="65"/>
-      <c r="W14" s="65"/>
-      <c r="X14" s="80"/>
-      <c r="Y14" s="65"/>
-      <c r="Z14" s="65"/>
-      <c r="AA14" s="65"/>
-      <c r="AB14" s="71"/>
+      <c r="D14" s="76"/>
+      <c r="E14" s="74"/>
+      <c r="F14" s="64"/>
+      <c r="G14" s="64"/>
+      <c r="H14" s="75"/>
+      <c r="I14" s="74"/>
+      <c r="J14" s="64"/>
+      <c r="K14" s="64"/>
+      <c r="L14" s="75"/>
+      <c r="M14" s="74"/>
+      <c r="N14" s="64"/>
+      <c r="O14" s="64"/>
+      <c r="P14" s="75"/>
+      <c r="Q14" s="74"/>
+      <c r="R14" s="64"/>
+      <c r="S14" s="64"/>
+      <c r="T14" s="75"/>
+      <c r="U14" s="74"/>
+      <c r="V14" s="64"/>
+      <c r="W14" s="64"/>
+      <c r="X14" s="75"/>
+      <c r="Y14" s="64"/>
+      <c r="Z14" s="64"/>
+      <c r="AA14" s="64"/>
+      <c r="AB14" s="66"/>
+      <c r="AC14" s="101"/>
+      <c r="AD14" s="101"/>
+      <c r="AE14" s="101"/>
+      <c r="AF14" s="101"/>
+      <c r="AG14" s="101"/>
+      <c r="AH14" s="101"/>
     </row>
-    <row r="15" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="91"/>
-      <c r="B15" s="76"/>
-      <c r="C15" s="78" t="s">
+    <row r="15" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="86"/>
+      <c r="B15" s="71"/>
+      <c r="C15" s="73" t="s">
         <v>48</v>
       </c>
       <c r="D15" s="59"/>
@@ -9462,44 +9552,56 @@
       <c r="Z15" s="32"/>
       <c r="AA15" s="32"/>
       <c r="AB15" s="34"/>
+      <c r="AC15" s="101"/>
+      <c r="AD15" s="101"/>
+      <c r="AE15" s="101"/>
+      <c r="AF15" s="101"/>
+      <c r="AG15" s="101"/>
+      <c r="AH15" s="101"/>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A16" s="89">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A16" s="84">
         <v>4</v>
       </c>
-      <c r="B16" s="74" t="s">
+      <c r="B16" s="69" t="s">
         <v>25</v>
       </c>
       <c r="C16" s="15"/>
-      <c r="D16" s="82"/>
-      <c r="E16" s="83"/>
-      <c r="F16" s="64"/>
-      <c r="G16" s="64"/>
-      <c r="H16" s="84"/>
-      <c r="I16" s="83"/>
-      <c r="J16" s="64"/>
-      <c r="K16" s="64"/>
-      <c r="L16" s="84"/>
-      <c r="M16" s="83"/>
-      <c r="N16" s="64"/>
-      <c r="O16" s="64"/>
-      <c r="P16" s="84"/>
-      <c r="Q16" s="83"/>
-      <c r="R16" s="64"/>
-      <c r="S16" s="64"/>
-      <c r="T16" s="84"/>
-      <c r="U16" s="83"/>
-      <c r="V16" s="64"/>
-      <c r="W16" s="64"/>
-      <c r="X16" s="84"/>
-      <c r="Y16" s="64"/>
-      <c r="Z16" s="64"/>
-      <c r="AA16" s="64"/>
-      <c r="AB16" s="74"/>
+      <c r="D16" s="77"/>
+      <c r="E16" s="78"/>
+      <c r="F16" s="63"/>
+      <c r="G16" s="63"/>
+      <c r="H16" s="79"/>
+      <c r="I16" s="78"/>
+      <c r="J16" s="63"/>
+      <c r="K16" s="63"/>
+      <c r="L16" s="79"/>
+      <c r="M16" s="78"/>
+      <c r="N16" s="63"/>
+      <c r="O16" s="63"/>
+      <c r="P16" s="79"/>
+      <c r="Q16" s="78"/>
+      <c r="R16" s="63"/>
+      <c r="S16" s="63"/>
+      <c r="T16" s="79"/>
+      <c r="U16" s="78"/>
+      <c r="V16" s="63"/>
+      <c r="W16" s="63"/>
+      <c r="X16" s="79"/>
+      <c r="Y16" s="63"/>
+      <c r="Z16" s="63"/>
+      <c r="AA16" s="63"/>
+      <c r="AB16" s="69"/>
+      <c r="AC16" s="101"/>
+      <c r="AD16" s="101"/>
+      <c r="AE16" s="101"/>
+      <c r="AF16" s="101"/>
+      <c r="AG16" s="101"/>
+      <c r="AH16" s="101"/>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A17" s="90"/>
-      <c r="B17" s="71"/>
+    <row r="17" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A17" s="85"/>
+      <c r="B17" s="66"/>
       <c r="C17" s="61" t="s">
         <v>8</v>
       </c>
@@ -9528,42 +9630,54 @@
       <c r="Z17" s="19"/>
       <c r="AA17" s="19"/>
       <c r="AB17" s="20"/>
+      <c r="AC17" s="101"/>
+      <c r="AD17" s="101"/>
+      <c r="AE17" s="101"/>
+      <c r="AF17" s="101"/>
+      <c r="AG17" s="101"/>
+      <c r="AH17" s="101"/>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A18" s="90"/>
-      <c r="B18" s="71"/>
+    <row r="18" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A18" s="85"/>
+      <c r="B18" s="66"/>
       <c r="C18" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="D18" s="81"/>
-      <c r="E18" s="79"/>
-      <c r="F18" s="65"/>
-      <c r="G18" s="65"/>
-      <c r="H18" s="80"/>
-      <c r="I18" s="79"/>
-      <c r="J18" s="65"/>
-      <c r="K18" s="65"/>
-      <c r="L18" s="80"/>
-      <c r="M18" s="79"/>
-      <c r="N18" s="65"/>
-      <c r="O18" s="65"/>
-      <c r="P18" s="80"/>
-      <c r="Q18" s="79"/>
-      <c r="R18" s="65"/>
-      <c r="S18" s="65"/>
-      <c r="T18" s="80"/>
-      <c r="U18" s="79"/>
-      <c r="V18" s="65"/>
-      <c r="W18" s="65"/>
-      <c r="X18" s="80"/>
-      <c r="Y18" s="65"/>
-      <c r="Z18" s="65"/>
-      <c r="AA18" s="65"/>
-      <c r="AB18" s="71"/>
+      <c r="D18" s="76"/>
+      <c r="E18" s="74"/>
+      <c r="F18" s="64"/>
+      <c r="G18" s="64"/>
+      <c r="H18" s="75"/>
+      <c r="I18" s="74"/>
+      <c r="J18" s="64"/>
+      <c r="K18" s="64"/>
+      <c r="L18" s="75"/>
+      <c r="M18" s="74"/>
+      <c r="N18" s="64"/>
+      <c r="O18" s="64"/>
+      <c r="P18" s="75"/>
+      <c r="Q18" s="74"/>
+      <c r="R18" s="64"/>
+      <c r="S18" s="64"/>
+      <c r="T18" s="75"/>
+      <c r="U18" s="74"/>
+      <c r="V18" s="64"/>
+      <c r="W18" s="64"/>
+      <c r="X18" s="75"/>
+      <c r="Y18" s="64"/>
+      <c r="Z18" s="64"/>
+      <c r="AA18" s="64"/>
+      <c r="AB18" s="66"/>
+      <c r="AC18" s="101"/>
+      <c r="AD18" s="101"/>
+      <c r="AE18" s="101"/>
+      <c r="AF18" s="101"/>
+      <c r="AG18" s="101"/>
+      <c r="AH18" s="101"/>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A19" s="90"/>
-      <c r="B19" s="71"/>
+    <row r="19" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A19" s="85"/>
+      <c r="B19" s="66"/>
       <c r="C19" s="61" t="s">
         <v>9</v>
       </c>
@@ -9592,42 +9706,54 @@
       <c r="Z19" s="19"/>
       <c r="AA19" s="19"/>
       <c r="AB19" s="20"/>
+      <c r="AC19" s="101"/>
+      <c r="AD19" s="101"/>
+      <c r="AE19" s="101"/>
+      <c r="AF19" s="101"/>
+      <c r="AG19" s="101"/>
+      <c r="AH19" s="101"/>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A20" s="90"/>
-      <c r="B20" s="71"/>
+    <row r="20" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A20" s="85"/>
+      <c r="B20" s="66"/>
       <c r="C20" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="D20" s="81"/>
-      <c r="E20" s="79"/>
-      <c r="F20" s="65"/>
-      <c r="G20" s="65"/>
-      <c r="H20" s="80"/>
-      <c r="I20" s="79"/>
-      <c r="J20" s="65"/>
-      <c r="K20" s="65"/>
-      <c r="L20" s="80"/>
-      <c r="M20" s="79"/>
-      <c r="N20" s="65"/>
-      <c r="O20" s="65"/>
-      <c r="P20" s="80"/>
-      <c r="Q20" s="79"/>
-      <c r="R20" s="65"/>
-      <c r="S20" s="65"/>
-      <c r="T20" s="80"/>
-      <c r="U20" s="79"/>
-      <c r="V20" s="65"/>
-      <c r="W20" s="65"/>
-      <c r="X20" s="80"/>
-      <c r="Y20" s="65"/>
-      <c r="Z20" s="65"/>
-      <c r="AA20" s="65"/>
-      <c r="AB20" s="71"/>
+      <c r="D20" s="76"/>
+      <c r="E20" s="74"/>
+      <c r="F20" s="64"/>
+      <c r="G20" s="64"/>
+      <c r="H20" s="75"/>
+      <c r="I20" s="74"/>
+      <c r="J20" s="64"/>
+      <c r="K20" s="64"/>
+      <c r="L20" s="75"/>
+      <c r="M20" s="74"/>
+      <c r="N20" s="64"/>
+      <c r="O20" s="64"/>
+      <c r="P20" s="75"/>
+      <c r="Q20" s="74"/>
+      <c r="R20" s="64"/>
+      <c r="S20" s="64"/>
+      <c r="T20" s="75"/>
+      <c r="U20" s="74"/>
+      <c r="V20" s="64"/>
+      <c r="W20" s="64"/>
+      <c r="X20" s="75"/>
+      <c r="Y20" s="64"/>
+      <c r="Z20" s="64"/>
+      <c r="AA20" s="64"/>
+      <c r="AB20" s="66"/>
+      <c r="AC20" s="101"/>
+      <c r="AD20" s="101"/>
+      <c r="AE20" s="101"/>
+      <c r="AF20" s="101"/>
+      <c r="AG20" s="101"/>
+      <c r="AH20" s="101"/>
     </row>
-    <row r="21" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="90"/>
-      <c r="B21" s="71"/>
+    <row r="21" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="85"/>
+      <c r="B21" s="66"/>
       <c r="C21" s="61" t="s">
         <v>11</v>
       </c>
@@ -9656,44 +9782,56 @@
       <c r="Z21" s="32"/>
       <c r="AA21" s="32"/>
       <c r="AB21" s="34"/>
+      <c r="AC21" s="101"/>
+      <c r="AD21" s="101"/>
+      <c r="AE21" s="101"/>
+      <c r="AF21" s="101"/>
+      <c r="AG21" s="101"/>
+      <c r="AH21" s="101"/>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A22" s="89">
+    <row r="22" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A22" s="84">
         <v>5</v>
       </c>
-      <c r="B22" s="74" t="s">
+      <c r="B22" s="69" t="s">
         <v>26</v>
       </c>
       <c r="C22" s="15"/>
-      <c r="D22" s="82"/>
-      <c r="E22" s="83"/>
-      <c r="F22" s="64"/>
-      <c r="G22" s="64"/>
-      <c r="H22" s="84"/>
-      <c r="I22" s="83"/>
-      <c r="J22" s="64"/>
-      <c r="K22" s="64"/>
-      <c r="L22" s="84"/>
-      <c r="M22" s="83"/>
-      <c r="N22" s="64"/>
-      <c r="O22" s="64"/>
-      <c r="P22" s="84"/>
-      <c r="Q22" s="83"/>
-      <c r="R22" s="64"/>
-      <c r="S22" s="64"/>
-      <c r="T22" s="84"/>
-      <c r="U22" s="83"/>
-      <c r="V22" s="64"/>
-      <c r="W22" s="64"/>
-      <c r="X22" s="84"/>
-      <c r="Y22" s="64"/>
-      <c r="Z22" s="64"/>
-      <c r="AA22" s="64"/>
-      <c r="AB22" s="74"/>
+      <c r="D22" s="77"/>
+      <c r="E22" s="78"/>
+      <c r="F22" s="63"/>
+      <c r="G22" s="63"/>
+      <c r="H22" s="79"/>
+      <c r="I22" s="78"/>
+      <c r="J22" s="63"/>
+      <c r="K22" s="63"/>
+      <c r="L22" s="79"/>
+      <c r="M22" s="78"/>
+      <c r="N22" s="63"/>
+      <c r="O22" s="63"/>
+      <c r="P22" s="79"/>
+      <c r="Q22" s="78"/>
+      <c r="R22" s="63"/>
+      <c r="S22" s="63"/>
+      <c r="T22" s="79"/>
+      <c r="U22" s="78"/>
+      <c r="V22" s="63"/>
+      <c r="W22" s="63"/>
+      <c r="X22" s="79"/>
+      <c r="Y22" s="63"/>
+      <c r="Z22" s="63"/>
+      <c r="AA22" s="63"/>
+      <c r="AB22" s="69"/>
+      <c r="AC22" s="101"/>
+      <c r="AD22" s="101"/>
+      <c r="AE22" s="101"/>
+      <c r="AF22" s="101"/>
+      <c r="AG22" s="101"/>
+      <c r="AH22" s="101"/>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A23" s="90"/>
-      <c r="B23" s="71"/>
+    <row r="23" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A23" s="85"/>
+      <c r="B23" s="66"/>
       <c r="C23" s="61" t="s">
         <v>53</v>
       </c>
@@ -9722,42 +9860,54 @@
       <c r="Z23" s="19"/>
       <c r="AA23" s="19"/>
       <c r="AB23" s="20"/>
+      <c r="AC23" s="101"/>
+      <c r="AD23" s="101"/>
+      <c r="AE23" s="101"/>
+      <c r="AF23" s="101"/>
+      <c r="AG23" s="101"/>
+      <c r="AH23" s="101"/>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A24" s="90"/>
-      <c r="B24" s="90"/>
+    <row r="24" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A24" s="85"/>
+      <c r="B24" s="85"/>
       <c r="C24" s="61" t="s">
         <v>56</v>
       </c>
-      <c r="D24" s="81"/>
-      <c r="E24" s="79"/>
-      <c r="F24" s="65"/>
-      <c r="G24" s="65"/>
-      <c r="H24" s="80"/>
-      <c r="I24" s="79"/>
-      <c r="J24" s="65"/>
-      <c r="K24" s="65"/>
-      <c r="L24" s="80"/>
-      <c r="M24" s="79"/>
-      <c r="N24" s="65"/>
-      <c r="O24" s="65"/>
-      <c r="P24" s="80"/>
-      <c r="Q24" s="79"/>
-      <c r="R24" s="65"/>
-      <c r="S24" s="65"/>
-      <c r="T24" s="80"/>
-      <c r="U24" s="79"/>
-      <c r="V24" s="65"/>
-      <c r="W24" s="65"/>
-      <c r="X24" s="80"/>
-      <c r="Y24" s="65"/>
-      <c r="Z24" s="65"/>
-      <c r="AA24" s="65"/>
-      <c r="AB24" s="71"/>
+      <c r="D24" s="76"/>
+      <c r="E24" s="74"/>
+      <c r="F24" s="64"/>
+      <c r="G24" s="64"/>
+      <c r="H24" s="75"/>
+      <c r="I24" s="74"/>
+      <c r="J24" s="64"/>
+      <c r="K24" s="64"/>
+      <c r="L24" s="75"/>
+      <c r="M24" s="74"/>
+      <c r="N24" s="64"/>
+      <c r="O24" s="64"/>
+      <c r="P24" s="75"/>
+      <c r="Q24" s="74"/>
+      <c r="R24" s="64"/>
+      <c r="S24" s="64"/>
+      <c r="T24" s="75"/>
+      <c r="U24" s="74"/>
+      <c r="V24" s="64"/>
+      <c r="W24" s="64"/>
+      <c r="X24" s="75"/>
+      <c r="Y24" s="64"/>
+      <c r="Z24" s="64"/>
+      <c r="AA24" s="64"/>
+      <c r="AB24" s="66"/>
+      <c r="AC24" s="101"/>
+      <c r="AD24" s="101"/>
+      <c r="AE24" s="101"/>
+      <c r="AF24" s="101"/>
+      <c r="AG24" s="101"/>
+      <c r="AH24" s="101"/>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A25" s="90"/>
-      <c r="B25" s="71"/>
+    <row r="25" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A25" s="85"/>
+      <c r="B25" s="66"/>
       <c r="C25" s="61" t="s">
         <v>54</v>
       </c>
@@ -9786,43 +9936,55 @@
       <c r="Z25" s="19"/>
       <c r="AA25" s="19"/>
       <c r="AB25" s="20"/>
+      <c r="AC25" s="101"/>
+      <c r="AD25" s="101"/>
+      <c r="AE25" s="101"/>
+      <c r="AF25" s="101"/>
+      <c r="AG25" s="101"/>
+      <c r="AH25" s="101"/>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A26" s="90"/>
-      <c r="B26" s="71"/>
+    <row r="26" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A26" s="85"/>
+      <c r="B26" s="66"/>
       <c r="C26" s="62" t="s">
         <v>50</v>
       </c>
-      <c r="D26" s="81"/>
-      <c r="E26" s="79"/>
-      <c r="F26" s="65"/>
-      <c r="G26" s="65"/>
-      <c r="H26" s="80"/>
-      <c r="I26" s="79"/>
-      <c r="J26" s="65"/>
-      <c r="K26" s="65"/>
-      <c r="L26" s="80"/>
-      <c r="M26" s="79"/>
-      <c r="N26" s="65"/>
-      <c r="O26" s="65"/>
-      <c r="P26" s="80"/>
-      <c r="Q26" s="79"/>
-      <c r="R26" s="65"/>
-      <c r="S26" s="65"/>
-      <c r="T26" s="80"/>
-      <c r="U26" s="79"/>
-      <c r="V26" s="65"/>
-      <c r="W26" s="65"/>
-      <c r="X26" s="80"/>
-      <c r="Y26" s="65"/>
-      <c r="Z26" s="65"/>
-      <c r="AA26" s="65"/>
-      <c r="AB26" s="71"/>
+      <c r="D26" s="76"/>
+      <c r="E26" s="74"/>
+      <c r="F26" s="64"/>
+      <c r="G26" s="64"/>
+      <c r="H26" s="75"/>
+      <c r="I26" s="74"/>
+      <c r="J26" s="64"/>
+      <c r="K26" s="64"/>
+      <c r="L26" s="75"/>
+      <c r="M26" s="74"/>
+      <c r="N26" s="64"/>
+      <c r="O26" s="64"/>
+      <c r="P26" s="75"/>
+      <c r="Q26" s="74"/>
+      <c r="R26" s="64"/>
+      <c r="S26" s="64"/>
+      <c r="T26" s="75"/>
+      <c r="U26" s="74"/>
+      <c r="V26" s="64"/>
+      <c r="W26" s="64"/>
+      <c r="X26" s="75"/>
+      <c r="Y26" s="64"/>
+      <c r="Z26" s="64"/>
+      <c r="AA26" s="64"/>
+      <c r="AB26" s="66"/>
+      <c r="AC26" s="101"/>
+      <c r="AD26" s="101"/>
+      <c r="AE26" s="101"/>
+      <c r="AF26" s="101"/>
+      <c r="AG26" s="101"/>
+      <c r="AH26" s="101"/>
     </row>
-    <row r="27" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="91"/>
-      <c r="B27" s="76"/>
-      <c r="C27" s="78" t="s">
+    <row r="27" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="86"/>
+      <c r="B27" s="71"/>
+      <c r="C27" s="73" t="s">
         <v>52</v>
       </c>
       <c r="D27" s="55"/>
@@ -9850,43 +10012,55 @@
       <c r="Z27" s="19"/>
       <c r="AA27" s="19"/>
       <c r="AB27" s="20"/>
+      <c r="AC27" s="101"/>
+      <c r="AD27" s="101"/>
+      <c r="AE27" s="101"/>
+      <c r="AF27" s="101"/>
+      <c r="AG27" s="101"/>
+      <c r="AH27" s="101"/>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A28" s="89">
+    <row r="28" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A28" s="84">
         <v>6</v>
       </c>
-      <c r="B28" s="74" t="s">
+      <c r="B28" s="69" t="s">
         <v>27</v>
       </c>
-      <c r="D28" s="82"/>
-      <c r="E28" s="83"/>
-      <c r="F28" s="64"/>
-      <c r="G28" s="64"/>
-      <c r="H28" s="84"/>
-      <c r="I28" s="83"/>
-      <c r="J28" s="64"/>
-      <c r="K28" s="64"/>
-      <c r="L28" s="84"/>
-      <c r="M28" s="83"/>
-      <c r="N28" s="64"/>
-      <c r="O28" s="64"/>
-      <c r="P28" s="84"/>
-      <c r="Q28" s="83"/>
-      <c r="R28" s="64"/>
-      <c r="S28" s="64"/>
-      <c r="T28" s="84"/>
-      <c r="U28" s="83"/>
-      <c r="V28" s="64"/>
-      <c r="W28" s="64"/>
-      <c r="X28" s="84"/>
-      <c r="Y28" s="64"/>
-      <c r="Z28" s="64"/>
-      <c r="AA28" s="64"/>
-      <c r="AB28" s="74"/>
+      <c r="D28" s="77"/>
+      <c r="E28" s="78"/>
+      <c r="F28" s="63"/>
+      <c r="G28" s="63"/>
+      <c r="H28" s="79"/>
+      <c r="I28" s="78"/>
+      <c r="J28" s="63"/>
+      <c r="K28" s="63"/>
+      <c r="L28" s="79"/>
+      <c r="M28" s="78"/>
+      <c r="N28" s="63"/>
+      <c r="O28" s="63"/>
+      <c r="P28" s="79"/>
+      <c r="Q28" s="78"/>
+      <c r="R28" s="63"/>
+      <c r="S28" s="63"/>
+      <c r="T28" s="79"/>
+      <c r="U28" s="78"/>
+      <c r="V28" s="63"/>
+      <c r="W28" s="63"/>
+      <c r="X28" s="79"/>
+      <c r="Y28" s="63"/>
+      <c r="Z28" s="63"/>
+      <c r="AA28" s="63"/>
+      <c r="AB28" s="69"/>
+      <c r="AC28" s="101"/>
+      <c r="AD28" s="101"/>
+      <c r="AE28" s="101"/>
+      <c r="AF28" s="101"/>
+      <c r="AG28" s="101"/>
+      <c r="AH28" s="101"/>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A29" s="90"/>
-      <c r="B29" s="90"/>
+    <row r="29" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A29" s="85"/>
+      <c r="B29" s="85"/>
       <c r="C29" s="61" t="s">
         <v>12</v>
       </c>
@@ -9915,42 +10089,54 @@
       <c r="Z29" s="19"/>
       <c r="AA29" s="19"/>
       <c r="AB29" s="20"/>
+      <c r="AC29" s="101"/>
+      <c r="AD29" s="101"/>
+      <c r="AE29" s="101"/>
+      <c r="AF29" s="101"/>
+      <c r="AG29" s="101"/>
+      <c r="AH29" s="101"/>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A30" s="90"/>
-      <c r="B30" s="90"/>
+    <row r="30" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A30" s="85"/>
+      <c r="B30" s="85"/>
       <c r="C30" s="61" t="s">
         <v>55</v>
       </c>
-      <c r="D30" s="81"/>
-      <c r="E30" s="79"/>
-      <c r="F30" s="65"/>
-      <c r="G30" s="65"/>
-      <c r="H30" s="80"/>
-      <c r="I30" s="79"/>
-      <c r="J30" s="65"/>
-      <c r="K30" s="65"/>
-      <c r="L30" s="80"/>
-      <c r="M30" s="79"/>
-      <c r="N30" s="65"/>
-      <c r="O30" s="65"/>
-      <c r="P30" s="80"/>
-      <c r="Q30" s="79"/>
-      <c r="R30" s="65"/>
-      <c r="S30" s="65"/>
-      <c r="T30" s="80"/>
-      <c r="U30" s="79"/>
-      <c r="V30" s="65"/>
-      <c r="W30" s="65"/>
-      <c r="X30" s="80"/>
-      <c r="Y30" s="65"/>
-      <c r="Z30" s="65"/>
-      <c r="AA30" s="65"/>
-      <c r="AB30" s="71"/>
+      <c r="D30" s="76"/>
+      <c r="E30" s="74"/>
+      <c r="F30" s="64"/>
+      <c r="G30" s="64"/>
+      <c r="H30" s="75"/>
+      <c r="I30" s="74"/>
+      <c r="J30" s="64"/>
+      <c r="K30" s="64"/>
+      <c r="L30" s="75"/>
+      <c r="M30" s="74"/>
+      <c r="N30" s="64"/>
+      <c r="O30" s="64"/>
+      <c r="P30" s="75"/>
+      <c r="Q30" s="74"/>
+      <c r="R30" s="64"/>
+      <c r="S30" s="64"/>
+      <c r="T30" s="75"/>
+      <c r="U30" s="74"/>
+      <c r="V30" s="64"/>
+      <c r="W30" s="64"/>
+      <c r="X30" s="75"/>
+      <c r="Y30" s="64"/>
+      <c r="Z30" s="64"/>
+      <c r="AA30" s="64"/>
+      <c r="AB30" s="66"/>
+      <c r="AC30" s="101"/>
+      <c r="AD30" s="101"/>
+      <c r="AE30" s="101"/>
+      <c r="AF30" s="101"/>
+      <c r="AG30" s="101"/>
+      <c r="AH30" s="101"/>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A31" s="90"/>
-      <c r="B31" s="71"/>
+    <row r="31" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A31" s="85"/>
+      <c r="B31" s="66"/>
       <c r="C31" s="61" t="s">
         <v>57</v>
       </c>
@@ -9979,202 +10165,236 @@
       <c r="Z31" s="19"/>
       <c r="AA31" s="19"/>
       <c r="AB31" s="20"/>
+      <c r="AC31" s="101"/>
+      <c r="AD31" s="101"/>
+      <c r="AE31" s="101"/>
+      <c r="AF31" s="101"/>
+      <c r="AG31" s="101"/>
+      <c r="AH31" s="101"/>
     </row>
-    <row r="32" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="88"/>
-      <c r="B32" s="76"/>
-      <c r="C32" s="73" t="s">
+    <row r="32" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="83"/>
+      <c r="B32" s="71"/>
+      <c r="C32" s="68" t="s">
         <v>51</v>
       </c>
-      <c r="D32" s="85"/>
-      <c r="E32" s="86"/>
-      <c r="F32" s="72"/>
-      <c r="G32" s="72"/>
-      <c r="H32" s="87"/>
-      <c r="I32" s="86"/>
-      <c r="J32" s="72"/>
-      <c r="K32" s="72"/>
-      <c r="L32" s="87"/>
-      <c r="M32" s="86"/>
-      <c r="N32" s="72"/>
-      <c r="O32" s="72"/>
-      <c r="P32" s="87"/>
-      <c r="Q32" s="86"/>
-      <c r="R32" s="72"/>
-      <c r="S32" s="72"/>
-      <c r="T32" s="87"/>
-      <c r="U32" s="86"/>
-      <c r="V32" s="72"/>
-      <c r="W32" s="72"/>
-      <c r="X32" s="87"/>
-      <c r="Y32" s="72"/>
-      <c r="Z32" s="72"/>
-      <c r="AA32" s="72"/>
-      <c r="AB32" s="76"/>
+      <c r="D32" s="80"/>
+      <c r="E32" s="81"/>
+      <c r="F32" s="67"/>
+      <c r="G32" s="67"/>
+      <c r="H32" s="82"/>
+      <c r="I32" s="81"/>
+      <c r="J32" s="67"/>
+      <c r="K32" s="67"/>
+      <c r="L32" s="82"/>
+      <c r="M32" s="81"/>
+      <c r="N32" s="67"/>
+      <c r="O32" s="67"/>
+      <c r="P32" s="82"/>
+      <c r="Q32" s="81"/>
+      <c r="R32" s="67"/>
+      <c r="S32" s="67"/>
+      <c r="T32" s="82"/>
+      <c r="U32" s="81"/>
+      <c r="V32" s="67"/>
+      <c r="W32" s="67"/>
+      <c r="X32" s="82"/>
+      <c r="Y32" s="67"/>
+      <c r="Z32" s="67"/>
+      <c r="AA32" s="67"/>
+      <c r="AB32" s="71"/>
+      <c r="AC32" s="101"/>
+      <c r="AD32" s="101"/>
+      <c r="AE32" s="101"/>
+      <c r="AF32" s="101"/>
+      <c r="AG32" s="101"/>
+      <c r="AH32" s="101"/>
     </row>
-    <row r="38" spans="4:28" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="39" spans="4:28" x14ac:dyDescent="0.3">
-      <c r="D39" s="58"/>
-      <c r="E39" s="43"/>
-      <c r="F39" s="29"/>
-      <c r="G39" s="29"/>
-      <c r="H39" s="44"/>
-      <c r="I39" s="43"/>
-      <c r="J39" s="29"/>
-      <c r="K39" s="29"/>
-      <c r="L39" s="44"/>
-      <c r="M39" s="43"/>
-      <c r="N39" s="29"/>
-      <c r="O39" s="29"/>
-      <c r="P39" s="44"/>
-      <c r="Q39" s="43"/>
-      <c r="R39" s="29"/>
-      <c r="S39" s="29"/>
-      <c r="T39" s="44"/>
-      <c r="U39" s="43"/>
-      <c r="V39" s="29"/>
-      <c r="W39" s="29"/>
-      <c r="X39" s="44"/>
-      <c r="Y39" s="29"/>
-      <c r="Z39" s="29"/>
-      <c r="AA39" s="29"/>
-      <c r="AB39" s="31"/>
+    <row r="33" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A33" s="101"/>
+      <c r="B33" s="101"/>
+      <c r="C33" s="101"/>
+      <c r="D33" s="101"/>
+      <c r="E33" s="101"/>
+      <c r="F33" s="101"/>
+      <c r="G33" s="101"/>
+      <c r="H33" s="101"/>
+      <c r="I33" s="101"/>
+      <c r="J33" s="101"/>
+      <c r="K33" s="101"/>
+      <c r="L33" s="101"/>
+      <c r="M33" s="101"/>
+      <c r="N33" s="101"/>
+      <c r="O33" s="101"/>
+      <c r="P33" s="101"/>
+      <c r="Q33" s="101"/>
+      <c r="R33" s="101"/>
+      <c r="S33" s="101"/>
+      <c r="T33" s="101"/>
+      <c r="U33" s="101"/>
+      <c r="V33" s="101"/>
+      <c r="W33" s="101"/>
+      <c r="X33" s="101"/>
+      <c r="Y33" s="101"/>
+      <c r="Z33" s="101"/>
+      <c r="AA33" s="101"/>
+      <c r="AB33" s="101"/>
+      <c r="AC33" s="101"/>
+      <c r="AD33" s="101"/>
+      <c r="AE33" s="101"/>
+      <c r="AF33" s="101"/>
+      <c r="AG33" s="101"/>
+      <c r="AH33" s="101"/>
     </row>
-    <row r="40" spans="4:28" x14ac:dyDescent="0.3">
-      <c r="D40" s="55"/>
-      <c r="E40" s="41"/>
-      <c r="F40" s="19"/>
-      <c r="G40" s="19"/>
-      <c r="H40" s="42"/>
-      <c r="I40" s="41"/>
-      <c r="J40" s="19"/>
-      <c r="K40" s="19"/>
-      <c r="L40" s="42"/>
-      <c r="M40" s="41"/>
-      <c r="N40" s="19"/>
-      <c r="O40" s="19"/>
-      <c r="P40" s="42"/>
-      <c r="Q40" s="41"/>
-      <c r="R40" s="19"/>
-      <c r="S40" s="19"/>
-      <c r="T40" s="42"/>
-      <c r="U40" s="41"/>
-      <c r="V40" s="19"/>
-      <c r="W40" s="19"/>
-      <c r="X40" s="42"/>
-      <c r="Y40" s="19"/>
-      <c r="Z40" s="19"/>
-      <c r="AA40" s="19"/>
-      <c r="AB40" s="20"/>
+    <row r="34" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A34" s="101"/>
+      <c r="B34" s="101"/>
+      <c r="C34" s="101"/>
+      <c r="D34" s="101"/>
+      <c r="E34" s="101"/>
+      <c r="F34" s="101"/>
+      <c r="G34" s="101"/>
+      <c r="H34" s="101"/>
+      <c r="I34" s="101"/>
+      <c r="J34" s="101"/>
+      <c r="K34" s="101"/>
+      <c r="L34" s="101"/>
+      <c r="M34" s="101"/>
+      <c r="N34" s="101"/>
+      <c r="O34" s="101"/>
+      <c r="P34" s="101"/>
+      <c r="Q34" s="101"/>
+      <c r="R34" s="101"/>
+      <c r="S34" s="101"/>
+      <c r="T34" s="101"/>
+      <c r="U34" s="101"/>
+      <c r="V34" s="101"/>
+      <c r="W34" s="101"/>
+      <c r="X34" s="101"/>
+      <c r="Y34" s="101"/>
+      <c r="Z34" s="101"/>
+      <c r="AA34" s="101"/>
+      <c r="AB34" s="101"/>
+      <c r="AC34" s="101"/>
+      <c r="AD34" s="101"/>
+      <c r="AE34" s="101"/>
+      <c r="AF34" s="101"/>
+      <c r="AG34" s="101"/>
+      <c r="AH34" s="101"/>
     </row>
-    <row r="41" spans="4:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D41" s="59"/>
-      <c r="E41" s="45"/>
-      <c r="F41" s="32"/>
-      <c r="G41" s="32"/>
-      <c r="H41" s="46"/>
-      <c r="I41" s="45"/>
-      <c r="J41" s="32"/>
-      <c r="K41" s="32"/>
-      <c r="L41" s="46"/>
-      <c r="M41" s="45"/>
-      <c r="N41" s="32"/>
-      <c r="O41" s="32"/>
-      <c r="P41" s="46"/>
-      <c r="Q41" s="45"/>
-      <c r="R41" s="32"/>
-      <c r="S41" s="32"/>
-      <c r="T41" s="46"/>
-      <c r="U41" s="45"/>
-      <c r="V41" s="32"/>
-      <c r="W41" s="32"/>
-      <c r="X41" s="46"/>
-      <c r="Y41" s="32"/>
-      <c r="Z41" s="32"/>
-      <c r="AA41" s="32"/>
-      <c r="AB41" s="34"/>
+    <row r="35" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A35" s="101"/>
+      <c r="B35" s="101"/>
+      <c r="C35" s="101"/>
+      <c r="D35" s="101"/>
+      <c r="E35" s="101"/>
+      <c r="F35" s="101"/>
+      <c r="G35" s="101"/>
+      <c r="H35" s="101"/>
+      <c r="I35" s="101"/>
+      <c r="J35" s="101"/>
+      <c r="K35" s="101"/>
+      <c r="L35" s="101"/>
+      <c r="M35" s="101"/>
+      <c r="N35" s="101"/>
+      <c r="O35" s="101"/>
+      <c r="P35" s="101"/>
+      <c r="Q35" s="101"/>
+      <c r="R35" s="101"/>
+      <c r="S35" s="101"/>
+      <c r="T35" s="101"/>
+      <c r="U35" s="101"/>
+      <c r="V35" s="101"/>
+      <c r="W35" s="101"/>
+      <c r="X35" s="101"/>
+      <c r="Y35" s="101"/>
+      <c r="Z35" s="101"/>
+      <c r="AA35" s="101"/>
+      <c r="AB35" s="101"/>
+      <c r="AC35" s="101"/>
+      <c r="AD35" s="101"/>
     </row>
-    <row r="44" spans="4:28" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="45" spans="4:28" x14ac:dyDescent="0.3">
-      <c r="D45" s="82"/>
-      <c r="E45" s="83"/>
-      <c r="F45" s="64"/>
-      <c r="G45" s="64"/>
-      <c r="H45" s="84"/>
-      <c r="I45" s="83"/>
-      <c r="J45" s="64"/>
-      <c r="K45" s="64"/>
-      <c r="L45" s="84"/>
-      <c r="M45" s="83"/>
-      <c r="N45" s="64"/>
-      <c r="O45" s="64"/>
-      <c r="P45" s="84"/>
-      <c r="Q45" s="83"/>
-      <c r="R45" s="64"/>
-      <c r="S45" s="64"/>
-      <c r="T45" s="84"/>
-      <c r="U45" s="83"/>
-      <c r="V45" s="64"/>
-      <c r="W45" s="64"/>
-      <c r="X45" s="84"/>
-      <c r="Y45" s="64"/>
-      <c r="Z45" s="64"/>
-      <c r="AA45" s="64"/>
-      <c r="AB45" s="74"/>
+    <row r="36" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A36" s="101"/>
+      <c r="B36" s="101"/>
+      <c r="C36" s="101"/>
+      <c r="D36" s="101"/>
+      <c r="E36" s="101"/>
+      <c r="F36" s="101"/>
+      <c r="G36" s="101"/>
+      <c r="H36" s="101"/>
+      <c r="I36" s="101"/>
+      <c r="J36" s="101"/>
+      <c r="K36" s="101"/>
+      <c r="L36" s="101"/>
+      <c r="M36" s="101"/>
+      <c r="N36" s="101"/>
+      <c r="O36" s="101"/>
+      <c r="P36" s="101"/>
+      <c r="Q36" s="101"/>
+      <c r="R36" s="101"/>
+      <c r="S36" s="101"/>
+      <c r="T36" s="101"/>
+      <c r="U36" s="101"/>
+      <c r="V36" s="101"/>
+      <c r="W36" s="101"/>
+      <c r="X36" s="101"/>
+      <c r="Y36" s="101"/>
+      <c r="Z36" s="101"/>
+      <c r="AA36" s="101"/>
+      <c r="AB36" s="101"/>
+      <c r="AC36" s="101"/>
+      <c r="AD36" s="101"/>
     </row>
-    <row r="46" spans="4:28" x14ac:dyDescent="0.3">
-      <c r="D46" s="81"/>
-      <c r="E46" s="79"/>
-      <c r="F46" s="65"/>
-      <c r="G46" s="65"/>
-      <c r="H46" s="80"/>
-      <c r="I46" s="79"/>
-      <c r="J46" s="65"/>
-      <c r="K46" s="65"/>
-      <c r="L46" s="80"/>
-      <c r="M46" s="79"/>
-      <c r="N46" s="65"/>
-      <c r="O46" s="65"/>
-      <c r="P46" s="80"/>
-      <c r="Q46" s="79"/>
-      <c r="R46" s="65"/>
-      <c r="S46" s="65"/>
-      <c r="T46" s="80"/>
-      <c r="U46" s="79"/>
-      <c r="V46" s="65"/>
-      <c r="W46" s="65"/>
-      <c r="X46" s="80"/>
-      <c r="Y46" s="65"/>
-      <c r="Z46" s="65"/>
-      <c r="AA46" s="65"/>
-      <c r="AB46" s="71"/>
+    <row r="37" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="D37" s="101"/>
+      <c r="E37" s="101"/>
+      <c r="F37" s="101"/>
     </row>
-    <row r="47" spans="4:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D47" s="85"/>
-      <c r="E47" s="86"/>
-      <c r="F47" s="72"/>
-      <c r="G47" s="72"/>
-      <c r="H47" s="87"/>
-      <c r="I47" s="86"/>
-      <c r="J47" s="72"/>
-      <c r="K47" s="72"/>
-      <c r="L47" s="87"/>
-      <c r="M47" s="86"/>
-      <c r="N47" s="72"/>
-      <c r="O47" s="72"/>
-      <c r="P47" s="87"/>
-      <c r="Q47" s="86"/>
-      <c r="R47" s="72"/>
-      <c r="S47" s="72"/>
-      <c r="T47" s="87"/>
-      <c r="U47" s="86"/>
-      <c r="V47" s="72"/>
-      <c r="W47" s="72"/>
-      <c r="X47" s="87"/>
-      <c r="Y47" s="72"/>
-      <c r="Z47" s="72"/>
-      <c r="AA47" s="72"/>
-      <c r="AB47" s="76"/>
+    <row r="38" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="D38" s="101"/>
+      <c r="E38" s="101"/>
+      <c r="F38" s="101"/>
+    </row>
+    <row r="39" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="U39" s="101"/>
+      <c r="V39" s="101"/>
+      <c r="W39" s="101"/>
+      <c r="X39" s="101"/>
+      <c r="Y39" s="101"/>
+      <c r="Z39" s="101"/>
+    </row>
+    <row r="40" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="K40" s="101"/>
+      <c r="L40" s="101"/>
+      <c r="M40" s="101"/>
+      <c r="N40" s="101"/>
+      <c r="U40" s="101"/>
+      <c r="V40" s="101"/>
+      <c r="W40" s="101"/>
+      <c r="X40" s="101"/>
+      <c r="Y40" s="101"/>
+      <c r="Z40" s="101"/>
+    </row>
+    <row r="41" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="K41" s="101"/>
+      <c r="L41" s="101"/>
+      <c r="M41" s="101"/>
+      <c r="N41" s="101"/>
+      <c r="U41" s="101"/>
+      <c r="V41" s="101"/>
+      <c r="W41" s="101"/>
+      <c r="X41" s="101"/>
+      <c r="Y41" s="101"/>
+      <c r="Z41" s="101"/>
+    </row>
+    <row r="42" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="U42" s="101"/>
+      <c r="V42" s="101"/>
+      <c r="W42" s="101"/>
+      <c r="X42" s="101"/>
+      <c r="Y42" s="101"/>
+      <c r="Z42" s="101"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -10186,18 +10406,18 @@
     <mergeCell ref="M2:P2"/>
     <mergeCell ref="Q2:T2"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="8" scale="29" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4073A69-2378-42F9-B3AE-7E0E463740AF}">
-  <dimension ref="A1:AB24"/>
+  <dimension ref="A1:AC56"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="W17" sqref="W17"/>
+    <sheetView topLeftCell="C27" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45:AD56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10214,42 +10434,42 @@
       <c r="D1" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="99" t="s">
+      <c r="E1" s="94" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="103" t="s">
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="98" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="104"/>
-      <c r="K1" s="104"/>
-      <c r="L1" s="105"/>
-      <c r="M1" s="99" t="s">
+      <c r="J1" s="99"/>
+      <c r="K1" s="99"/>
+      <c r="L1" s="100"/>
+      <c r="M1" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="N1" s="99"/>
-      <c r="O1" s="99"/>
-      <c r="P1" s="99"/>
-      <c r="Q1" s="99" t="s">
+      <c r="N1" s="94"/>
+      <c r="O1" s="94"/>
+      <c r="P1" s="94"/>
+      <c r="Q1" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="R1" s="99"/>
-      <c r="S1" s="99"/>
-      <c r="T1" s="99"/>
-      <c r="U1" s="99" t="s">
+      <c r="R1" s="94"/>
+      <c r="S1" s="94"/>
+      <c r="T1" s="94"/>
+      <c r="U1" s="94" t="s">
         <v>18</v>
       </c>
-      <c r="V1" s="99"/>
-      <c r="W1" s="99"/>
-      <c r="X1" s="99"/>
-      <c r="Y1" s="99" t="s">
+      <c r="V1" s="94"/>
+      <c r="W1" s="94"/>
+      <c r="X1" s="94"/>
+      <c r="Y1" s="94" t="s">
         <v>19</v>
       </c>
-      <c r="Z1" s="99"/>
-      <c r="AA1" s="99"/>
-      <c r="AB1" s="100"/>
+      <c r="Z1" s="94"/>
+      <c r="AA1" s="94"/>
+      <c r="AB1" s="95"/>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="D2" s="53" t="s">
@@ -10329,10 +10549,10 @@
       </c>
     </row>
     <row r="3" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="101" t="s">
+      <c r="A3" s="96" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="102"/>
+      <c r="B3" s="97"/>
       <c r="C3" s="51" t="s">
         <v>28</v>
       </c>
@@ -10974,6 +11194,170 @@
       <c r="AA24" s="37"/>
       <c r="AB24" s="26"/>
     </row>
+    <row r="47" spans="5:29" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="48" spans="5:29" x14ac:dyDescent="0.3">
+      <c r="E48" s="58"/>
+      <c r="F48" s="43"/>
+      <c r="G48" s="29"/>
+      <c r="H48" s="29"/>
+      <c r="I48" s="44"/>
+      <c r="J48" s="43"/>
+      <c r="K48" s="29"/>
+      <c r="L48" s="29"/>
+      <c r="M48" s="44"/>
+      <c r="N48" s="43"/>
+      <c r="O48" s="29"/>
+      <c r="P48" s="29"/>
+      <c r="Q48" s="44"/>
+      <c r="R48" s="43"/>
+      <c r="S48" s="29"/>
+      <c r="T48" s="29"/>
+      <c r="U48" s="44"/>
+      <c r="V48" s="43"/>
+      <c r="W48" s="29"/>
+      <c r="X48" s="29"/>
+      <c r="Y48" s="44"/>
+      <c r="Z48" s="29"/>
+      <c r="AA48" s="29"/>
+      <c r="AB48" s="29"/>
+      <c r="AC48" s="31"/>
+    </row>
+    <row r="49" spans="5:29" x14ac:dyDescent="0.3">
+      <c r="E49" s="55"/>
+      <c r="F49" s="41"/>
+      <c r="G49" s="19"/>
+      <c r="H49" s="19"/>
+      <c r="I49" s="42"/>
+      <c r="J49" s="41"/>
+      <c r="K49" s="19"/>
+      <c r="L49" s="19"/>
+      <c r="M49" s="42"/>
+      <c r="N49" s="41"/>
+      <c r="O49" s="19"/>
+      <c r="P49" s="19"/>
+      <c r="Q49" s="42"/>
+      <c r="R49" s="41"/>
+      <c r="S49" s="19"/>
+      <c r="T49" s="19"/>
+      <c r="U49" s="42"/>
+      <c r="V49" s="41"/>
+      <c r="W49" s="19"/>
+      <c r="X49" s="19"/>
+      <c r="Y49" s="42"/>
+      <c r="Z49" s="19"/>
+      <c r="AA49" s="19"/>
+      <c r="AB49" s="19"/>
+      <c r="AC49" s="20"/>
+    </row>
+    <row r="50" spans="5:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E50" s="59"/>
+      <c r="F50" s="45"/>
+      <c r="G50" s="32"/>
+      <c r="H50" s="32"/>
+      <c r="I50" s="46"/>
+      <c r="J50" s="45"/>
+      <c r="K50" s="32"/>
+      <c r="L50" s="32"/>
+      <c r="M50" s="46"/>
+      <c r="N50" s="45"/>
+      <c r="O50" s="32"/>
+      <c r="P50" s="32"/>
+      <c r="Q50" s="46"/>
+      <c r="R50" s="45"/>
+      <c r="S50" s="32"/>
+      <c r="T50" s="32"/>
+      <c r="U50" s="46"/>
+      <c r="V50" s="45"/>
+      <c r="W50" s="32"/>
+      <c r="X50" s="32"/>
+      <c r="Y50" s="46"/>
+      <c r="Z50" s="32"/>
+      <c r="AA50" s="32"/>
+      <c r="AB50" s="32"/>
+      <c r="AC50" s="34"/>
+    </row>
+    <row r="53" spans="5:29" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="54" spans="5:29" x14ac:dyDescent="0.3">
+      <c r="E54" s="77"/>
+      <c r="F54" s="78"/>
+      <c r="G54" s="63"/>
+      <c r="H54" s="63"/>
+      <c r="I54" s="79"/>
+      <c r="J54" s="78"/>
+      <c r="K54" s="63"/>
+      <c r="L54" s="63"/>
+      <c r="M54" s="79"/>
+      <c r="N54" s="78"/>
+      <c r="O54" s="63"/>
+      <c r="P54" s="63"/>
+      <c r="Q54" s="79"/>
+      <c r="R54" s="78"/>
+      <c r="S54" s="63"/>
+      <c r="T54" s="63"/>
+      <c r="U54" s="79"/>
+      <c r="V54" s="78"/>
+      <c r="W54" s="63"/>
+      <c r="X54" s="63"/>
+      <c r="Y54" s="79"/>
+      <c r="Z54" s="63"/>
+      <c r="AA54" s="63"/>
+      <c r="AB54" s="63"/>
+      <c r="AC54" s="69"/>
+    </row>
+    <row r="55" spans="5:29" x14ac:dyDescent="0.3">
+      <c r="E55" s="76"/>
+      <c r="F55" s="74"/>
+      <c r="G55" s="64"/>
+      <c r="H55" s="64"/>
+      <c r="I55" s="75"/>
+      <c r="J55" s="74"/>
+      <c r="K55" s="64"/>
+      <c r="L55" s="64"/>
+      <c r="M55" s="75"/>
+      <c r="N55" s="74"/>
+      <c r="O55" s="64"/>
+      <c r="P55" s="64"/>
+      <c r="Q55" s="75"/>
+      <c r="R55" s="74"/>
+      <c r="S55" s="64"/>
+      <c r="T55" s="64"/>
+      <c r="U55" s="75"/>
+      <c r="V55" s="74"/>
+      <c r="W55" s="64"/>
+      <c r="X55" s="64"/>
+      <c r="Y55" s="75"/>
+      <c r="Z55" s="64"/>
+      <c r="AA55" s="64"/>
+      <c r="AB55" s="64"/>
+      <c r="AC55" s="66"/>
+    </row>
+    <row r="56" spans="5:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E56" s="80"/>
+      <c r="F56" s="81"/>
+      <c r="G56" s="67"/>
+      <c r="H56" s="67"/>
+      <c r="I56" s="82"/>
+      <c r="J56" s="81"/>
+      <c r="K56" s="67"/>
+      <c r="L56" s="67"/>
+      <c r="M56" s="82"/>
+      <c r="N56" s="81"/>
+      <c r="O56" s="67"/>
+      <c r="P56" s="67"/>
+      <c r="Q56" s="82"/>
+      <c r="R56" s="81"/>
+      <c r="S56" s="67"/>
+      <c r="T56" s="67"/>
+      <c r="U56" s="82"/>
+      <c r="V56" s="81"/>
+      <c r="W56" s="67"/>
+      <c r="X56" s="67"/>
+      <c r="Y56" s="82"/>
+      <c r="Z56" s="67"/>
+      <c r="AA56" s="67"/>
+      <c r="AB56" s="67"/>
+      <c r="AC56" s="71"/>
+    </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="U1:X1"/>
